--- a/Team.xlsx
+++ b/Team.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPLJava\EPL Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AA2A62-9C47-499B-A99A-85EA97515679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51008DE-925C-4812-AFA4-93F1616284D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2748,8 +2748,8 @@
   </sheetPr>
   <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2846,13 +2846,13 @@
         <v>4.3</v>
       </c>
       <c r="G2" s="28">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="19">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="I2" s="20">
-        <v>2.5999999999999999E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="4"/>
@@ -2886,13 +2886,13 @@
         <v>4.5</v>
       </c>
       <c r="G3" s="28">
-        <v>-0.39</v>
+        <v>-0.09</v>
       </c>
       <c r="H3" s="19">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="I3" s="20">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="17"/>
@@ -2922,13 +2922,13 @@
         <v>5.3</v>
       </c>
       <c r="G4" s="28">
-        <v>0.31</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H4" s="27">
-        <v>0.28999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="I4" s="20">
-        <v>2.3E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="17"/>
@@ -2951,20 +2951,20 @@
         <v>7.2</v>
       </c>
       <c r="E5" s="10">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="G5" s="28">
-        <v>0.96</v>
+        <v>0.01</v>
       </c>
       <c r="H5" s="27">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I5" s="20">
-        <v>0.39200000000000002</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="17"/>
@@ -2994,13 +2994,13 @@
         <v>4.6000000000000005</v>
       </c>
       <c r="G6" s="28">
-        <v>0.45</v>
+        <v>-0.24</v>
       </c>
       <c r="H6" s="27">
-        <v>0.45</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I6" s="20">
-        <v>0.47499999999999998</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="N6" s="4"/>
       <c r="V6" s="4"/>
@@ -3027,13 +3027,13 @@
         <v>4.8</v>
       </c>
       <c r="G7" s="21">
-        <v>-0.31</v>
+        <v>-1</v>
       </c>
       <c r="H7" s="19">
-        <v>0.32</v>
+        <v>-0.27</v>
       </c>
       <c r="I7" s="20">
-        <v>0.19400000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="M7" s="4"/>
       <c r="U7" s="4"/>
@@ -3061,10 +3061,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G8" s="21">
-        <v>0.69</v>
+        <v>0.59</v>
       </c>
       <c r="H8" s="27">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="I8" s="20">
         <v>0.14799999999999999</v>
@@ -3095,13 +3095,13 @@
         <v>12.3</v>
       </c>
       <c r="G9" s="21">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="H9" s="27">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I9" s="20">
-        <v>0.4</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="M9" s="9"/>
       <c r="O9" s="17"/>
@@ -3132,13 +3132,13 @@
         <v>7.9</v>
       </c>
       <c r="G10" s="21">
-        <v>0.15</v>
+        <v>0.67</v>
       </c>
       <c r="H10" s="19">
-        <v>0.49</v>
+        <v>0.66</v>
       </c>
       <c r="I10" s="20">
-        <v>0.127</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="M10" s="4"/>
       <c r="O10" s="17"/>
@@ -3169,13 +3169,13 @@
         <v>12.3</v>
       </c>
       <c r="G11" s="28">
-        <v>0.28999999999999998</v>
+        <v>0.49</v>
       </c>
       <c r="H11" s="27">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="I11" s="20">
-        <v>0.52900000000000003</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="M11" s="4"/>
       <c r="O11" s="17"/>
@@ -3206,13 +3206,13 @@
         <v>7.4</v>
       </c>
       <c r="G12" s="21">
-        <v>-0.2</v>
+        <v>-0.98</v>
       </c>
       <c r="H12" s="27">
-        <v>-0.1</v>
+        <v>-0.72</v>
       </c>
       <c r="I12" s="20">
-        <v>0.26300000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="M12" s="4"/>
       <c r="O12" s="17"/>
@@ -3243,13 +3243,13 @@
         <v>4.8</v>
       </c>
       <c r="G13" s="21">
-        <v>0.99</v>
+        <v>-0.39</v>
       </c>
       <c r="H13" s="27">
-        <v>0.97</v>
+        <v>-0.36</v>
       </c>
       <c r="I13" s="20">
-        <v>0.249</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="M13" s="4"/>
       <c r="O13" s="17"/>
@@ -3280,13 +3280,13 @@
         <v>5.9</v>
       </c>
       <c r="G14" s="21">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="H14" s="19">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="I14" s="20">
-        <v>0.34699999999999998</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="17"/>
@@ -3315,13 +3315,13 @@
         <v>5.9</v>
       </c>
       <c r="G15" s="28">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
       <c r="H15" s="27">
-        <v>0.55000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="I15" s="20">
-        <v>7.0000000000000007E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="17"/>
@@ -3344,20 +3344,20 @@
         <v>9.4</v>
       </c>
       <c r="E16" s="10">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>9.7000000000000011</v>
       </c>
       <c r="G16" s="21">
-        <v>0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="H16" s="21">
-        <v>0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="I16" s="20">
-        <v>0.50800000000000001</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="17"/>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="E17" s="10">
         <f>SUM(E2:E16)+D19</f>
-        <v>104.39999999999998</v>
+        <v>104.39999999999999</v>
       </c>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
@@ -3570,7 +3570,7 @@
         <v>69</v>
       </c>
       <c r="C23" s="23">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>75</v>
@@ -3580,11 +3580,11 @@
       </c>
       <c r="F23" s="23">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-1.0999999999999996</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" ref="G23" si="2">F23+G22</f>
-        <v>-2.3314683517128287E-14</v>
+        <v>-0.10000000000002296</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="23" t="s">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="G24" s="25">
         <f>F24+G23</f>
-        <v>-2.3314683517128287E-14</v>
+        <v>-0.10000000000002296</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="33" t="s">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="G25" s="25">
         <f t="shared" ref="G25:G26" si="3">F25+G24</f>
-        <v>-2.3314683517128287E-14</v>
+        <v>-0.10000000000002296</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="23" t="s">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="G26" s="25">
         <f t="shared" si="3"/>
-        <v>-2.3314683517128287E-14</v>
+        <v>-0.10000000000002296</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="33" t="s">
@@ -4300,7 +4300,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="23">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>75</v>
@@ -4310,11 +4310,11 @@
       </c>
       <c r="F33" s="23">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>-1.0999999999999996</v>
       </c>
       <c r="G33" s="25">
         <f t="shared" ref="G33" si="5">F33+G32</f>
-        <v>6.4999999999999778</v>
+        <v>6.3999999999999782</v>
       </c>
       <c r="J33" s="33" t="s">
         <v>3</v>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="G34" s="25">
         <f>F34+G33</f>
-        <v>6.4999999999999778</v>
+        <v>6.3999999999999782</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="G35" s="25">
         <f t="shared" ref="G35:G36" si="6">F35+G34</f>
-        <v>6.4999999999999778</v>
+        <v>6.3999999999999782</v>
       </c>
       <c r="J35" s="29" t="s">
         <v>5</v>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="G36" s="25">
         <f t="shared" si="6"/>
-        <v>6.4999999999999778</v>
+        <v>6.3999999999999782</v>
       </c>
       <c r="J36" s="23" t="s">
         <v>5</v>
@@ -4749,7 +4749,7 @@
   <dimension ref="A1:M468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="D208" sqref="D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4839,11 +4839,11 @@
         <v>46.7</v>
       </c>
       <c r="L2">
-        <f>SUM(F2:J2)</f>
+        <f t="shared" ref="L2:L65" si="0">SUM(F2:J2)</f>
         <v>34.799999999999997</v>
       </c>
       <c r="M2">
-        <f>SUM(G2:J2)</f>
+        <f t="shared" ref="M2:M65" si="1">SUM(G2:J2)</f>
         <v>27.799999999999997</v>
       </c>
     </row>
@@ -4882,11 +4882,11 @@
         <v>45.6</v>
       </c>
       <c r="L3" s="22">
-        <f>SUM(F3:J3)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="M3" s="22">
-        <f>SUM(G3:J3)</f>
+        <f t="shared" si="1"/>
         <v>27.200000000000003</v>
       </c>
     </row>
@@ -4925,11 +4925,11 @@
         <v>33.1</v>
       </c>
       <c r="L4" s="22">
-        <f>SUM(F4:J4)</f>
+        <f t="shared" si="0"/>
         <v>27.5</v>
       </c>
       <c r="M4" s="22">
-        <f>SUM(G4:J4)</f>
+        <f t="shared" si="1"/>
         <v>22.9</v>
       </c>
     </row>
@@ -4968,11 +4968,11 @@
         <v>27.3</v>
       </c>
       <c r="L5" s="22">
-        <f>SUM(F5:J5)</f>
+        <f t="shared" si="0"/>
         <v>27.299999999999997</v>
       </c>
       <c r="M5" s="22">
-        <f>SUM(G5:J5)</f>
+        <f t="shared" si="1"/>
         <v>22.3</v>
       </c>
     </row>
@@ -5011,15 +5011,15 @@
         <v>34</v>
       </c>
       <c r="L6" s="22">
-        <f>SUM(F6:J6)</f>
+        <f t="shared" si="0"/>
         <v>26.4</v>
       </c>
       <c r="M6" s="22">
-        <f>SUM(G6:J6)</f>
+        <f t="shared" si="1"/>
         <v>21.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -5054,11 +5054,11 @@
         <v>36.4</v>
       </c>
       <c r="L7" s="22">
-        <f>SUM(F7:J7)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="M7" s="22">
-        <f>SUM(G7:J7)</f>
+        <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
     </row>
@@ -5097,11 +5097,11 @@
         <v>32.6</v>
       </c>
       <c r="L8" s="22">
-        <f>SUM(F8:J8)</f>
+        <f t="shared" si="0"/>
         <v>26.1</v>
       </c>
       <c r="M8" s="22">
-        <f>SUM(G8:J8)</f>
+        <f t="shared" si="1"/>
         <v>21.200000000000003</v>
       </c>
     </row>
@@ -5140,11 +5140,11 @@
         <v>28.6</v>
       </c>
       <c r="L9" s="22">
-        <f>SUM(F9:J9)</f>
+        <f t="shared" si="0"/>
         <v>24.2</v>
       </c>
       <c r="M9" s="22">
-        <f>SUM(G9:J9)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
@@ -5183,11 +5183,11 @@
         <v>30.2</v>
       </c>
       <c r="L10" s="22">
-        <f>SUM(F10:J10)</f>
+        <f t="shared" si="0"/>
         <v>25.1</v>
       </c>
       <c r="M10" s="22">
-        <f>SUM(G10:J10)</f>
+        <f t="shared" si="1"/>
         <v>20.799999999999997</v>
       </c>
     </row>
@@ -5226,11 +5226,11 @@
         <v>35</v>
       </c>
       <c r="L11" s="22">
-        <f>SUM(F11:J11)</f>
+        <f t="shared" si="0"/>
         <v>25.900000000000002</v>
       </c>
       <c r="M11" s="22">
-        <f>SUM(G11:J11)</f>
+        <f t="shared" si="1"/>
         <v>20.7</v>
       </c>
     </row>
@@ -5269,11 +5269,11 @@
         <v>30.2</v>
       </c>
       <c r="L12" s="22">
-        <f>SUM(F12:J12)</f>
+        <f t="shared" si="0"/>
         <v>24.999999999999996</v>
       </c>
       <c r="M12" s="22">
-        <f>SUM(G12:J12)</f>
+        <f t="shared" si="1"/>
         <v>20.7</v>
       </c>
     </row>
@@ -5312,15 +5312,15 @@
         <v>29.8</v>
       </c>
       <c r="L13" s="22">
-        <f>SUM(F13:J13)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="M13" s="22">
-        <f>SUM(G13:J13)</f>
+        <f t="shared" si="1"/>
         <v>19.799999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -5355,11 +5355,11 @@
         <v>33.200000000000003</v>
       </c>
       <c r="L14" s="22">
-        <f>SUM(F14:J14)</f>
+        <f t="shared" si="0"/>
         <v>24.6</v>
       </c>
       <c r="M14" s="22">
-        <f>SUM(G14:J14)</f>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
     </row>
@@ -5398,11 +5398,11 @@
         <v>31.1</v>
       </c>
       <c r="L15" s="22">
-        <f>SUM(F15:J15)</f>
+        <f t="shared" si="0"/>
         <v>24.599999999999998</v>
       </c>
       <c r="M15" s="22">
-        <f>SUM(G15:J15)</f>
+        <f t="shared" si="1"/>
         <v>18.899999999999999</v>
       </c>
     </row>
@@ -5441,15 +5441,15 @@
         <v>26.7</v>
       </c>
       <c r="L16" s="22">
-        <f>SUM(F16:J16)</f>
+        <f t="shared" si="0"/>
         <v>22.7</v>
       </c>
       <c r="M16" s="22">
-        <f>SUM(G16:J16)</f>
+        <f t="shared" si="1"/>
         <v>18.799999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -5484,11 +5484,11 @@
         <v>31.5</v>
       </c>
       <c r="L17" s="22">
-        <f>SUM(F17:J17)</f>
+        <f t="shared" si="0"/>
         <v>23.4</v>
       </c>
       <c r="M17" s="22">
-        <f>SUM(G17:J17)</f>
+        <f t="shared" si="1"/>
         <v>18.600000000000001</v>
       </c>
     </row>
@@ -5527,11 +5527,11 @@
         <v>27.5</v>
       </c>
       <c r="L18" s="22">
-        <f>SUM(F18:J18)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="M18" s="22">
-        <f>SUM(G18:J18)</f>
+        <f t="shared" si="1"/>
         <v>17.8</v>
       </c>
     </row>
@@ -5570,11 +5570,11 @@
         <v>27.4</v>
       </c>
       <c r="L19" s="22">
-        <f>SUM(F19:J19)</f>
+        <f t="shared" si="0"/>
         <v>21.3</v>
       </c>
       <c r="M19" s="22">
-        <f>SUM(G19:J19)</f>
+        <f t="shared" si="1"/>
         <v>17.600000000000001</v>
       </c>
     </row>
@@ -5613,11 +5613,11 @@
         <v>20.6</v>
       </c>
       <c r="L20" s="22">
-        <f>SUM(F20:J20)</f>
+        <f t="shared" si="0"/>
         <v>20.6</v>
       </c>
       <c r="M20" s="22">
-        <f>SUM(G20:J20)</f>
+        <f t="shared" si="1"/>
         <v>17.400000000000002</v>
       </c>
     </row>
@@ -5656,11 +5656,11 @@
         <v>27.1</v>
       </c>
       <c r="L21" s="22">
-        <f>SUM(F21:J21)</f>
+        <f t="shared" si="0"/>
         <v>21.4</v>
       </c>
       <c r="M21" s="22">
-        <f>SUM(G21:J21)</f>
+        <f t="shared" si="1"/>
         <v>16.899999999999999</v>
       </c>
     </row>
@@ -5699,11 +5699,11 @@
         <v>24.2</v>
       </c>
       <c r="L22" s="22">
-        <f>SUM(F22:J22)</f>
+        <f t="shared" si="0"/>
         <v>20.299999999999997</v>
       </c>
       <c r="M22" s="22">
-        <f>SUM(G22:J22)</f>
+        <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
     </row>
@@ -5742,15 +5742,15 @@
         <v>24.3</v>
       </c>
       <c r="L23" s="22">
-        <f>SUM(F23:J23)</f>
+        <f t="shared" si="0"/>
         <v>20.7</v>
       </c>
       <c r="M23" s="22">
-        <f>SUM(G23:J23)</f>
+        <f t="shared" si="1"/>
         <v>16.3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>119</v>
       </c>
@@ -5785,11 +5785,11 @@
         <v>21.3</v>
       </c>
       <c r="L24" s="22">
-        <f>SUM(F24:J24)</f>
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
       <c r="M24" s="22">
-        <f>SUM(G24:J24)</f>
+        <f t="shared" si="1"/>
         <v>16.100000000000001</v>
       </c>
     </row>
@@ -5828,11 +5828,11 @@
         <v>27.6</v>
       </c>
       <c r="L25" s="22">
-        <f>SUM(F25:J25)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M25" s="22">
-        <f>SUM(G25:J25)</f>
+        <f t="shared" si="1"/>
         <v>15.9</v>
       </c>
     </row>
@@ -5871,11 +5871,11 @@
         <v>23.4</v>
       </c>
       <c r="L26" s="22">
-        <f>SUM(F26:J26)</f>
+        <f t="shared" si="0"/>
         <v>19.2</v>
       </c>
       <c r="M26" s="22">
-        <f>SUM(G26:J26)</f>
+        <f t="shared" si="1"/>
         <v>15.8</v>
       </c>
     </row>
@@ -5914,11 +5914,11 @@
         <v>23.4</v>
       </c>
       <c r="L27" s="22">
-        <f>SUM(F27:J27)</f>
+        <f t="shared" si="0"/>
         <v>19.600000000000001</v>
       </c>
       <c r="M27" s="22">
-        <f>SUM(G27:J27)</f>
+        <f t="shared" si="1"/>
         <v>15.600000000000001</v>
       </c>
     </row>
@@ -5957,11 +5957,11 @@
         <v>22.7</v>
       </c>
       <c r="L28" s="22">
-        <f>SUM(F28:J28)</f>
+        <f t="shared" si="0"/>
         <v>19.399999999999999</v>
       </c>
       <c r="M28" s="22">
-        <f>SUM(G28:J28)</f>
+        <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
     </row>
@@ -6000,11 +6000,11 @@
         <v>22.3</v>
       </c>
       <c r="L29" s="22">
-        <f>SUM(F29:J29)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="M29" s="22">
-        <f>SUM(G29:J29)</f>
+        <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
     </row>
@@ -6043,11 +6043,11 @@
         <v>20.9</v>
       </c>
       <c r="L30" s="22">
-        <f>SUM(F30:J30)</f>
+        <f t="shared" si="0"/>
         <v>18.3</v>
       </c>
       <c r="M30" s="22">
-        <f>SUM(G30:J30)</f>
+        <f t="shared" si="1"/>
         <v>15.100000000000001</v>
       </c>
     </row>
@@ -6086,15 +6086,15 @@
         <v>22.2</v>
       </c>
       <c r="L31" s="22">
-        <f>SUM(F31:J31)</f>
+        <f t="shared" si="0"/>
         <v>18.599999999999998</v>
       </c>
       <c r="M31" s="22">
-        <f>SUM(G31:J31)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -6129,11 +6129,11 @@
         <v>20.6</v>
       </c>
       <c r="L32" s="22">
-        <f>SUM(F32:J32)</f>
+        <f t="shared" si="0"/>
         <v>17.8</v>
       </c>
       <c r="M32" s="22">
-        <f>SUM(G32:J32)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -6172,11 +6172,11 @@
         <v>20.7</v>
       </c>
       <c r="L33" s="22">
-        <f>SUM(F33:J33)</f>
+        <f t="shared" si="0"/>
         <v>17.399999999999999</v>
       </c>
       <c r="M33" s="22">
-        <f>SUM(G33:J33)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -6215,11 +6215,11 @@
         <v>23</v>
       </c>
       <c r="L34" s="22">
-        <f>SUM(F34:J34)</f>
+        <f t="shared" si="0"/>
         <v>18.7</v>
       </c>
       <c r="M34" s="22">
-        <f>SUM(G34:J34)</f>
+        <f t="shared" si="1"/>
         <v>14.799999999999999</v>
       </c>
     </row>
@@ -6258,11 +6258,11 @@
         <v>22.6</v>
       </c>
       <c r="L35" s="22">
-        <f>SUM(F35:J35)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="M35" s="22">
-        <f>SUM(G35:J35)</f>
+        <f t="shared" si="1"/>
         <v>14.7</v>
       </c>
     </row>
@@ -6301,15 +6301,15 @@
         <v>21</v>
       </c>
       <c r="L36" s="22">
-        <f>SUM(F36:J36)</f>
+        <f t="shared" si="0"/>
         <v>17.799999999999997</v>
       </c>
       <c r="M36" s="22">
-        <f>SUM(G36:J36)</f>
+        <f t="shared" si="1"/>
         <v>14.6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>108</v>
       </c>
@@ -6344,11 +6344,11 @@
         <v>22.4</v>
       </c>
       <c r="L37" s="22">
-        <f>SUM(F37:J37)</f>
+        <f t="shared" si="0"/>
         <v>17.899999999999999</v>
       </c>
       <c r="M37" s="22">
-        <f>SUM(G37:J37)</f>
+        <f t="shared" si="1"/>
         <v>14.599999999999998</v>
       </c>
     </row>
@@ -6387,11 +6387,11 @@
         <v>23.6</v>
       </c>
       <c r="L38" s="22">
-        <f>SUM(F38:J38)</f>
+        <f t="shared" si="0"/>
         <v>17.799999999999997</v>
       </c>
       <c r="M38" s="22">
-        <f>SUM(G38:J38)</f>
+        <f t="shared" si="1"/>
         <v>14.500000000000002</v>
       </c>
     </row>
@@ -6430,11 +6430,11 @@
         <v>22.4</v>
       </c>
       <c r="L39" s="22">
-        <f>SUM(F39:J39)</f>
+        <f t="shared" si="0"/>
         <v>17.899999999999999</v>
       </c>
       <c r="M39" s="22">
-        <f>SUM(G39:J39)</f>
+        <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
     </row>
@@ -6473,11 +6473,11 @@
         <v>21.9</v>
       </c>
       <c r="L40" s="22">
-        <f>SUM(F40:J40)</f>
+        <f t="shared" si="0"/>
         <v>17.8</v>
       </c>
       <c r="M40" s="22">
-        <f>SUM(G40:J40)</f>
+        <f t="shared" si="1"/>
         <v>14.399999999999999</v>
       </c>
     </row>
@@ -6516,11 +6516,11 @@
         <v>20.100000000000001</v>
       </c>
       <c r="L41" s="22">
-        <f>SUM(F41:J41)</f>
+        <f t="shared" si="0"/>
         <v>17.399999999999999</v>
       </c>
       <c r="M41" s="22">
-        <f>SUM(G41:J41)</f>
+        <f t="shared" si="1"/>
         <v>14.399999999999999</v>
       </c>
     </row>
@@ -6559,11 +6559,11 @@
         <v>20.8</v>
       </c>
       <c r="L42" s="22">
-        <f>SUM(F42:J42)</f>
+        <f t="shared" si="0"/>
         <v>17.7</v>
       </c>
       <c r="M42" s="22">
-        <f>SUM(G42:J42)</f>
+        <f t="shared" si="1"/>
         <v>14.2</v>
       </c>
     </row>
@@ -6602,11 +6602,11 @@
         <v>20.399999999999999</v>
       </c>
       <c r="L43" s="22">
-        <f>SUM(F43:J43)</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="M43" s="22">
-        <f>SUM(G43:J43)</f>
+        <f t="shared" si="1"/>
         <v>14.2</v>
       </c>
     </row>
@@ -6645,11 +6645,11 @@
         <v>21.1</v>
       </c>
       <c r="L44" s="22">
-        <f>SUM(F44:J44)</f>
+        <f t="shared" si="0"/>
         <v>17.399999999999999</v>
       </c>
       <c r="M44" s="22">
-        <f>SUM(G44:J44)</f>
+        <f t="shared" si="1"/>
         <v>14.2</v>
       </c>
     </row>
@@ -6688,11 +6688,11 @@
         <v>20.2</v>
       </c>
       <c r="L45" s="22">
-        <f>SUM(F45:J45)</f>
+        <f t="shared" si="0"/>
         <v>17.2</v>
       </c>
       <c r="M45" s="22">
-        <f>SUM(G45:J45)</f>
+        <f t="shared" si="1"/>
         <v>14.2</v>
       </c>
     </row>
@@ -6731,11 +6731,11 @@
         <v>22</v>
       </c>
       <c r="L46" s="22">
-        <f>SUM(F46:J46)</f>
+        <f t="shared" si="0"/>
         <v>17.099999999999998</v>
       </c>
       <c r="M46" s="22">
-        <f>SUM(G46:J46)</f>
+        <f t="shared" si="1"/>
         <v>14.1</v>
       </c>
     </row>
@@ -6774,11 +6774,11 @@
         <v>21.7</v>
       </c>
       <c r="L47" s="22">
-        <f>SUM(F47:J47)</f>
+        <f t="shared" si="0"/>
         <v>17.899999999999999</v>
       </c>
       <c r="M47" s="22">
-        <f>SUM(G47:J47)</f>
+        <f t="shared" si="1"/>
         <v>14.099999999999998</v>
       </c>
     </row>
@@ -6817,11 +6817,11 @@
         <v>21.3</v>
       </c>
       <c r="L48" s="22">
-        <f>SUM(F48:J48)</f>
+        <f t="shared" si="0"/>
         <v>17.799999999999997</v>
       </c>
       <c r="M48" s="22">
-        <f>SUM(G48:J48)</f>
+        <f t="shared" si="1"/>
         <v>13.9</v>
       </c>
     </row>
@@ -6860,11 +6860,11 @@
         <v>21.6</v>
       </c>
       <c r="L49" s="22">
-        <f>SUM(F49:J49)</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="M49" s="22">
-        <f>SUM(G49:J49)</f>
+        <f t="shared" si="1"/>
         <v>13.9</v>
       </c>
     </row>
@@ -6903,11 +6903,11 @@
         <v>21.1</v>
       </c>
       <c r="L50" s="22">
-        <f>SUM(F50:J50)</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="M50" s="22">
-        <f>SUM(G50:J50)</f>
+        <f t="shared" si="1"/>
         <v>13.9</v>
       </c>
     </row>
@@ -6946,15 +6946,15 @@
         <v>20.8</v>
       </c>
       <c r="L51" s="22">
-        <f>SUM(F51:J51)</f>
+        <f t="shared" si="0"/>
         <v>16.899999999999999</v>
       </c>
       <c r="M51" s="22">
-        <f>SUM(G51:J51)</f>
+        <f t="shared" si="1"/>
         <v>13.9</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>152</v>
       </c>
@@ -6989,11 +6989,11 @@
         <v>18.5</v>
       </c>
       <c r="L52" s="22">
-        <f>SUM(F52:J52)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="M52" s="22">
-        <f>SUM(G52:J52)</f>
+        <f t="shared" si="1"/>
         <v>13.899999999999999</v>
       </c>
     </row>
@@ -7032,11 +7032,11 @@
         <v>22.3</v>
       </c>
       <c r="L53" s="22">
-        <f>SUM(F53:J53)</f>
+        <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
       <c r="M53" s="22">
-        <f>SUM(G53:J53)</f>
+        <f t="shared" si="1"/>
         <v>13.8</v>
       </c>
     </row>
@@ -7075,15 +7075,15 @@
         <v>20.9</v>
       </c>
       <c r="L54" s="22">
-        <f>SUM(F54:J54)</f>
+        <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
       <c r="M54" s="22">
-        <f>SUM(G54:J54)</f>
+        <f t="shared" si="1"/>
         <v>13.8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>143</v>
       </c>
@@ -7118,11 +7118,11 @@
         <v>20</v>
       </c>
       <c r="L55" s="22">
-        <f>SUM(F55:J55)</f>
+        <f t="shared" si="0"/>
         <v>16.399999999999999</v>
       </c>
       <c r="M55" s="22">
-        <f>SUM(G55:J55)</f>
+        <f t="shared" si="1"/>
         <v>13.8</v>
       </c>
     </row>
@@ -7161,11 +7161,11 @@
         <v>20.399999999999999</v>
       </c>
       <c r="L56" s="22">
-        <f>SUM(F56:J56)</f>
+        <f t="shared" si="0"/>
         <v>16.7</v>
       </c>
       <c r="M56" s="22">
-        <f>SUM(G56:J56)</f>
+        <f t="shared" si="1"/>
         <v>13.600000000000001</v>
       </c>
     </row>
@@ -7204,11 +7204,11 @@
         <v>15.4</v>
       </c>
       <c r="L57" s="22">
-        <f>SUM(F57:J57)</f>
+        <f t="shared" si="0"/>
         <v>15.399999999999999</v>
       </c>
       <c r="M57" s="22">
-        <f>SUM(G57:J57)</f>
+        <f t="shared" si="1"/>
         <v>13.599999999999998</v>
       </c>
     </row>
@@ -7247,11 +7247,11 @@
         <v>20.7</v>
       </c>
       <c r="L58" s="22">
-        <f>SUM(F58:J58)</f>
+        <f t="shared" si="0"/>
         <v>17.200000000000003</v>
       </c>
       <c r="M58" s="22">
-        <f>SUM(G58:J58)</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
     </row>
@@ -7290,11 +7290,11 @@
         <v>21.7</v>
       </c>
       <c r="L59" s="22">
-        <f>SUM(F59:J59)</f>
+        <f t="shared" si="0"/>
         <v>17.2</v>
       </c>
       <c r="M59" s="22">
-        <f>SUM(G59:J59)</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
     </row>
@@ -7333,11 +7333,11 @@
         <v>17.100000000000001</v>
       </c>
       <c r="L60" s="22">
-        <f>SUM(F60:J60)</f>
+        <f t="shared" si="0"/>
         <v>17.100000000000001</v>
       </c>
       <c r="M60" s="22">
-        <f>SUM(G60:J60)</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
     </row>
@@ -7376,15 +7376,15 @@
         <v>19.7</v>
       </c>
       <c r="L61" s="22">
-        <f>SUM(F61:J61)</f>
+        <f t="shared" si="0"/>
         <v>16.7</v>
       </c>
       <c r="M61" s="22">
-        <f>SUM(G61:J61)</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>166</v>
       </c>
@@ -7419,11 +7419,11 @@
         <v>17.8</v>
       </c>
       <c r="L62" s="22">
-        <f>SUM(F62:J62)</f>
+        <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
       <c r="M62" s="22">
-        <f>SUM(G62:J62)</f>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
     </row>
@@ -7462,11 +7462,11 @@
         <v>21.2</v>
       </c>
       <c r="L63" s="22">
-        <f>SUM(F63:J63)</f>
+        <f t="shared" si="0"/>
         <v>17.200000000000003</v>
       </c>
       <c r="M63" s="22">
-        <f>SUM(G63:J63)</f>
+        <f t="shared" si="1"/>
         <v>13.4</v>
       </c>
     </row>
@@ -7505,11 +7505,11 @@
         <v>16.899999999999999</v>
       </c>
       <c r="L64" s="22">
-        <f>SUM(F64:J64)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="M64" s="22">
-        <f>SUM(G64:J64)</f>
+        <f t="shared" si="1"/>
         <v>13.4</v>
       </c>
     </row>
@@ -7548,15 +7548,15 @@
         <v>18.600000000000001</v>
       </c>
       <c r="L65" s="22">
-        <f>SUM(F65:J65)</f>
+        <f t="shared" si="0"/>
         <v>15.7</v>
       </c>
       <c r="M65" s="22">
-        <f>SUM(G65:J65)</f>
+        <f t="shared" si="1"/>
         <v>13.4</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -7591,11 +7591,11 @@
         <v>20.2</v>
       </c>
       <c r="L66" s="22">
-        <f>SUM(F66:J66)</f>
+        <f t="shared" ref="L66:L129" si="2">SUM(F66:J66)</f>
         <v>15.5</v>
       </c>
       <c r="M66" s="22">
-        <f>SUM(G66:J66)</f>
+        <f t="shared" ref="M66:M129" si="3">SUM(G66:J66)</f>
         <v>13.399999999999999</v>
       </c>
     </row>
@@ -7634,15 +7634,15 @@
         <v>19.399999999999999</v>
       </c>
       <c r="L67" s="22">
-        <f>SUM(F67:J67)</f>
+        <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
       <c r="M67" s="22">
-        <f>SUM(G67:J67)</f>
+        <f t="shared" si="3"/>
         <v>13.3</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>171</v>
       </c>
@@ -7677,11 +7677,11 @@
         <v>17.7</v>
       </c>
       <c r="L68" s="22">
-        <f>SUM(F68:J68)</f>
+        <f t="shared" si="2"/>
         <v>16.100000000000001</v>
       </c>
       <c r="M68" s="22">
-        <f>SUM(G68:J68)</f>
+        <f t="shared" si="3"/>
         <v>13.2</v>
       </c>
     </row>
@@ -7720,15 +7720,15 @@
         <v>16.7</v>
       </c>
       <c r="L69" s="22">
-        <f>SUM(F69:J69)</f>
+        <f t="shared" si="2"/>
         <v>16.7</v>
       </c>
       <c r="M69" s="22">
-        <f>SUM(G69:J69)</f>
+        <f t="shared" si="3"/>
         <v>13.100000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>213</v>
       </c>
@@ -7763,11 +7763,11 @@
         <v>15</v>
       </c>
       <c r="L70" s="22">
-        <f>SUM(F70:J70)</f>
+        <f t="shared" si="2"/>
         <v>15.1</v>
       </c>
       <c r="M70" s="22">
-        <f>SUM(G70:J70)</f>
+        <f t="shared" si="3"/>
         <v>13.1</v>
       </c>
     </row>
@@ -7806,11 +7806,11 @@
         <v>19</v>
       </c>
       <c r="L71" s="22">
-        <f>SUM(F71:J71)</f>
+        <f t="shared" si="2"/>
         <v>15.799999999999999</v>
       </c>
       <c r="M71" s="22">
-        <f>SUM(G71:J71)</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
@@ -7849,11 +7849,11 @@
         <v>20.3</v>
       </c>
       <c r="L72" s="22">
-        <f>SUM(F72:J72)</f>
+        <f t="shared" si="2"/>
         <v>15.899999999999999</v>
       </c>
       <c r="M72" s="22">
-        <f>SUM(G72:J72)</f>
+        <f t="shared" si="3"/>
         <v>12.8</v>
       </c>
     </row>
@@ -7892,11 +7892,11 @@
         <v>21.8</v>
       </c>
       <c r="L73" s="22">
-        <f>SUM(F73:J73)</f>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="M73" s="22">
-        <f>SUM(G73:J73)</f>
+        <f t="shared" si="3"/>
         <v>12.799999999999999</v>
       </c>
     </row>
@@ -7935,11 +7935,11 @@
         <v>20.2</v>
       </c>
       <c r="L74" s="22">
-        <f>SUM(F74:J74)</f>
+        <f t="shared" si="2"/>
         <v>16.499999999999996</v>
       </c>
       <c r="M74" s="22">
-        <f>SUM(G74:J74)</f>
+        <f t="shared" si="3"/>
         <v>12.799999999999999</v>
       </c>
     </row>
@@ -7978,11 +7978,11 @@
         <v>20.7</v>
       </c>
       <c r="L75" s="22">
-        <f>SUM(F75:J75)</f>
+        <f t="shared" si="2"/>
         <v>16.600000000000001</v>
       </c>
       <c r="M75" s="22">
-        <f>SUM(G75:J75)</f>
+        <f t="shared" si="3"/>
         <v>12.7</v>
       </c>
     </row>
@@ -8021,15 +8021,15 @@
         <v>18.100000000000001</v>
       </c>
       <c r="L76" s="22">
-        <f>SUM(F76:J76)</f>
+        <f t="shared" si="2"/>
         <v>15.3</v>
       </c>
       <c r="M76" s="22">
-        <f>SUM(G76:J76)</f>
+        <f t="shared" si="3"/>
         <v>12.6</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>167</v>
       </c>
@@ -8064,15 +8064,15 @@
         <v>17.7</v>
       </c>
       <c r="L77" s="22">
-        <f>SUM(F77:J77)</f>
+        <f t="shared" si="2"/>
         <v>15.600000000000001</v>
       </c>
       <c r="M77" s="22">
-        <f>SUM(G77:J77)</f>
+        <f t="shared" si="3"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>31</v>
       </c>
@@ -8107,11 +8107,11 @@
         <v>17.8</v>
       </c>
       <c r="L78" s="22">
-        <f>SUM(F78:J78)</f>
+        <f t="shared" si="2"/>
         <v>15.1</v>
       </c>
       <c r="M78" s="22">
-        <f>SUM(G78:J78)</f>
+        <f t="shared" si="3"/>
         <v>12.4</v>
       </c>
     </row>
@@ -8150,15 +8150,15 @@
         <v>18.3</v>
       </c>
       <c r="L79" s="22">
-        <f>SUM(F79:J79)</f>
+        <f t="shared" si="2"/>
         <v>15.600000000000001</v>
       </c>
       <c r="M79" s="22">
-        <f>SUM(G79:J79)</f>
+        <f t="shared" si="3"/>
         <v>12.399999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>146</v>
       </c>
@@ -8193,11 +8193,11 @@
         <v>19.100000000000001</v>
       </c>
       <c r="L80" s="22">
-        <f>SUM(F80:J80)</f>
+        <f t="shared" si="2"/>
         <v>15.1</v>
       </c>
       <c r="M80" s="22">
-        <f>SUM(G80:J80)</f>
+        <f t="shared" si="3"/>
         <v>12.3</v>
       </c>
     </row>
@@ -8236,15 +8236,15 @@
         <v>18.5</v>
       </c>
       <c r="L81" s="22">
-        <f>SUM(F81:J81)</f>
+        <f t="shared" si="2"/>
         <v>15.7</v>
       </c>
       <c r="M81" s="22">
-        <f>SUM(G81:J81)</f>
+        <f t="shared" si="3"/>
         <v>12.2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>174</v>
       </c>
@@ -8279,15 +8279,15 @@
         <v>17.5</v>
       </c>
       <c r="L82" s="22">
-        <f>SUM(F82:J82)</f>
+        <f t="shared" si="2"/>
         <v>14.8</v>
       </c>
       <c r="M82" s="22">
-        <f>SUM(G82:J82)</f>
+        <f t="shared" si="3"/>
         <v>12.100000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>150</v>
       </c>
@@ -8322,15 +8322,15 @@
         <v>18.7</v>
       </c>
       <c r="L83" s="22">
-        <f>SUM(F83:J83)</f>
+        <f t="shared" si="2"/>
         <v>14.799999999999999</v>
       </c>
       <c r="M83" s="22">
-        <f>SUM(G83:J83)</f>
+        <f t="shared" si="3"/>
         <v>12.1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>160</v>
       </c>
@@ -8365,11 +8365,11 @@
         <v>18.2</v>
       </c>
       <c r="L84" s="22">
-        <f>SUM(F84:J84)</f>
+        <f t="shared" si="2"/>
         <v>14.600000000000001</v>
       </c>
       <c r="M84" s="22">
-        <f>SUM(G84:J84)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8408,11 +8408,11 @@
         <v>16.3</v>
       </c>
       <c r="L85" s="22">
-        <f>SUM(F85:J85)</f>
+        <f t="shared" si="2"/>
         <v>14.5</v>
       </c>
       <c r="M85" s="22">
-        <f>SUM(G85:J85)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8451,11 +8451,11 @@
         <v>17.5</v>
       </c>
       <c r="L86" s="22">
-        <f>SUM(F86:J86)</f>
+        <f t="shared" si="2"/>
         <v>14.499999999999998</v>
       </c>
       <c r="M86" s="22">
-        <f>SUM(G86:J86)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -8494,15 +8494,15 @@
         <v>22</v>
       </c>
       <c r="L87" s="22">
-        <f>SUM(F87:J87)</f>
+        <f t="shared" si="2"/>
         <v>15.799999999999999</v>
       </c>
       <c r="M87" s="22">
-        <f>SUM(G87:J87)</f>
+        <f t="shared" si="3"/>
         <v>11.999999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>142</v>
       </c>
@@ -8537,11 +8537,11 @@
         <v>20</v>
       </c>
       <c r="L88" s="22">
-        <f>SUM(F88:J88)</f>
+        <f t="shared" si="2"/>
         <v>15.299999999999999</v>
       </c>
       <c r="M88" s="22">
-        <f>SUM(G88:J88)</f>
+        <f t="shared" si="3"/>
         <v>11.999999999999998</v>
       </c>
     </row>
@@ -8580,15 +8580,15 @@
         <v>17.7</v>
       </c>
       <c r="L89" s="22">
-        <f>SUM(F89:J89)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M89" s="22">
-        <f>SUM(G89:J89)</f>
+        <f t="shared" si="3"/>
         <v>11.899999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>76</v>
       </c>
@@ -8623,11 +8623,11 @@
         <v>15.5</v>
       </c>
       <c r="L90" s="22">
-        <f>SUM(F90:J90)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="M90" s="22">
-        <f>SUM(G90:J90)</f>
+        <f t="shared" si="3"/>
         <v>11.899999999999999</v>
       </c>
     </row>
@@ -8666,15 +8666,15 @@
         <v>18.399999999999999</v>
       </c>
       <c r="L91" s="22">
-        <f>SUM(F91:J91)</f>
+        <f t="shared" si="2"/>
         <v>15.6</v>
       </c>
       <c r="M91" s="22">
-        <f>SUM(G91:J91)</f>
+        <f t="shared" si="3"/>
         <v>11.799999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>201</v>
       </c>
@@ -8709,11 +8709,11 @@
         <v>16</v>
       </c>
       <c r="L92" s="22">
-        <f>SUM(F92:J92)</f>
+        <f t="shared" si="2"/>
         <v>13.8</v>
       </c>
       <c r="M92" s="22">
-        <f>SUM(G92:J92)</f>
+        <f t="shared" si="3"/>
         <v>11.700000000000001</v>
       </c>
     </row>
@@ -8752,11 +8752,11 @@
         <v>20.3</v>
       </c>
       <c r="L93" s="22">
-        <f>SUM(F93:J93)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="M93" s="22">
-        <f>SUM(G93:J93)</f>
+        <f t="shared" si="3"/>
         <v>11.7</v>
       </c>
     </row>
@@ -8795,11 +8795,11 @@
         <v>18.399999999999999</v>
       </c>
       <c r="L94" s="22">
-        <f>SUM(F94:J94)</f>
+        <f t="shared" si="2"/>
         <v>15.3</v>
       </c>
       <c r="M94" s="22">
-        <f>SUM(G94:J94)</f>
+        <f t="shared" si="3"/>
         <v>11.7</v>
       </c>
     </row>
@@ -8838,11 +8838,11 @@
         <v>19</v>
       </c>
       <c r="L95" s="22">
-        <f>SUM(F95:J95)</f>
+        <f t="shared" si="2"/>
         <v>15.100000000000001</v>
       </c>
       <c r="M95" s="22">
-        <f>SUM(G95:J95)</f>
+        <f t="shared" si="3"/>
         <v>11.7</v>
       </c>
     </row>
@@ -8881,11 +8881,11 @@
         <v>17.5</v>
       </c>
       <c r="L96" s="22">
-        <f>SUM(F96:J96)</f>
+        <f t="shared" si="2"/>
         <v>14.2</v>
       </c>
       <c r="M96" s="22">
-        <f>SUM(G96:J96)</f>
+        <f t="shared" si="3"/>
         <v>11.7</v>
       </c>
     </row>
@@ -8924,15 +8924,15 @@
         <v>18.8</v>
       </c>
       <c r="L97" s="22">
-        <f>SUM(F97:J97)</f>
+        <f t="shared" si="2"/>
         <v>15.100000000000001</v>
       </c>
       <c r="M97" s="22">
-        <f>SUM(G97:J97)</f>
+        <f t="shared" si="3"/>
         <v>11.600000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>206</v>
       </c>
@@ -8967,11 +8967,11 @@
         <v>15.5</v>
       </c>
       <c r="L98" s="22">
-        <f>SUM(F98:J98)</f>
+        <f t="shared" si="2"/>
         <v>14.2</v>
       </c>
       <c r="M98" s="22">
-        <f>SUM(G98:J98)</f>
+        <f t="shared" si="3"/>
         <v>11.600000000000001</v>
       </c>
     </row>
@@ -9010,15 +9010,15 @@
         <v>18.3</v>
       </c>
       <c r="L99" s="22">
-        <f>SUM(F99:J99)</f>
+        <f t="shared" si="2"/>
         <v>15.399999999999999</v>
       </c>
       <c r="M99" s="22">
-        <f>SUM(G99:J99)</f>
+        <f t="shared" si="3"/>
         <v>11.6</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>192</v>
       </c>
@@ -9053,11 +9053,11 @@
         <v>16.5</v>
       </c>
       <c r="L100" s="22">
-        <f>SUM(F100:J100)</f>
+        <f t="shared" si="2"/>
         <v>14.5</v>
       </c>
       <c r="M100" s="22">
-        <f>SUM(G100:J100)</f>
+        <f t="shared" si="3"/>
         <v>11.6</v>
       </c>
     </row>
@@ -9096,11 +9096,11 @@
         <v>17.2</v>
       </c>
       <c r="L101" s="22">
-        <f>SUM(F101:J101)</f>
+        <f t="shared" si="2"/>
         <v>14.1</v>
       </c>
       <c r="M101" s="22">
-        <f>SUM(G101:J101)</f>
+        <f t="shared" si="3"/>
         <v>11.6</v>
       </c>
     </row>
@@ -9139,11 +9139,11 @@
         <v>17.8</v>
       </c>
       <c r="L102" s="22">
-        <f>SUM(F102:J102)</f>
+        <f t="shared" si="2"/>
         <v>15.2</v>
       </c>
       <c r="M102" s="22">
-        <f>SUM(G102:J102)</f>
+        <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
     </row>
@@ -9182,15 +9182,15 @@
         <v>16.3</v>
       </c>
       <c r="L103" s="22">
-        <f>SUM(F103:J103)</f>
+        <f t="shared" si="2"/>
         <v>14.1</v>
       </c>
       <c r="M103" s="22">
-        <f>SUM(G103:J103)</f>
+        <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>211</v>
       </c>
@@ -9225,15 +9225,15 @@
         <v>15.1</v>
       </c>
       <c r="L104" s="22">
-        <f>SUM(F104:J104)</f>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="M104" s="22">
-        <f>SUM(G104:J104)</f>
+        <f t="shared" si="3"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>181</v>
       </c>
@@ -9268,11 +9268,11 @@
         <v>17</v>
       </c>
       <c r="L105" s="22">
-        <f>SUM(F105:J105)</f>
+        <f t="shared" si="2"/>
         <v>13.299999999999999</v>
       </c>
       <c r="M105" s="22">
-        <f>SUM(G105:J105)</f>
+        <f t="shared" si="3"/>
         <v>11.499999999999998</v>
       </c>
     </row>
@@ -9311,15 +9311,15 @@
         <v>18.3</v>
       </c>
       <c r="L106" s="22">
-        <f>SUM(F106:J106)</f>
+        <f t="shared" si="2"/>
         <v>14.200000000000003</v>
       </c>
       <c r="M106" s="22">
-        <f>SUM(G106:J106)</f>
+        <f t="shared" si="3"/>
         <v>11.400000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -9354,11 +9354,11 @@
         <v>15.5</v>
       </c>
       <c r="L107" s="22">
-        <f>SUM(F107:J107)</f>
+        <f t="shared" si="2"/>
         <v>13.400000000000002</v>
       </c>
       <c r="M107" s="22">
-        <f>SUM(G107:J107)</f>
+        <f t="shared" si="3"/>
         <v>11.400000000000002</v>
       </c>
     </row>
@@ -9397,11 +9397,11 @@
         <v>17.3</v>
       </c>
       <c r="L108" s="22">
-        <f>SUM(F108:J108)</f>
+        <f t="shared" si="2"/>
         <v>14.4</v>
       </c>
       <c r="M108" s="22">
-        <f>SUM(G108:J108)</f>
+        <f t="shared" si="3"/>
         <v>11.4</v>
       </c>
     </row>
@@ -9440,11 +9440,11 @@
         <v>14.8</v>
       </c>
       <c r="L109" s="22">
-        <f>SUM(F109:J109)</f>
+        <f t="shared" si="2"/>
         <v>14.400000000000002</v>
       </c>
       <c r="M109" s="22">
-        <f>SUM(G109:J109)</f>
+        <f t="shared" si="3"/>
         <v>11.399999999999999</v>
       </c>
     </row>
@@ -9483,11 +9483,11 @@
         <v>17.100000000000001</v>
       </c>
       <c r="L110" s="22">
-        <f>SUM(F110:J110)</f>
+        <f t="shared" si="2"/>
         <v>14.500000000000002</v>
       </c>
       <c r="M110" s="22">
-        <f>SUM(G110:J110)</f>
+        <f t="shared" si="3"/>
         <v>11.3</v>
       </c>
     </row>
@@ -9526,15 +9526,15 @@
         <v>16.7</v>
       </c>
       <c r="L111" s="22">
-        <f>SUM(F111:J111)</f>
+        <f t="shared" si="2"/>
         <v>13.8</v>
       </c>
       <c r="M111" s="22">
-        <f>SUM(G111:J111)</f>
+        <f t="shared" si="3"/>
         <v>11.3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>200</v>
       </c>
@@ -9569,11 +9569,11 @@
         <v>16.100000000000001</v>
       </c>
       <c r="L112" s="22">
-        <f>SUM(F112:J112)</f>
+        <f t="shared" si="2"/>
         <v>13.8</v>
       </c>
       <c r="M112" s="22">
-        <f>SUM(G112:J112)</f>
+        <f t="shared" si="3"/>
         <v>11.3</v>
       </c>
     </row>
@@ -9612,15 +9612,15 @@
         <v>18</v>
       </c>
       <c r="L113" s="22">
-        <f>SUM(F113:J113)</f>
+        <f t="shared" si="2"/>
         <v>14.299999999999999</v>
       </c>
       <c r="M113" s="22">
-        <f>SUM(G113:J113)</f>
+        <f t="shared" si="3"/>
         <v>11.2</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>254</v>
       </c>
@@ -9655,15 +9655,15 @@
         <v>12.8</v>
       </c>
       <c r="L114" s="22">
-        <f>SUM(F114:J114)</f>
+        <f t="shared" si="2"/>
         <v>12.899999999999999</v>
       </c>
       <c r="M114" s="22">
-        <f>SUM(G114:J114)</f>
+        <f t="shared" si="3"/>
         <v>11.2</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>217</v>
       </c>
@@ -9698,11 +9698,11 @@
         <v>14.7</v>
       </c>
       <c r="L115" s="22">
-        <f>SUM(F115:J115)</f>
+        <f t="shared" si="2"/>
         <v>13.600000000000001</v>
       </c>
       <c r="M115" s="22">
-        <f>SUM(G115:J115)</f>
+        <f t="shared" si="3"/>
         <v>11.1</v>
       </c>
     </row>
@@ -9741,15 +9741,15 @@
         <v>11.1</v>
       </c>
       <c r="L116" s="22">
-        <f>SUM(F116:J116)</f>
+        <f t="shared" si="2"/>
         <v>11.1</v>
       </c>
       <c r="M116" s="22">
-        <f>SUM(G116:J116)</f>
+        <f t="shared" si="3"/>
         <v>11.1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>196</v>
       </c>
@@ -9784,15 +9784,15 @@
         <v>16.3</v>
       </c>
       <c r="L117" s="22">
-        <f>SUM(F117:J117)</f>
+        <f t="shared" si="2"/>
         <v>13.100000000000001</v>
       </c>
       <c r="M117" s="22">
-        <f>SUM(G117:J117)</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>231</v>
       </c>
@@ -9827,15 +9827,15 @@
         <v>14.2</v>
       </c>
       <c r="L118" s="22">
-        <f>SUM(F118:J118)</f>
+        <f t="shared" si="2"/>
         <v>11.799999999999999</v>
       </c>
       <c r="M118" s="22">
-        <f>SUM(G118:J118)</f>
+        <f t="shared" si="3"/>
         <v>10.9</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>153</v>
       </c>
@@ -9870,11 +9870,11 @@
         <v>18.5</v>
       </c>
       <c r="L119" s="22">
-        <f>SUM(F119:J119)</f>
+        <f t="shared" si="2"/>
         <v>14.500000000000002</v>
       </c>
       <c r="M119" s="22">
-        <f>SUM(G119:J119)</f>
+        <f t="shared" si="3"/>
         <v>10.8</v>
       </c>
     </row>
@@ -9913,11 +9913,11 @@
         <v>17.100000000000001</v>
       </c>
       <c r="L120" s="22">
-        <f>SUM(F120:J120)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M120" s="22">
-        <f>SUM(G120:J120)</f>
+        <f t="shared" si="3"/>
         <v>10.8</v>
       </c>
     </row>
@@ -9956,15 +9956,15 @@
         <v>15.1</v>
       </c>
       <c r="L121" s="22">
-        <f>SUM(F121:J121)</f>
+        <f t="shared" si="2"/>
         <v>12.7</v>
       </c>
       <c r="M121" s="22">
-        <f>SUM(G121:J121)</f>
+        <f t="shared" si="3"/>
         <v>10.8</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>159</v>
       </c>
@@ -9999,11 +9999,11 @@
         <v>18.2</v>
       </c>
       <c r="L122" s="22">
-        <f>SUM(F122:J122)</f>
+        <f t="shared" si="2"/>
         <v>14.3</v>
       </c>
       <c r="M122" s="22">
-        <f>SUM(G122:J122)</f>
+        <f t="shared" si="3"/>
         <v>10.700000000000001</v>
       </c>
     </row>
@@ -10042,11 +10042,11 @@
         <v>16.8</v>
       </c>
       <c r="L123" s="22">
-        <f>SUM(F123:J123)</f>
+        <f t="shared" si="2"/>
         <v>13.6</v>
       </c>
       <c r="M123" s="22">
-        <f>SUM(G123:J123)</f>
+        <f t="shared" si="3"/>
         <v>10.7</v>
       </c>
     </row>
@@ -10085,15 +10085,15 @@
         <v>19</v>
       </c>
       <c r="L124" s="22">
-        <f>SUM(F124:J124)</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="M124" s="22">
-        <f>SUM(G124:J124)</f>
+        <f t="shared" si="3"/>
         <v>10.7</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>259</v>
       </c>
@@ -10128,15 +10128,15 @@
         <v>12.3</v>
       </c>
       <c r="L125" s="22">
-        <f>SUM(F125:J125)</f>
+        <f t="shared" si="2"/>
         <v>12.299999999999999</v>
       </c>
       <c r="M125" s="22">
-        <f>SUM(G125:J125)</f>
+        <f t="shared" si="3"/>
         <v>10.7</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>182</v>
       </c>
@@ -10171,11 +10171,11 @@
         <v>16.899999999999999</v>
       </c>
       <c r="L126" s="22">
-        <f>SUM(F126:J126)</f>
+        <f t="shared" si="2"/>
         <v>14.5</v>
       </c>
       <c r="M126" s="22">
-        <f>SUM(G126:J126)</f>
+        <f t="shared" si="3"/>
         <v>10.600000000000001</v>
       </c>
     </row>
@@ -10214,11 +10214,11 @@
         <v>17.7</v>
       </c>
       <c r="L127" s="22">
-        <f>SUM(F127:J127)</f>
+        <f t="shared" si="2"/>
         <v>13.7</v>
       </c>
       <c r="M127" s="22">
-        <f>SUM(G127:J127)</f>
+        <f t="shared" si="3"/>
         <v>10.600000000000001</v>
       </c>
     </row>
@@ -10257,15 +10257,15 @@
         <v>16.5</v>
       </c>
       <c r="L128" s="22">
-        <f>SUM(F128:J128)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M128" s="22">
-        <f>SUM(G128:J128)</f>
+        <f t="shared" si="3"/>
         <v>10.6</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>223</v>
       </c>
@@ -10300,15 +10300,15 @@
         <v>14.4</v>
       </c>
       <c r="L129" s="22">
-        <f>SUM(F129:J129)</f>
+        <f t="shared" si="2"/>
         <v>12.399999999999999</v>
       </c>
       <c r="M129" s="22">
-        <f>SUM(G129:J129)</f>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>216</v>
       </c>
@@ -10343,11 +10343,11 @@
         <v>14.8</v>
       </c>
       <c r="L130" s="22">
-        <f>SUM(F130:J130)</f>
+        <f t="shared" ref="L130:L193" si="4">SUM(F130:J130)</f>
         <v>13.1</v>
       </c>
       <c r="M130" s="22">
-        <f>SUM(G130:J130)</f>
+        <f t="shared" ref="M130:M193" si="5">SUM(G130:J130)</f>
         <v>10.499999999999998</v>
       </c>
     </row>
@@ -10386,11 +10386,11 @@
         <v>12.9</v>
       </c>
       <c r="L131" s="22">
-        <f>SUM(F131:J131)</f>
+        <f t="shared" si="4"/>
         <v>12.9</v>
       </c>
       <c r="M131" s="22">
-        <f>SUM(G131:J131)</f>
+        <f t="shared" si="5"/>
         <v>10.399999999999999</v>
       </c>
     </row>
@@ -10429,11 +10429,11 @@
         <v>18.399999999999999</v>
       </c>
       <c r="L132" s="22">
-        <f>SUM(F132:J132)</f>
+        <f t="shared" si="4"/>
         <v>13.100000000000001</v>
       </c>
       <c r="M132" s="22">
-        <f>SUM(G132:J132)</f>
+        <f t="shared" si="5"/>
         <v>10.3</v>
       </c>
     </row>
@@ -10472,11 +10472,11 @@
         <v>16.2</v>
       </c>
       <c r="L133" s="22">
-        <f>SUM(F133:J133)</f>
+        <f t="shared" si="4"/>
         <v>12.900000000000002</v>
       </c>
       <c r="M133" s="22">
-        <f>SUM(G133:J133)</f>
+        <f t="shared" si="5"/>
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -10515,11 +10515,11 @@
         <v>14.9</v>
       </c>
       <c r="L134" s="22">
-        <f>SUM(F134:J134)</f>
+        <f t="shared" si="4"/>
         <v>12.399999999999999</v>
       </c>
       <c r="M134" s="22">
-        <f>SUM(G134:J134)</f>
+        <f t="shared" si="5"/>
         <v>10.100000000000001</v>
       </c>
     </row>
@@ -10558,15 +10558,15 @@
         <v>16.399999999999999</v>
       </c>
       <c r="L135" s="22">
-        <f>SUM(F135:J135)</f>
+        <f t="shared" si="4"/>
         <v>13.6</v>
       </c>
       <c r="M135" s="22">
-        <f>SUM(G135:J135)</f>
+        <f t="shared" si="5"/>
         <v>10.1</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>187</v>
       </c>
@@ -10601,11 +10601,11 @@
         <v>16.7</v>
       </c>
       <c r="L136" s="22">
-        <f>SUM(F136:J136)</f>
+        <f t="shared" si="4"/>
         <v>12.799999999999999</v>
       </c>
       <c r="M136" s="22">
-        <f>SUM(G136:J136)</f>
+        <f t="shared" si="5"/>
         <v>10.1</v>
       </c>
     </row>
@@ -10644,11 +10644,11 @@
         <v>15.4</v>
       </c>
       <c r="L137" s="22">
-        <f>SUM(F137:J137)</f>
+        <f t="shared" si="4"/>
         <v>12.7</v>
       </c>
       <c r="M137" s="22">
-        <f>SUM(G137:J137)</f>
+        <f t="shared" si="5"/>
         <v>10.1</v>
       </c>
     </row>
@@ -10687,11 +10687,11 @@
         <v>17.899999999999999</v>
       </c>
       <c r="L138" s="22">
-        <f>SUM(F138:J138)</f>
+        <f t="shared" si="4"/>
         <v>13.8</v>
       </c>
       <c r="M138" s="22">
-        <f>SUM(G138:J138)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10730,11 +10730,11 @@
         <v>18</v>
       </c>
       <c r="L139" s="22">
-        <f>SUM(F139:J139)</f>
+        <f t="shared" si="4"/>
         <v>12.7</v>
       </c>
       <c r="M139" s="22">
-        <f>SUM(G139:J139)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10773,11 +10773,11 @@
         <v>11.2</v>
       </c>
       <c r="L140" s="22">
-        <f>SUM(F140:J140)</f>
+        <f t="shared" si="4"/>
         <v>11.2</v>
       </c>
       <c r="M140" s="22">
-        <f>SUM(G140:J140)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
@@ -10816,11 +10816,11 @@
         <v>14.3</v>
       </c>
       <c r="L141" s="22">
-        <f>SUM(F141:J141)</f>
+        <f t="shared" si="4"/>
         <v>11.8</v>
       </c>
       <c r="M141" s="22">
-        <f>SUM(G141:J141)</f>
+        <f t="shared" si="5"/>
         <v>9.9</v>
       </c>
     </row>
@@ -10859,11 +10859,11 @@
         <v>16.5</v>
       </c>
       <c r="L142" s="22">
-        <f>SUM(F142:J142)</f>
+        <f t="shared" si="4"/>
         <v>12.600000000000001</v>
       </c>
       <c r="M142" s="22">
-        <f>SUM(G142:J142)</f>
+        <f t="shared" si="5"/>
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -10902,15 +10902,15 @@
         <v>13.7</v>
       </c>
       <c r="L143" s="22">
-        <f>SUM(F143:J143)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M143" s="22">
-        <f>SUM(G143:J143)</f>
+        <f t="shared" si="5"/>
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>212</v>
       </c>
@@ -10945,15 +10945,15 @@
         <v>15</v>
       </c>
       <c r="L144" s="22">
-        <f>SUM(F144:J144)</f>
+        <f t="shared" si="4"/>
         <v>11.8</v>
       </c>
       <c r="M144" s="22">
-        <f>SUM(G144:J144)</f>
+        <f t="shared" si="5"/>
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>198</v>
       </c>
@@ -10988,11 +10988,11 @@
         <v>16.100000000000001</v>
       </c>
       <c r="L145" s="22">
-        <f>SUM(F145:J145)</f>
+        <f t="shared" si="4"/>
         <v>12.399999999999999</v>
       </c>
       <c r="M145" s="22">
-        <f>SUM(G145:J145)</f>
+        <f t="shared" si="5"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -11031,11 +11031,11 @@
         <v>14.3</v>
       </c>
       <c r="L146" s="22">
-        <f>SUM(F146:J146)</f>
+        <f t="shared" si="4"/>
         <v>12.100000000000001</v>
       </c>
       <c r="M146" s="22">
-        <f>SUM(G146:J146)</f>
+        <f t="shared" si="5"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -11074,11 +11074,11 @@
         <v>14.2</v>
       </c>
       <c r="L147" s="22">
-        <f>SUM(F147:J147)</f>
+        <f t="shared" si="4"/>
         <v>12.100000000000001</v>
       </c>
       <c r="M147" s="22">
-        <f>SUM(G147:J147)</f>
+        <f t="shared" si="5"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -11117,15 +11117,15 @@
         <v>14.3</v>
       </c>
       <c r="L148" s="22">
-        <f>SUM(F148:J148)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M148" s="22">
-        <f>SUM(G148:J148)</f>
+        <f t="shared" si="5"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>232</v>
       </c>
@@ -11160,15 +11160,15 @@
         <v>14.1</v>
       </c>
       <c r="L149" s="22">
-        <f>SUM(F149:J149)</f>
+        <f t="shared" si="4"/>
         <v>11.2</v>
       </c>
       <c r="M149" s="22">
-        <f>SUM(G149:J149)</f>
+        <f t="shared" si="5"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>190</v>
       </c>
@@ -11203,11 +11203,11 @@
         <v>16.5</v>
       </c>
       <c r="L150" s="22">
-        <f>SUM(F150:J150)</f>
+        <f t="shared" si="4"/>
         <v>12.899999999999999</v>
       </c>
       <c r="M150" s="22">
-        <f>SUM(G150:J150)</f>
+        <f t="shared" si="5"/>
         <v>9.6</v>
       </c>
     </row>
@@ -11246,11 +11246,11 @@
         <v>14.7</v>
       </c>
       <c r="L151" s="22">
-        <f>SUM(F151:J151)</f>
+        <f t="shared" si="4"/>
         <v>11.9</v>
       </c>
       <c r="M151" s="22">
-        <f>SUM(G151:J151)</f>
+        <f t="shared" si="5"/>
         <v>9.6</v>
       </c>
     </row>
@@ -11289,11 +11289,11 @@
         <v>14</v>
       </c>
       <c r="L152" s="22">
-        <f>SUM(F152:J152)</f>
+        <f t="shared" si="4"/>
         <v>11.799999999999999</v>
       </c>
       <c r="M152" s="22">
-        <f>SUM(G152:J152)</f>
+        <f t="shared" si="5"/>
         <v>9.6</v>
       </c>
     </row>
@@ -11332,15 +11332,15 @@
         <v>14.3</v>
       </c>
       <c r="L153" s="22">
-        <f>SUM(F153:J153)</f>
+        <f t="shared" si="4"/>
         <v>11.7</v>
       </c>
       <c r="M153" s="22">
-        <f>SUM(G153:J153)</f>
+        <f t="shared" si="5"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>221</v>
       </c>
@@ -11375,11 +11375,11 @@
         <v>14.5</v>
       </c>
       <c r="L154" s="22">
-        <f>SUM(F154:J154)</f>
+        <f t="shared" si="4"/>
         <v>11.6</v>
       </c>
       <c r="M154" s="22">
-        <f>SUM(G154:J154)</f>
+        <f t="shared" si="5"/>
         <v>9.6</v>
       </c>
     </row>
@@ -11418,15 +11418,15 @@
         <v>14.7</v>
       </c>
       <c r="L155" s="22">
-        <f>SUM(F155:J155)</f>
+        <f t="shared" si="4"/>
         <v>12.600000000000001</v>
       </c>
       <c r="M155" s="22">
-        <f>SUM(G155:J155)</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>203</v>
       </c>
@@ -11461,11 +11461,11 @@
         <v>15.8</v>
       </c>
       <c r="L156" s="22">
-        <f>SUM(F156:J156)</f>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="M156" s="22">
-        <f>SUM(G156:J156)</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
     </row>
@@ -11504,11 +11504,11 @@
         <v>12.9</v>
       </c>
       <c r="L157" s="22">
-        <f>SUM(F157:J157)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="M157" s="22">
-        <f>SUM(G157:J157)</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
     </row>
@@ -11547,15 +11547,15 @@
         <v>17.100000000000001</v>
       </c>
       <c r="L158" s="22">
-        <f>SUM(F158:J158)</f>
+        <f t="shared" si="4"/>
         <v>12.4</v>
       </c>
       <c r="M158" s="22">
-        <f>SUM(G158:J158)</f>
+        <f t="shared" si="5"/>
         <v>9.4</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>243</v>
       </c>
@@ -11590,15 +11590,15 @@
         <v>13.4</v>
       </c>
       <c r="L159" s="22">
-        <f>SUM(F159:J159)</f>
+        <f t="shared" si="4"/>
         <v>11.8</v>
       </c>
       <c r="M159" s="22">
-        <f>SUM(G159:J159)</f>
+        <f t="shared" si="5"/>
         <v>9.4</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>168</v>
       </c>
@@ -11633,11 +11633,11 @@
         <v>17.7</v>
       </c>
       <c r="L160" s="22">
-        <f>SUM(F160:J160)</f>
+        <f t="shared" si="4"/>
         <v>12.2</v>
       </c>
       <c r="M160" s="22">
-        <f>SUM(G160:J160)</f>
+        <f t="shared" si="5"/>
         <v>9.3999999999999986</v>
       </c>
     </row>
@@ -11676,11 +11676,11 @@
         <v>13.8</v>
       </c>
       <c r="L161" s="22">
-        <f>SUM(F161:J161)</f>
+        <f t="shared" si="4"/>
         <v>11.6</v>
       </c>
       <c r="M161" s="22">
-        <f>SUM(G161:J161)</f>
+        <f t="shared" si="5"/>
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -11719,11 +11719,11 @@
         <v>10.9</v>
       </c>
       <c r="L162" s="22">
-        <f>SUM(F162:J162)</f>
+        <f t="shared" si="4"/>
         <v>10.9</v>
       </c>
       <c r="M162" s="22">
-        <f>SUM(G162:J162)</f>
+        <f t="shared" si="5"/>
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -11762,15 +11762,15 @@
         <v>11.1</v>
       </c>
       <c r="L163" s="22">
-        <f>SUM(F163:J163)</f>
+        <f t="shared" si="4"/>
         <v>11.100000000000001</v>
       </c>
       <c r="M163" s="22">
-        <f>SUM(G163:J163)</f>
+        <f t="shared" si="5"/>
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>233</v>
       </c>
@@ -11805,11 +11805,11 @@
         <v>14.1</v>
       </c>
       <c r="L164" s="22">
-        <f>SUM(F164:J164)</f>
+        <f t="shared" si="4"/>
         <v>11.000000000000002</v>
       </c>
       <c r="M164" s="22">
-        <f>SUM(G164:J164)</f>
+        <f t="shared" si="5"/>
         <v>9.1000000000000014</v>
       </c>
     </row>
@@ -11848,11 +11848,11 @@
         <v>13.3</v>
       </c>
       <c r="L165" s="22">
-        <f>SUM(F165:J165)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="M165" s="22">
-        <f>SUM(G165:J165)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -11891,11 +11891,11 @@
         <v>13.8</v>
       </c>
       <c r="L166" s="22">
-        <f>SUM(F166:J166)</f>
+        <f t="shared" si="4"/>
         <v>11.600000000000001</v>
       </c>
       <c r="M166" s="22">
-        <f>SUM(G166:J166)</f>
+        <f t="shared" si="5"/>
         <v>8.9000000000000021</v>
       </c>
     </row>
@@ -11934,11 +11934,11 @@
         <v>15.4</v>
       </c>
       <c r="L167" s="22">
-        <f>SUM(F167:J167)</f>
+        <f t="shared" si="4"/>
         <v>11.4</v>
       </c>
       <c r="M167" s="22">
-        <f>SUM(G167:J167)</f>
+        <f t="shared" si="5"/>
         <v>8.9</v>
       </c>
     </row>
@@ -11977,11 +11977,11 @@
         <v>13.3</v>
       </c>
       <c r="L168" s="22">
-        <f>SUM(F168:J168)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="M168" s="22">
-        <f>SUM(G168:J168)</f>
+        <f t="shared" si="5"/>
         <v>8.9</v>
       </c>
     </row>
@@ -12020,11 +12020,11 @@
         <v>13.6</v>
       </c>
       <c r="L169" s="22">
-        <f>SUM(F169:J169)</f>
+        <f t="shared" si="4"/>
         <v>10.900000000000002</v>
       </c>
       <c r="M169" s="22">
-        <f>SUM(G169:J169)</f>
+        <f t="shared" si="5"/>
         <v>8.9</v>
       </c>
     </row>
@@ -12063,15 +12063,15 @@
         <v>16.600000000000001</v>
       </c>
       <c r="L170" s="22">
-        <f>SUM(F170:J170)</f>
+        <f t="shared" si="4"/>
         <v>11.7</v>
       </c>
       <c r="M170" s="22">
-        <f>SUM(G170:J170)</f>
+        <f t="shared" si="5"/>
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>293</v>
       </c>
@@ -12106,11 +12106,11 @@
         <v>10.6</v>
       </c>
       <c r="L171" s="22">
-        <f>SUM(F171:J171)</f>
+        <f t="shared" si="4"/>
         <v>10.5</v>
       </c>
       <c r="M171" s="22">
-        <f>SUM(G171:J171)</f>
+        <f t="shared" si="5"/>
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -12149,15 +12149,15 @@
         <v>16.100000000000001</v>
       </c>
       <c r="L172" s="22">
-        <f>SUM(F172:J172)</f>
+        <f t="shared" si="4"/>
         <v>11.799999999999999</v>
       </c>
       <c r="M172" s="22">
-        <f>SUM(G172:J172)</f>
+        <f t="shared" si="5"/>
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>230</v>
       </c>
@@ -12192,11 +12192,11 @@
         <v>14.2</v>
       </c>
       <c r="L173" s="22">
-        <f>SUM(F173:J173)</f>
+        <f t="shared" si="4"/>
         <v>11.3</v>
       </c>
       <c r="M173" s="22">
-        <f>SUM(G173:J173)</f>
+        <f t="shared" si="5"/>
         <v>8.6000000000000014</v>
       </c>
     </row>
@@ -12235,15 +12235,15 @@
         <v>13.4</v>
       </c>
       <c r="L174" s="22">
-        <f>SUM(F174:J174)</f>
+        <f t="shared" si="4"/>
         <v>10.8</v>
       </c>
       <c r="M174" s="22">
-        <f>SUM(G174:J174)</f>
+        <f t="shared" si="5"/>
         <v>8.6000000000000014</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>205</v>
       </c>
@@ -12278,15 +12278,15 @@
         <v>15.5</v>
       </c>
       <c r="L175" s="22">
-        <f>SUM(F175:J175)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="M175" s="22">
-        <f>SUM(G175:J175)</f>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>240</v>
       </c>
@@ -12321,11 +12321,11 @@
         <v>13.5</v>
       </c>
       <c r="L176" s="22">
-        <f>SUM(F176:J176)</f>
+        <f t="shared" si="4"/>
         <v>10.6</v>
       </c>
       <c r="M176" s="22">
-        <f>SUM(G176:J176)</f>
+        <f t="shared" si="5"/>
         <v>8.4</v>
       </c>
     </row>
@@ -12364,11 +12364,11 @@
         <v>12.4</v>
       </c>
       <c r="L177" s="22">
-        <f>SUM(F177:J177)</f>
+        <f t="shared" si="4"/>
         <v>10.4</v>
       </c>
       <c r="M177" s="22">
-        <f>SUM(G177:J177)</f>
+        <f t="shared" si="5"/>
         <v>8.4</v>
       </c>
     </row>
@@ -12407,11 +12407,11 @@
         <v>12.8</v>
       </c>
       <c r="L178" s="22">
-        <f>SUM(F178:J178)</f>
+        <f t="shared" si="4"/>
         <v>10.600000000000001</v>
       </c>
       <c r="M178" s="22">
-        <f>SUM(G178:J178)</f>
+        <f t="shared" si="5"/>
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -12450,11 +12450,11 @@
         <v>12.4</v>
       </c>
       <c r="L179" s="22">
-        <f>SUM(F179:J179)</f>
+        <f t="shared" si="4"/>
         <v>10.3</v>
       </c>
       <c r="M179" s="22">
-        <f>SUM(G179:J179)</f>
+        <f t="shared" si="5"/>
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -12493,15 +12493,15 @@
         <v>14.7</v>
       </c>
       <c r="L180" s="22">
-        <f>SUM(F180:J180)</f>
+        <f t="shared" si="4"/>
         <v>11.100000000000001</v>
       </c>
       <c r="M180" s="22">
-        <f>SUM(G180:J180)</f>
+        <f t="shared" si="5"/>
         <v>8.1000000000000014</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>148</v>
       </c>
@@ -12536,11 +12536,11 @@
         <v>13.3</v>
       </c>
       <c r="L181" s="22">
-        <f>SUM(F181:J181)</f>
+        <f t="shared" si="4"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="M181" s="22">
-        <f>SUM(G181:J181)</f>
+        <f t="shared" si="5"/>
         <v>8.1000000000000014</v>
       </c>
     </row>
@@ -12579,15 +12579,15 @@
         <v>13.1</v>
       </c>
       <c r="L182" s="22">
-        <f>SUM(F182:J182)</f>
+        <f t="shared" si="4"/>
         <v>10.6</v>
       </c>
       <c r="M182" s="22">
-        <f>SUM(G182:J182)</f>
+        <f t="shared" si="5"/>
         <v>8.1</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>267</v>
       </c>
@@ -12622,11 +12622,11 @@
         <v>11.8</v>
       </c>
       <c r="L183" s="22">
-        <f>SUM(F183:J183)</f>
+        <f t="shared" si="4"/>
         <v>10.6</v>
       </c>
       <c r="M183" s="22">
-        <f>SUM(G183:J183)</f>
+        <f t="shared" si="5"/>
         <v>8.1</v>
       </c>
     </row>
@@ -12665,15 +12665,15 @@
         <v>14.4</v>
       </c>
       <c r="L184" s="22">
-        <f>SUM(F184:J184)</f>
+        <f t="shared" si="4"/>
         <v>10.5</v>
       </c>
       <c r="M184" s="22">
-        <f>SUM(G184:J184)</f>
+        <f t="shared" si="5"/>
         <v>8.1</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>70</v>
       </c>
@@ -12708,11 +12708,11 @@
         <v>13.9</v>
       </c>
       <c r="L185" s="22">
-        <f>SUM(F185:J185)</f>
+        <f t="shared" si="4"/>
         <v>10.4</v>
       </c>
       <c r="M185" s="22">
-        <f>SUM(G185:J185)</f>
+        <f t="shared" si="5"/>
         <v>8.1</v>
       </c>
     </row>
@@ -12751,11 +12751,11 @@
         <v>12.3</v>
       </c>
       <c r="L186" s="22">
-        <f>SUM(F186:J186)</f>
+        <f t="shared" si="4"/>
         <v>10.399999999999999</v>
       </c>
       <c r="M186" s="22">
-        <f>SUM(G186:J186)</f>
+        <f t="shared" si="5"/>
         <v>8.1</v>
       </c>
     </row>
@@ -12794,15 +12794,15 @@
         <v>11.7</v>
       </c>
       <c r="L187" s="22">
-        <f>SUM(F187:J187)</f>
+        <f t="shared" si="4"/>
         <v>10.199999999999999</v>
       </c>
       <c r="M187" s="22">
-        <f>SUM(G187:J187)</f>
+        <f t="shared" si="5"/>
         <v>8.1</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>266</v>
       </c>
@@ -12837,15 +12837,15 @@
         <v>11.8</v>
       </c>
       <c r="L188" s="22">
-        <f>SUM(F188:J188)</f>
+        <f t="shared" si="4"/>
         <v>9.4</v>
       </c>
       <c r="M188" s="22">
-        <f>SUM(G188:J188)</f>
+        <f t="shared" si="5"/>
         <v>8.1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>272</v>
       </c>
@@ -12880,11 +12880,11 @@
         <v>11.6</v>
       </c>
       <c r="L189" s="22">
-        <f>SUM(F189:J189)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="M189" s="22">
-        <f>SUM(G189:J189)</f>
+        <f t="shared" si="5"/>
         <v>8.1</v>
       </c>
     </row>
@@ -12923,11 +12923,11 @@
         <v>14.1</v>
       </c>
       <c r="L190" s="22">
-        <f>SUM(F190:J190)</f>
+        <f t="shared" si="4"/>
         <v>10.7</v>
       </c>
       <c r="M190" s="22">
-        <f>SUM(G190:J190)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -12966,15 +12966,15 @@
         <v>14.5</v>
       </c>
       <c r="L191" s="22">
-        <f>SUM(F191:J191)</f>
+        <f t="shared" si="4"/>
         <v>10.4</v>
       </c>
       <c r="M191" s="22">
-        <f>SUM(G191:J191)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>268</v>
       </c>
@@ -13009,15 +13009,15 @@
         <v>11.7</v>
       </c>
       <c r="L192" s="22">
-        <f>SUM(F192:J192)</f>
+        <f t="shared" si="4"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="M192" s="22">
-        <f>SUM(G192:J192)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>235</v>
       </c>
@@ -13052,11 +13052,11 @@
         <v>14</v>
       </c>
       <c r="L193" s="22">
-        <f>SUM(F193:J193)</f>
+        <f t="shared" si="4"/>
         <v>10.3</v>
       </c>
       <c r="M193" s="22">
-        <f>SUM(G193:J193)</f>
+        <f t="shared" si="5"/>
         <v>7.9999999999999991</v>
       </c>
     </row>
@@ -13095,11 +13095,11 @@
         <v>12.5</v>
       </c>
       <c r="L194" s="22">
-        <f>SUM(F194:J194)</f>
+        <f t="shared" ref="L194:L257" si="6">SUM(F194:J194)</f>
         <v>10.199999999999999</v>
       </c>
       <c r="M194" s="22">
-        <f>SUM(G194:J194)</f>
+        <f t="shared" ref="M194:M257" si="7">SUM(G194:J194)</f>
         <v>7.9000000000000012</v>
       </c>
     </row>
@@ -13138,11 +13138,11 @@
         <v>16</v>
       </c>
       <c r="L195" s="22">
-        <f>SUM(F195:J195)</f>
+        <f t="shared" si="6"/>
         <v>10.8</v>
       </c>
       <c r="M195" s="22">
-        <f>SUM(G195:J195)</f>
+        <f t="shared" si="7"/>
         <v>7.9</v>
       </c>
     </row>
@@ -13181,15 +13181,15 @@
         <v>12.3</v>
       </c>
       <c r="L196" s="22">
-        <f>SUM(F196:J196)</f>
+        <f t="shared" si="6"/>
         <v>9.6</v>
       </c>
       <c r="M196" s="22">
-        <f>SUM(G196:J196)</f>
+        <f t="shared" si="7"/>
         <v>7.9</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>274</v>
       </c>
@@ -13224,11 +13224,11 @@
         <v>11.4</v>
       </c>
       <c r="L197" s="22">
-        <f>SUM(F197:J197)</f>
+        <f t="shared" si="6"/>
         <v>9.4</v>
       </c>
       <c r="M197" s="22">
-        <f>SUM(G197:J197)</f>
+        <f t="shared" si="7"/>
         <v>7.9</v>
       </c>
     </row>
@@ -13267,15 +13267,15 @@
         <v>13.1</v>
       </c>
       <c r="L198" s="22">
-        <f>SUM(F198:J198)</f>
+        <f t="shared" si="6"/>
         <v>10.1</v>
       </c>
       <c r="M198" s="22">
-        <f>SUM(G198:J198)</f>
+        <f t="shared" si="7"/>
         <v>7.8</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>250</v>
       </c>
@@ -13310,11 +13310,11 @@
         <v>12.9</v>
       </c>
       <c r="L199" s="22">
-        <f>SUM(F199:J199)</f>
+        <f t="shared" si="6"/>
         <v>10.7</v>
       </c>
       <c r="M199" s="22">
-        <f>SUM(G199:J199)</f>
+        <f t="shared" si="7"/>
         <v>7.7</v>
       </c>
     </row>
@@ -13353,11 +13353,11 @@
         <v>13.1</v>
       </c>
       <c r="L200" s="22">
-        <f>SUM(F200:J200)</f>
+        <f t="shared" si="6"/>
         <v>9.6</v>
       </c>
       <c r="M200" s="22">
-        <f>SUM(G200:J200)</f>
+        <f t="shared" si="7"/>
         <v>7.7</v>
       </c>
     </row>
@@ -13396,11 +13396,11 @@
         <v>8.6</v>
       </c>
       <c r="L201" s="22">
-        <f>SUM(F201:J201)</f>
+        <f t="shared" si="6"/>
         <v>8.6000000000000014</v>
       </c>
       <c r="M201" s="22">
-        <f>SUM(G201:J201)</f>
+        <f t="shared" si="7"/>
         <v>7.7</v>
       </c>
     </row>
@@ -13439,15 +13439,15 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="L202" s="22">
-        <f>SUM(F202:J202)</f>
+        <f t="shared" si="6"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="M202" s="22">
-        <f>SUM(G202:J202)</f>
+        <f t="shared" si="7"/>
         <v>7.6000000000000005</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>326</v>
       </c>
@@ -13482,15 +13482,15 @@
         <v>8.6</v>
       </c>
       <c r="L203" s="22">
-        <f>SUM(F203:J203)</f>
+        <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
       <c r="M203" s="22">
-        <f>SUM(G203:J203)</f>
+        <f t="shared" si="7"/>
         <v>7.6000000000000005</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>292</v>
       </c>
@@ -13525,11 +13525,11 @@
         <v>10.6</v>
       </c>
       <c r="L204" s="22">
-        <f>SUM(F204:J204)</f>
+        <f t="shared" si="6"/>
         <v>10.6</v>
       </c>
       <c r="M204" s="22">
-        <f>SUM(G204:J204)</f>
+        <f t="shared" si="7"/>
         <v>7.5</v>
       </c>
     </row>
@@ -13568,11 +13568,11 @@
         <v>11</v>
       </c>
       <c r="L205" s="22">
-        <f>SUM(F205:J205)</f>
+        <f t="shared" si="6"/>
         <v>9.4</v>
       </c>
       <c r="M205" s="22">
-        <f>SUM(G205:J205)</f>
+        <f t="shared" si="7"/>
         <v>7.4</v>
       </c>
     </row>
@@ -13611,11 +13611,11 @@
         <v>11.2</v>
       </c>
       <c r="L206" s="22">
-        <f>SUM(F206:J206)</f>
+        <f t="shared" si="6"/>
         <v>9.2999999999999989</v>
       </c>
       <c r="M206" s="22">
-        <f>SUM(G206:J206)</f>
+        <f t="shared" si="7"/>
         <v>7.4</v>
       </c>
     </row>
@@ -13654,11 +13654,11 @@
         <v>13.4</v>
       </c>
       <c r="L207" s="22">
-        <f>SUM(F207:J207)</f>
+        <f t="shared" si="6"/>
         <v>9.6</v>
       </c>
       <c r="M207" s="22">
-        <f>SUM(G207:J207)</f>
+        <f t="shared" si="7"/>
         <v>7.3000000000000007</v>
       </c>
     </row>
@@ -13697,15 +13697,15 @@
         <v>11.9</v>
       </c>
       <c r="L208" s="22">
-        <f>SUM(F208:J208)</f>
+        <f t="shared" si="6"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="M208" s="22">
-        <f>SUM(G208:J208)</f>
+        <f t="shared" si="7"/>
         <v>7.3</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>279</v>
       </c>
@@ -13740,11 +13740,11 @@
         <v>11.1</v>
       </c>
       <c r="L209" s="22">
-        <f>SUM(F209:J209)</f>
+        <f t="shared" si="6"/>
         <v>9.4</v>
       </c>
       <c r="M209" s="22">
-        <f>SUM(G209:J209)</f>
+        <f t="shared" si="7"/>
         <v>7.3</v>
       </c>
     </row>
@@ -13783,15 +13783,15 @@
         <v>12.1</v>
       </c>
       <c r="L210" s="22">
-        <f>SUM(F210:J210)</f>
+        <f t="shared" si="6"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="M210" s="22">
-        <f>SUM(G210:J210)</f>
+        <f t="shared" si="7"/>
         <v>7.2</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>269</v>
       </c>
@@ -13826,15 +13826,15 @@
         <v>11.7</v>
       </c>
       <c r="L211" s="22">
-        <f>SUM(F211:J211)</f>
+        <f t="shared" si="6"/>
         <v>9.5</v>
       </c>
       <c r="M211" s="22">
-        <f>SUM(G211:J211)</f>
+        <f t="shared" si="7"/>
         <v>7.1000000000000005</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>344</v>
       </c>
@@ -13869,11 +13869,11 @@
         <v>7.4</v>
       </c>
       <c r="L212" s="22">
-        <f>SUM(F212:J212)</f>
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
       <c r="M212" s="22">
-        <f>SUM(G212:J212)</f>
+        <f t="shared" si="7"/>
         <v>7.1000000000000005</v>
       </c>
     </row>
@@ -13912,15 +13912,15 @@
         <v>10.1</v>
       </c>
       <c r="L213" s="22">
-        <f>SUM(F213:J213)</f>
+        <f t="shared" si="6"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="M213" s="22">
-        <f>SUM(G213:J213)</f>
+        <f t="shared" si="7"/>
         <v>7.1</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>318</v>
       </c>
@@ -13955,11 +13955,11 @@
         <v>7.8</v>
       </c>
       <c r="L214" s="22">
-        <f>SUM(F214:J214)</f>
+        <f t="shared" si="6"/>
         <v>7.8000000000000007</v>
       </c>
       <c r="M214" s="22">
-        <f>SUM(G214:J214)</f>
+        <f t="shared" si="7"/>
         <v>7.1</v>
       </c>
     </row>
@@ -13998,11 +13998,11 @@
         <v>11.3</v>
       </c>
       <c r="L215" s="22">
-        <f>SUM(F215:J215)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="M215" s="22">
-        <f>SUM(G215:J215)</f>
+        <f t="shared" si="7"/>
         <v>6.9</v>
       </c>
     </row>
@@ -14041,15 +14041,15 @@
         <v>13</v>
       </c>
       <c r="L216" s="22">
-        <f>SUM(F216:J216)</f>
+        <f t="shared" si="6"/>
         <v>8.9</v>
       </c>
       <c r="M216" s="22">
-        <f>SUM(G216:J216)</f>
+        <f t="shared" si="7"/>
         <v>6.9</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>307</v>
       </c>
@@ -14084,11 +14084,11 @@
         <v>9.9</v>
       </c>
       <c r="L217" s="22">
-        <f>SUM(F217:J217)</f>
+        <f t="shared" si="6"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="M217" s="22">
-        <f>SUM(G217:J217)</f>
+        <f t="shared" si="7"/>
         <v>6.9</v>
       </c>
     </row>
@@ -14127,11 +14127,11 @@
         <v>10.9</v>
       </c>
       <c r="L218" s="22">
-        <f>SUM(F218:J218)</f>
+        <f t="shared" si="6"/>
         <v>8.6000000000000014</v>
       </c>
       <c r="M218" s="22">
-        <f>SUM(G218:J218)</f>
+        <f t="shared" si="7"/>
         <v>6.8999999999999995</v>
       </c>
     </row>
@@ -14170,11 +14170,11 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L219" s="22">
-        <f>SUM(F219:J219)</f>
+        <f t="shared" si="6"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="M219" s="22">
-        <f>SUM(G219:J219)</f>
+        <f t="shared" si="7"/>
         <v>6.8</v>
       </c>
     </row>
@@ -14213,15 +14213,15 @@
         <v>10.5</v>
       </c>
       <c r="L220" s="22">
-        <f>SUM(F220:J220)</f>
+        <f t="shared" si="6"/>
         <v>8.6</v>
       </c>
       <c r="M220" s="22">
-        <f>SUM(G220:J220)</f>
+        <f t="shared" si="7"/>
         <v>6.8</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>255</v>
       </c>
@@ -14256,11 +14256,11 @@
         <v>12.7</v>
       </c>
       <c r="L221" s="22">
-        <f>SUM(F221:J221)</f>
+        <f t="shared" si="6"/>
         <v>9.6</v>
       </c>
       <c r="M221" s="22">
-        <f>SUM(G221:J221)</f>
+        <f t="shared" si="7"/>
         <v>6.7</v>
       </c>
     </row>
@@ -14299,15 +14299,15 @@
         <v>11.7</v>
       </c>
       <c r="L222" s="22">
-        <f>SUM(F222:J222)</f>
+        <f t="shared" si="6"/>
         <v>9.5</v>
       </c>
       <c r="M222" s="22">
-        <f>SUM(G222:J222)</f>
+        <f t="shared" si="7"/>
         <v>6.7</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>288</v>
       </c>
@@ -14342,15 +14342,15 @@
         <v>10.7</v>
       </c>
       <c r="L223" s="22">
-        <f>SUM(F223:J223)</f>
+        <f t="shared" si="6"/>
         <v>8.4</v>
       </c>
       <c r="M223" s="22">
-        <f>SUM(G223:J223)</f>
+        <f t="shared" si="7"/>
         <v>6.6999999999999993</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>313</v>
       </c>
@@ -14385,11 +14385,11 @@
         <v>9.5</v>
       </c>
       <c r="L224" s="22">
-        <f>SUM(F224:J224)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="M224" s="22">
-        <f>SUM(G224:J224)</f>
+        <f t="shared" si="7"/>
         <v>6.6999999999999993</v>
       </c>
     </row>
@@ -14428,11 +14428,11 @@
         <v>12.3</v>
       </c>
       <c r="L225" s="22">
-        <f>SUM(F225:J225)</f>
+        <f t="shared" si="6"/>
         <v>8.6</v>
       </c>
       <c r="M225" s="22">
-        <f>SUM(G225:J225)</f>
+        <f t="shared" si="7"/>
         <v>6.6000000000000005</v>
       </c>
     </row>
@@ -14471,11 +14471,11 @@
         <v>8</v>
       </c>
       <c r="L226" s="22">
-        <f>SUM(F226:J226)</f>
+        <f t="shared" si="6"/>
         <v>8.1000000000000014</v>
       </c>
       <c r="M226" s="22">
-        <f>SUM(G226:J226)</f>
+        <f t="shared" si="7"/>
         <v>6.6000000000000005</v>
       </c>
     </row>
@@ -14514,11 +14514,11 @@
         <v>12</v>
       </c>
       <c r="L227" s="22">
-        <f>SUM(F227:J227)</f>
+        <f t="shared" si="6"/>
         <v>8.9</v>
       </c>
       <c r="M227" s="22">
-        <f>SUM(G227:J227)</f>
+        <f t="shared" si="7"/>
         <v>6.6</v>
       </c>
     </row>
@@ -14557,11 +14557,11 @@
         <v>11</v>
       </c>
       <c r="L228" s="22">
-        <f>SUM(F228:J228)</f>
+        <f t="shared" si="6"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="M228" s="22">
-        <f>SUM(G228:J228)</f>
+        <f t="shared" si="7"/>
         <v>6.6</v>
       </c>
     </row>
@@ -14600,11 +14600,11 @@
         <v>10.4</v>
       </c>
       <c r="L229" s="22">
-        <f>SUM(F229:J229)</f>
+        <f t="shared" si="6"/>
         <v>8.1</v>
       </c>
       <c r="M229" s="22">
-        <f>SUM(G229:J229)</f>
+        <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
     </row>
@@ -14643,11 +14643,11 @@
         <v>9.4</v>
       </c>
       <c r="L230" s="22">
-        <f>SUM(F230:J230)</f>
+        <f t="shared" si="6"/>
         <v>8.6000000000000014</v>
       </c>
       <c r="M230" s="22">
-        <f>SUM(G230:J230)</f>
+        <f t="shared" si="7"/>
         <v>6.4</v>
       </c>
     </row>
@@ -14686,11 +14686,11 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L231" s="22">
-        <f>SUM(F231:J231)</f>
+        <f t="shared" si="6"/>
         <v>8.4</v>
       </c>
       <c r="M231" s="22">
-        <f>SUM(G231:J231)</f>
+        <f t="shared" si="7"/>
         <v>6.4</v>
       </c>
     </row>
@@ -14729,11 +14729,11 @@
         <v>7.6</v>
       </c>
       <c r="L232" s="22">
-        <f>SUM(F232:J232)</f>
+        <f t="shared" si="6"/>
         <v>7.6999999999999993</v>
       </c>
       <c r="M232" s="22">
-        <f>SUM(G232:J232)</f>
+        <f t="shared" si="7"/>
         <v>6.4</v>
       </c>
     </row>
@@ -14772,11 +14772,11 @@
         <v>6.4</v>
       </c>
       <c r="L233" s="22">
-        <f>SUM(F233:J233)</f>
+        <f t="shared" si="6"/>
         <v>6.4</v>
       </c>
       <c r="M233" s="22">
-        <f>SUM(G233:J233)</f>
+        <f t="shared" si="7"/>
         <v>6.4</v>
       </c>
     </row>
@@ -14815,11 +14815,11 @@
         <v>10.7</v>
       </c>
       <c r="L234" s="22">
-        <f>SUM(F234:J234)</f>
+        <f t="shared" si="6"/>
         <v>8.1</v>
       </c>
       <c r="M234" s="22">
-        <f>SUM(G234:J234)</f>
+        <f t="shared" si="7"/>
         <v>6.3</v>
       </c>
     </row>
@@ -14858,11 +14858,11 @@
         <v>10.7</v>
       </c>
       <c r="L235" s="22">
-        <f>SUM(F235:J235)</f>
+        <f t="shared" si="6"/>
         <v>7.9999999999999991</v>
       </c>
       <c r="M235" s="22">
-        <f>SUM(G235:J235)</f>
+        <f t="shared" si="7"/>
         <v>6.3</v>
       </c>
     </row>
@@ -14901,11 +14901,11 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L236" s="22">
-        <f>SUM(F236:J236)</f>
+        <f t="shared" si="6"/>
         <v>8.1</v>
       </c>
       <c r="M236" s="22">
-        <f>SUM(G236:J236)</f>
+        <f t="shared" si="7"/>
         <v>6.2</v>
       </c>
     </row>
@@ -14944,15 +14944,15 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="L237" s="22">
-        <f>SUM(F237:J237)</f>
+        <f t="shared" si="6"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="M237" s="22">
-        <f>SUM(G237:J237)</f>
+        <f t="shared" si="7"/>
         <v>6.2</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>319</v>
       </c>
@@ -14987,11 +14987,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="L238" s="22">
-        <f>SUM(F238:J238)</f>
+        <f t="shared" si="6"/>
         <v>7.6</v>
       </c>
       <c r="M238" s="22">
-        <f>SUM(G238:J238)</f>
+        <f t="shared" si="7"/>
         <v>6.2</v>
       </c>
     </row>
@@ -15030,11 +15030,11 @@
         <v>7.2</v>
       </c>
       <c r="L239" s="22">
-        <f>SUM(F239:J239)</f>
+        <f t="shared" si="6"/>
         <v>7.2</v>
       </c>
       <c r="M239" s="22">
-        <f>SUM(G239:J239)</f>
+        <f t="shared" si="7"/>
         <v>6.2</v>
       </c>
     </row>
@@ -15073,11 +15073,11 @@
         <v>8.1</v>
       </c>
       <c r="L240" s="22">
-        <f>SUM(F240:J240)</f>
+        <f t="shared" si="6"/>
         <v>7.2999999999999989</v>
       </c>
       <c r="M240" s="22">
-        <f>SUM(G240:J240)</f>
+        <f t="shared" si="7"/>
         <v>6.1999999999999993</v>
       </c>
     </row>
@@ -15116,15 +15116,15 @@
         <v>9.9</v>
       </c>
       <c r="L241" s="22">
-        <f>SUM(F241:J241)</f>
+        <f t="shared" si="6"/>
         <v>7.9000000000000012</v>
       </c>
       <c r="M241" s="22">
-        <f>SUM(G241:J241)</f>
+        <f t="shared" si="7"/>
         <v>6.1000000000000005</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>278</v>
       </c>
@@ -15159,11 +15159,11 @@
         <v>11.2</v>
       </c>
       <c r="L242" s="22">
-        <f>SUM(F242:J242)</f>
+        <f t="shared" si="6"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="M242" s="22">
-        <f>SUM(G242:J242)</f>
+        <f t="shared" si="7"/>
         <v>6.1</v>
       </c>
     </row>
@@ -15202,11 +15202,11 @@
         <v>10.4</v>
       </c>
       <c r="L243" s="22">
-        <f>SUM(F243:J243)</f>
+        <f t="shared" si="6"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="M243" s="22">
-        <f>SUM(G243:J243)</f>
+        <f t="shared" si="7"/>
         <v>6.1</v>
       </c>
     </row>
@@ -15245,15 +15245,15 @@
         <v>9.9</v>
       </c>
       <c r="L244" s="22">
-        <f>SUM(F244:J244)</f>
+        <f t="shared" si="6"/>
         <v>7.6</v>
       </c>
       <c r="M244" s="22">
-        <f>SUM(G244:J244)</f>
+        <f t="shared" si="7"/>
         <v>6.1</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>345</v>
       </c>
@@ -15288,15 +15288,15 @@
         <v>7.4</v>
       </c>
       <c r="L245" s="22">
-        <f>SUM(F245:J245)</f>
+        <f t="shared" si="6"/>
         <v>7.2999999999999989</v>
       </c>
       <c r="M245" s="22">
-        <f>SUM(G245:J245)</f>
+        <f t="shared" si="7"/>
         <v>6.1</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>281</v>
       </c>
@@ -15331,11 +15331,11 @@
         <v>11.1</v>
       </c>
       <c r="L246" s="22">
-        <f>SUM(F246:J246)</f>
+        <f t="shared" si="6"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="M246" s="22">
-        <f>SUM(G246:J246)</f>
+        <f t="shared" si="7"/>
         <v>5.8000000000000007</v>
       </c>
     </row>
@@ -15374,11 +15374,11 @@
         <v>10</v>
       </c>
       <c r="L247" s="22">
-        <f>SUM(F247:J247)</f>
+        <f t="shared" si="6"/>
         <v>7.8999999999999995</v>
       </c>
       <c r="M247" s="22">
-        <f>SUM(G247:J247)</f>
+        <f t="shared" si="7"/>
         <v>5.8</v>
       </c>
     </row>
@@ -15417,11 +15417,11 @@
         <v>10</v>
       </c>
       <c r="L248" s="22">
-        <f>SUM(F248:J248)</f>
+        <f t="shared" si="6"/>
         <v>7.4</v>
       </c>
       <c r="M248" s="22">
-        <f>SUM(G248:J248)</f>
+        <f t="shared" si="7"/>
         <v>5.8</v>
       </c>
     </row>
@@ -15460,11 +15460,11 @@
         <v>7.7</v>
       </c>
       <c r="L249" s="22">
-        <f>SUM(F249:J249)</f>
+        <f t="shared" si="6"/>
         <v>6.8</v>
       </c>
       <c r="M249" s="22">
-        <f>SUM(G249:J249)</f>
+        <f t="shared" si="7"/>
         <v>5.8</v>
       </c>
     </row>
@@ -15503,11 +15503,11 @@
         <v>11.9</v>
       </c>
       <c r="L250" s="22">
-        <f>SUM(F250:J250)</f>
+        <f t="shared" si="6"/>
         <v>7.8</v>
       </c>
       <c r="M250" s="22">
-        <f>SUM(G250:J250)</f>
+        <f t="shared" si="7"/>
         <v>5.7</v>
       </c>
     </row>
@@ -15546,15 +15546,15 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L251" s="22">
-        <f>SUM(F251:J251)</f>
+        <f t="shared" si="6"/>
         <v>7.2</v>
       </c>
       <c r="M251" s="22">
-        <f>SUM(G251:J251)</f>
+        <f t="shared" si="7"/>
         <v>5.7</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>331</v>
       </c>
@@ -15589,11 +15589,11 @@
         <v>8.1</v>
       </c>
       <c r="L252" s="22">
-        <f>SUM(F252:J252)</f>
+        <f t="shared" si="6"/>
         <v>6.8</v>
       </c>
       <c r="M252" s="22">
-        <f>SUM(G252:J252)</f>
+        <f t="shared" si="7"/>
         <v>5.7</v>
       </c>
     </row>
@@ -15632,11 +15632,11 @@
         <v>6.4</v>
       </c>
       <c r="L253" s="22">
-        <f>SUM(F253:J253)</f>
+        <f t="shared" si="6"/>
         <v>6.5</v>
       </c>
       <c r="M253" s="22">
-        <f>SUM(G253:J253)</f>
+        <f t="shared" si="7"/>
         <v>5.6999999999999993</v>
       </c>
     </row>
@@ -15675,11 +15675,11 @@
         <v>11.5</v>
       </c>
       <c r="L254" s="22">
-        <f>SUM(F254:J254)</f>
+        <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
       <c r="M254" s="22">
-        <f>SUM(G254:J254)</f>
+        <f t="shared" si="7"/>
         <v>5.6</v>
       </c>
     </row>
@@ -15718,11 +15718,11 @@
         <v>10.9</v>
       </c>
       <c r="L255" s="22">
-        <f>SUM(F255:J255)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="M255" s="22">
-        <f>SUM(G255:J255)</f>
+        <f t="shared" si="7"/>
         <v>5.6</v>
       </c>
     </row>
@@ -15761,15 +15761,15 @@
         <v>10.3</v>
       </c>
       <c r="L256" s="22">
-        <f>SUM(F256:J256)</f>
+        <f t="shared" si="6"/>
         <v>7.6</v>
       </c>
       <c r="M256" s="22">
-        <f>SUM(G256:J256)</f>
+        <f t="shared" si="7"/>
         <v>5.6</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>338</v>
       </c>
@@ -15804,15 +15804,15 @@
         <v>7.7</v>
       </c>
       <c r="L257" s="22">
-        <f>SUM(F257:J257)</f>
+        <f t="shared" si="6"/>
         <v>6.9</v>
       </c>
       <c r="M257" s="22">
-        <f>SUM(G257:J257)</f>
+        <f t="shared" si="7"/>
         <v>5.6</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>372</v>
       </c>
@@ -15847,11 +15847,11 @@
         <v>5.6</v>
       </c>
       <c r="L258" s="22">
-        <f>SUM(F258:J258)</f>
+        <f t="shared" ref="L258:L321" si="8">SUM(F258:J258)</f>
         <v>5.6</v>
       </c>
       <c r="M258" s="22">
-        <f>SUM(G258:J258)</f>
+        <f t="shared" ref="M258:M321" si="9">SUM(G258:J258)</f>
         <v>5.6</v>
       </c>
     </row>
@@ -15890,15 +15890,15 @@
         <v>9.4</v>
       </c>
       <c r="L259" s="22">
-        <f>SUM(F259:J259)</f>
+        <f t="shared" si="8"/>
         <v>7.4999999999999991</v>
       </c>
       <c r="M259" s="22">
-        <f>SUM(G259:J259)</f>
+        <f t="shared" si="9"/>
         <v>5.3999999999999995</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>291</v>
       </c>
@@ -15933,11 +15933,11 @@
         <v>10.6</v>
       </c>
       <c r="L260" s="22">
-        <f>SUM(F260:J260)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="M260" s="22">
-        <f>SUM(G260:J260)</f>
+        <f t="shared" si="9"/>
         <v>5.3000000000000007</v>
       </c>
     </row>
@@ -15976,11 +15976,11 @@
         <v>9.1</v>
       </c>
       <c r="L261" s="22">
-        <f>SUM(F261:J261)</f>
+        <f t="shared" si="8"/>
         <v>7.3000000000000007</v>
       </c>
       <c r="M261" s="22">
-        <f>SUM(G261:J261)</f>
+        <f t="shared" si="9"/>
         <v>5.3000000000000007</v>
       </c>
     </row>
@@ -16019,15 +16019,15 @@
         <v>9.9</v>
       </c>
       <c r="L262" s="22">
-        <f>SUM(F262:J262)</f>
+        <f t="shared" si="8"/>
         <v>7.2</v>
       </c>
       <c r="M262" s="22">
-        <f>SUM(G262:J262)</f>
+        <f t="shared" si="9"/>
         <v>5.3</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>314</v>
       </c>
@@ -16062,15 +16062,15 @@
         <v>9.5</v>
       </c>
       <c r="L263" s="22">
-        <f>SUM(F263:J263)</f>
+        <f t="shared" si="8"/>
         <v>6.9</v>
       </c>
       <c r="M263" s="22">
-        <f>SUM(G263:J263)</f>
+        <f t="shared" si="9"/>
         <v>5.3</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>346</v>
       </c>
@@ -16105,11 +16105,11 @@
         <v>7.3</v>
       </c>
       <c r="L264" s="22">
-        <f>SUM(F264:J264)</f>
+        <f t="shared" si="8"/>
         <v>6.3</v>
       </c>
       <c r="M264" s="22">
-        <f>SUM(G264:J264)</f>
+        <f t="shared" si="9"/>
         <v>5.3</v>
       </c>
     </row>
@@ -16148,15 +16148,15 @@
         <v>5.3</v>
       </c>
       <c r="L265" s="22">
-        <f>SUM(F265:J265)</f>
+        <f t="shared" si="8"/>
         <v>5.3</v>
       </c>
       <c r="M265" s="22">
-        <f>SUM(G265:J265)</f>
+        <f t="shared" si="9"/>
         <v>5.3</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>312</v>
       </c>
@@ -16191,11 +16191,11 @@
         <v>9.6</v>
       </c>
       <c r="L266" s="22">
-        <f>SUM(F266:J266)</f>
+        <f t="shared" si="8"/>
         <v>6.7000000000000011</v>
       </c>
       <c r="M266" s="22">
-        <f>SUM(G266:J266)</f>
+        <f t="shared" si="9"/>
         <v>5.2000000000000011</v>
       </c>
     </row>
@@ -16234,11 +16234,11 @@
         <v>7.7</v>
       </c>
       <c r="L267" s="22">
-        <f>SUM(F267:J267)</f>
+        <f t="shared" si="8"/>
         <v>6.7</v>
       </c>
       <c r="M267" s="22">
-        <f>SUM(G267:J267)</f>
+        <f t="shared" si="9"/>
         <v>5.2</v>
       </c>
     </row>
@@ -16277,11 +16277,11 @@
         <v>8.4</v>
       </c>
       <c r="L268" s="22">
-        <f>SUM(F268:J268)</f>
+        <f t="shared" si="8"/>
         <v>6.5000000000000009</v>
       </c>
       <c r="M268" s="22">
-        <f>SUM(G268:J268)</f>
+        <f t="shared" si="9"/>
         <v>5.2</v>
       </c>
     </row>
@@ -16320,11 +16320,11 @@
         <v>7.2</v>
       </c>
       <c r="L269" s="22">
-        <f>SUM(F269:J269)</f>
+        <f t="shared" si="8"/>
         <v>6.3000000000000007</v>
       </c>
       <c r="M269" s="22">
-        <f>SUM(G269:J269)</f>
+        <f t="shared" si="9"/>
         <v>5.1999999999999993</v>
       </c>
     </row>
@@ -16363,11 +16363,11 @@
         <v>9</v>
       </c>
       <c r="L270" s="22">
-        <f>SUM(F270:J270)</f>
+        <f t="shared" si="8"/>
         <v>6.6</v>
       </c>
       <c r="M270" s="22">
-        <f>SUM(G270:J270)</f>
+        <f t="shared" si="9"/>
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -16406,11 +16406,11 @@
         <v>10</v>
       </c>
       <c r="L271" s="22">
-        <f>SUM(F271:J271)</f>
+        <f t="shared" si="8"/>
         <v>7.1000000000000005</v>
       </c>
       <c r="M271" s="22">
-        <f>SUM(G271:J271)</f>
+        <f t="shared" si="9"/>
         <v>5.0000000000000009</v>
       </c>
     </row>
@@ -16449,11 +16449,11 @@
         <v>8.5</v>
       </c>
       <c r="L272" s="22">
-        <f>SUM(F272:J272)</f>
+        <f t="shared" si="8"/>
         <v>6.5000000000000009</v>
       </c>
       <c r="M272" s="22">
-        <f>SUM(G272:J272)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -16492,11 +16492,11 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="L273" s="22">
-        <f>SUM(F273:J273)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="M273" s="22">
-        <f>SUM(G273:J273)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -16535,11 +16535,11 @@
         <v>8</v>
       </c>
       <c r="L274" s="22">
-        <f>SUM(F274:J274)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="M274" s="22">
-        <f>SUM(G274:J274)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -16578,15 +16578,15 @@
         <v>7.6</v>
       </c>
       <c r="L275" s="22">
-        <f>SUM(F275:J275)</f>
+        <f t="shared" si="8"/>
         <v>6.1</v>
       </c>
       <c r="M275" s="22">
-        <f>SUM(G275:J275)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>361</v>
       </c>
@@ -16621,15 +16621,15 @@
         <v>6.3</v>
       </c>
       <c r="L276" s="22">
-        <f>SUM(F276:J276)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="M276" s="22">
-        <f>SUM(G276:J276)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>300</v>
       </c>
@@ -16664,15 +16664,15 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L277" s="22">
-        <f>SUM(F277:J277)</f>
+        <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="M277" s="22">
-        <f>SUM(G277:J277)</f>
+        <f t="shared" si="9"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>342</v>
       </c>
@@ -16707,15 +16707,15 @@
         <v>7.5</v>
       </c>
       <c r="L278" s="22">
-        <f>SUM(F278:J278)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="M278" s="22">
-        <f>SUM(G278:J278)</f>
+        <f t="shared" si="9"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>350</v>
       </c>
@@ -16750,11 +16750,11 @@
         <v>6.9</v>
       </c>
       <c r="L279" s="22">
-        <f>SUM(F279:J279)</f>
+        <f t="shared" si="8"/>
         <v>5.9</v>
       </c>
       <c r="M279" s="22">
-        <f>SUM(G279:J279)</f>
+        <f t="shared" si="9"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -16793,11 +16793,11 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L280" s="22">
-        <f>SUM(F280:J280)</f>
+        <f t="shared" si="8"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="M280" s="22">
-        <f>SUM(G280:J280)</f>
+        <f t="shared" si="9"/>
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -16836,11 +16836,11 @@
         <v>7.3</v>
       </c>
       <c r="L281" s="22">
-        <f>SUM(F281:J281)</f>
+        <f t="shared" si="8"/>
         <v>6.3</v>
       </c>
       <c r="M281" s="22">
-        <f>SUM(G281:J281)</f>
+        <f t="shared" si="9"/>
         <v>4.8999999999999995</v>
       </c>
     </row>
@@ -16879,11 +16879,11 @@
         <v>8.5</v>
       </c>
       <c r="L282" s="22">
-        <f>SUM(F282:J282)</f>
+        <f t="shared" si="8"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="M282" s="22">
-        <f>SUM(G282:J282)</f>
+        <f t="shared" si="9"/>
         <v>4.8000000000000007</v>
       </c>
     </row>
@@ -16922,11 +16922,11 @@
         <v>6.1</v>
       </c>
       <c r="L283" s="22">
-        <f>SUM(F283:J283)</f>
+        <f t="shared" si="8"/>
         <v>6.1000000000000005</v>
       </c>
       <c r="M283" s="22">
-        <f>SUM(G283:J283)</f>
+        <f t="shared" si="9"/>
         <v>4.8</v>
       </c>
     </row>
@@ -16965,11 +16965,11 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="L284" s="22">
-        <f>SUM(F284:J284)</f>
+        <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
       <c r="M284" s="22">
-        <f>SUM(G284:J284)</f>
+        <f t="shared" si="9"/>
         <v>4.7</v>
       </c>
     </row>
@@ -17008,15 +17008,15 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="L285" s="22">
-        <f>SUM(F285:J285)</f>
+        <f t="shared" si="8"/>
         <v>6.4</v>
       </c>
       <c r="M285" s="22">
-        <f>SUM(G285:J285)</f>
+        <f t="shared" si="9"/>
         <v>4.7</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>322</v>
       </c>
@@ -17051,11 +17051,11 @@
         <v>8.9</v>
       </c>
       <c r="L286" s="22">
-        <f>SUM(F286:J286)</f>
+        <f t="shared" si="8"/>
         <v>6.1</v>
       </c>
       <c r="M286" s="22">
-        <f>SUM(G286:J286)</f>
+        <f t="shared" si="9"/>
         <v>4.7</v>
       </c>
     </row>
@@ -17094,15 +17094,15 @@
         <v>6.7</v>
       </c>
       <c r="L287" s="22">
-        <f>SUM(F287:J287)</f>
+        <f t="shared" si="8"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="M287" s="22">
-        <f>SUM(G287:J287)</f>
+        <f t="shared" si="9"/>
         <v>4.7</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>315</v>
       </c>
@@ -17137,15 +17137,15 @@
         <v>9.4</v>
       </c>
       <c r="L288" s="22">
-        <f>SUM(F288:J288)</f>
+        <f t="shared" si="8"/>
         <v>6.7999999999999989</v>
       </c>
       <c r="M288" s="22">
-        <f>SUM(G288:J288)</f>
+        <f t="shared" si="9"/>
         <v>4.6999999999999993</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>343</v>
       </c>
@@ -17180,15 +17180,15 @@
         <v>7.4</v>
       </c>
       <c r="L289" s="22">
-        <f>SUM(F289:J289)</f>
+        <f t="shared" si="8"/>
         <v>6.5</v>
       </c>
       <c r="M289" s="22">
-        <f>SUM(G289:J289)</f>
+        <f t="shared" si="9"/>
         <v>4.6999999999999993</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>353</v>
       </c>
@@ -17223,11 +17223,11 @@
         <v>6.7</v>
       </c>
       <c r="L290" s="22">
-        <f>SUM(F290:J290)</f>
+        <f t="shared" si="8"/>
         <v>5.9</v>
       </c>
       <c r="M290" s="22">
-        <f>SUM(G290:J290)</f>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
     </row>
@@ -17266,11 +17266,11 @@
         <v>5.9</v>
       </c>
       <c r="L291" s="22">
-        <f>SUM(F291:J291)</f>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="M291" s="22">
-        <f>SUM(G291:J291)</f>
+        <f t="shared" si="9"/>
         <v>4.5</v>
       </c>
     </row>
@@ -17309,11 +17309,11 @@
         <v>5.7</v>
       </c>
       <c r="L292" s="22">
-        <f>SUM(F292:J292)</f>
+        <f t="shared" si="8"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="M292" s="22">
-        <f>SUM(G292:J292)</f>
+        <f t="shared" si="9"/>
         <v>4.3000000000000007</v>
       </c>
     </row>
@@ -17352,11 +17352,11 @@
         <v>7.7</v>
       </c>
       <c r="L293" s="22">
-        <f>SUM(F293:J293)</f>
+        <f t="shared" si="8"/>
         <v>5.7000000000000011</v>
       </c>
       <c r="M293" s="22">
-        <f>SUM(G293:J293)</f>
+        <f t="shared" si="9"/>
         <v>4.2</v>
       </c>
     </row>
@@ -17395,11 +17395,11 @@
         <v>5.9</v>
       </c>
       <c r="L294" s="22">
-        <f>SUM(F294:J294)</f>
+        <f t="shared" si="8"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="M294" s="22">
-        <f>SUM(G294:J294)</f>
+        <f t="shared" si="9"/>
         <v>4.2</v>
       </c>
     </row>
@@ -17438,11 +17438,11 @@
         <v>8.1</v>
       </c>
       <c r="L295" s="22">
-        <f>SUM(F295:J295)</f>
+        <f t="shared" si="8"/>
         <v>5.7</v>
       </c>
       <c r="M295" s="22">
-        <f>SUM(G295:J295)</f>
+        <f t="shared" si="9"/>
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -17481,11 +17481,11 @@
         <v>7.6</v>
       </c>
       <c r="L296" s="22">
-        <f>SUM(F296:J296)</f>
+        <f t="shared" si="8"/>
         <v>5.6999999999999993</v>
       </c>
       <c r="M296" s="22">
-        <f>SUM(G296:J296)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -17524,11 +17524,11 @@
         <v>6.9</v>
       </c>
       <c r="L297" s="22">
-        <f>SUM(F297:J297)</f>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="M297" s="22">
-        <f>SUM(G297:J297)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -17567,15 +17567,15 @@
         <v>6.7</v>
       </c>
       <c r="L298" s="22">
-        <f>SUM(F298:J298)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="M298" s="22">
-        <f>SUM(G298:J298)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>366</v>
       </c>
@@ -17610,11 +17610,11 @@
         <v>6</v>
       </c>
       <c r="L299" s="22">
-        <f>SUM(F299:J299)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="M299" s="22">
-        <f>SUM(G299:J299)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -17653,11 +17653,11 @@
         <v>5.5</v>
       </c>
       <c r="L300" s="22">
-        <f>SUM(F300:J300)</f>
+        <f t="shared" si="8"/>
         <v>4.8999999999999995</v>
       </c>
       <c r="M300" s="22">
-        <f>SUM(G300:J300)</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -17696,11 +17696,11 @@
         <v>6.2</v>
       </c>
       <c r="L301" s="22">
-        <f>SUM(F301:J301)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="M301" s="22">
-        <f>SUM(G301:J301)</f>
+        <f t="shared" si="9"/>
         <v>3.9000000000000004</v>
       </c>
     </row>
@@ -17739,15 +17739,15 @@
         <v>6.4</v>
       </c>
       <c r="L302" s="22">
-        <f>SUM(F302:J302)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="M302" s="22">
-        <f>SUM(G302:J302)</f>
+        <f t="shared" si="9"/>
         <v>3.9</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>359</v>
       </c>
@@ -17782,11 +17782,11 @@
         <v>6.4</v>
       </c>
       <c r="L303" s="22">
-        <f>SUM(F303:J303)</f>
+        <f t="shared" si="8"/>
         <v>5.4</v>
       </c>
       <c r="M303" s="22">
-        <f>SUM(G303:J303)</f>
+        <f t="shared" si="9"/>
         <v>3.8</v>
       </c>
     </row>
@@ -17825,11 +17825,11 @@
         <v>5</v>
       </c>
       <c r="L304" s="22">
-        <f>SUM(F304:J304)</f>
+        <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M304" s="22">
-        <f>SUM(G304:J304)</f>
+        <f t="shared" si="9"/>
         <v>3.8</v>
       </c>
     </row>
@@ -17868,15 +17868,15 @@
         <v>10.1</v>
       </c>
       <c r="L305" s="22">
-        <f>SUM(F305:J305)</f>
+        <f t="shared" si="8"/>
         <v>5.3</v>
       </c>
       <c r="M305" s="22">
-        <f>SUM(G305:J305)</f>
+        <f t="shared" si="9"/>
         <v>3.7</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>370</v>
       </c>
@@ -17911,15 +17911,15 @@
         <v>5.6</v>
       </c>
       <c r="L306" s="22">
-        <f>SUM(F306:J306)</f>
+        <f t="shared" si="8"/>
         <v>4.9000000000000004</v>
       </c>
       <c r="M306" s="22">
-        <f>SUM(G306:J306)</f>
+        <f t="shared" si="9"/>
         <v>3.7</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>379</v>
       </c>
@@ -17954,11 +17954,11 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="L307" s="22">
-        <f>SUM(F307:J307)</f>
+        <f t="shared" si="8"/>
         <v>4.8</v>
       </c>
       <c r="M307" s="22">
-        <f>SUM(G307:J307)</f>
+        <f t="shared" si="9"/>
         <v>3.7</v>
       </c>
     </row>
@@ -17997,11 +17997,11 @@
         <v>6.4</v>
       </c>
       <c r="L308" s="22">
-        <f>SUM(F308:J308)</f>
+        <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M308" s="22">
-        <f>SUM(G308:J308)</f>
+        <f t="shared" si="9"/>
         <v>3.7</v>
       </c>
     </row>
@@ -18040,11 +18040,11 @@
         <v>6.1</v>
       </c>
       <c r="L309" s="22">
-        <f>SUM(F309:J309)</f>
+        <f t="shared" si="8"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="M309" s="22">
-        <f>SUM(G309:J309)</f>
+        <f t="shared" si="9"/>
         <v>3.7</v>
       </c>
     </row>
@@ -18083,11 +18083,11 @@
         <v>6.1</v>
       </c>
       <c r="L310" s="22">
-        <f>SUM(F310:J310)</f>
+        <f t="shared" si="8"/>
         <v>5.0999999999999996</v>
       </c>
       <c r="M310" s="22">
-        <f>SUM(G310:J310)</f>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
     </row>
@@ -18126,11 +18126,11 @@
         <v>6.1</v>
       </c>
       <c r="L311" s="22">
-        <f>SUM(F311:J311)</f>
+        <f t="shared" si="8"/>
         <v>4.7</v>
       </c>
       <c r="M311" s="22">
-        <f>SUM(G311:J311)</f>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
     </row>
@@ -18169,11 +18169,11 @@
         <v>6.9</v>
       </c>
       <c r="L312" s="22">
-        <f>SUM(F312:J312)</f>
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
       <c r="M312" s="22">
-        <f>SUM(G312:J312)</f>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
     </row>
@@ -18212,15 +18212,15 @@
         <v>4.8</v>
       </c>
       <c r="L313" s="22">
-        <f>SUM(F313:J313)</f>
+        <f t="shared" si="8"/>
         <v>4.1000000000000005</v>
       </c>
       <c r="M313" s="22">
-        <f>SUM(G313:J313)</f>
+        <f t="shared" si="9"/>
         <v>3.4</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>380</v>
       </c>
@@ -18255,11 +18255,11 @@
         <v>5</v>
       </c>
       <c r="L314" s="22">
-        <f>SUM(F314:J314)</f>
+        <f t="shared" si="8"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="M314" s="22">
-        <f>SUM(G314:J314)</f>
+        <f t="shared" si="9"/>
         <v>3.4</v>
       </c>
     </row>
@@ -18298,11 +18298,11 @@
         <v>4</v>
       </c>
       <c r="L315" s="22">
-        <f>SUM(F315:J315)</f>
+        <f t="shared" si="8"/>
         <v>3.9999999999999996</v>
       </c>
       <c r="M315" s="22">
-        <f>SUM(G315:J315)</f>
+        <f t="shared" si="9"/>
         <v>3.4</v>
       </c>
     </row>
@@ -18341,11 +18341,11 @@
         <v>5.5</v>
       </c>
       <c r="L316" s="22">
-        <f>SUM(F316:J316)</f>
+        <f t="shared" si="8"/>
         <v>4.3</v>
       </c>
       <c r="M316" s="22">
-        <f>SUM(G316:J316)</f>
+        <f t="shared" si="9"/>
         <v>3.3</v>
       </c>
     </row>
@@ -18384,15 +18384,15 @@
         <v>5.4</v>
       </c>
       <c r="L317" s="22">
-        <f>SUM(F317:J317)</f>
+        <f t="shared" si="8"/>
         <v>4.2</v>
       </c>
       <c r="M317" s="22">
-        <f>SUM(G317:J317)</f>
+        <f t="shared" si="9"/>
         <v>3.3</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>371</v>
       </c>
@@ -18427,11 +18427,11 @@
         <v>5.6</v>
       </c>
       <c r="L318" s="22">
-        <f>SUM(F318:J318)</f>
+        <f t="shared" si="8"/>
         <v>3.7</v>
       </c>
       <c r="M318" s="22">
-        <f>SUM(G318:J318)</f>
+        <f t="shared" si="9"/>
         <v>3.2</v>
       </c>
     </row>
@@ -18470,11 +18470,11 @@
         <v>3.5</v>
       </c>
       <c r="L319" s="22">
-        <f>SUM(F319:J319)</f>
+        <f t="shared" si="8"/>
         <v>3.5</v>
       </c>
       <c r="M319" s="22">
-        <f>SUM(G319:J319)</f>
+        <f t="shared" si="9"/>
         <v>3.2</v>
       </c>
     </row>
@@ -18513,11 +18513,11 @@
         <v>4.5</v>
       </c>
       <c r="L320" s="22">
-        <f>SUM(F320:J320)</f>
+        <f t="shared" si="8"/>
         <v>3.9</v>
       </c>
       <c r="M320" s="22">
-        <f>SUM(G320:J320)</f>
+        <f t="shared" si="9"/>
         <v>3.1999999999999997</v>
       </c>
     </row>
@@ -18556,11 +18556,11 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="L321" s="22">
-        <f>SUM(F321:J321)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="M321" s="22">
-        <f>SUM(G321:J321)</f>
+        <f t="shared" si="9"/>
         <v>3.1000000000000005</v>
       </c>
     </row>
@@ -18599,11 +18599,11 @@
         <v>3.5</v>
       </c>
       <c r="L322" s="22">
-        <f>SUM(F322:J322)</f>
+        <f t="shared" ref="L322:L385" si="10">SUM(F322:J322)</f>
         <v>3.4000000000000004</v>
       </c>
       <c r="M322" s="22">
-        <f>SUM(G322:J322)</f>
+        <f t="shared" ref="M322:M385" si="11">SUM(G322:J322)</f>
         <v>3.1</v>
       </c>
     </row>
@@ -18642,11 +18642,11 @@
         <v>5.5</v>
       </c>
       <c r="L323" s="22">
-        <f>SUM(F323:J323)</f>
+        <f t="shared" si="10"/>
         <v>3.8000000000000007</v>
       </c>
       <c r="M323" s="22">
-        <f>SUM(G323:J323)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -18685,15 +18685,15 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L324" s="22">
-        <f>SUM(F324:J324)</f>
+        <f t="shared" si="10"/>
         <v>3.8</v>
       </c>
       <c r="M324" s="22">
-        <f>SUM(G324:J324)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>393</v>
       </c>
@@ -18728,11 +18728,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="L325" s="22">
-        <f>SUM(F325:J325)</f>
+        <f t="shared" si="10"/>
         <v>3.5999999999999996</v>
       </c>
       <c r="M325" s="22">
-        <f>SUM(G325:J325)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -18771,11 +18771,11 @@
         <v>3</v>
       </c>
       <c r="L326" s="22">
-        <f>SUM(F326:J326)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M326" s="22">
-        <f>SUM(G326:J326)</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -18814,11 +18814,11 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L327" s="22">
-        <f>SUM(F327:J327)</f>
+        <f t="shared" si="10"/>
         <v>3.7</v>
       </c>
       <c r="M327" s="22">
-        <f>SUM(G327:J327)</f>
+        <f t="shared" si="11"/>
         <v>2.9000000000000004</v>
       </c>
     </row>
@@ -18857,15 +18857,15 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="L328" s="22">
-        <f>SUM(F328:J328)</f>
+        <f t="shared" si="10"/>
         <v>3.6000000000000005</v>
       </c>
       <c r="M328" s="22">
-        <f>SUM(G328:J328)</f>
+        <f t="shared" si="11"/>
         <v>2.9000000000000004</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>400</v>
       </c>
@@ -18900,15 +18900,15 @@
         <v>3.7</v>
       </c>
       <c r="L329" s="22">
-        <f>SUM(F329:J329)</f>
+        <f t="shared" si="10"/>
         <v>3.4999999999999996</v>
       </c>
       <c r="M329" s="22">
-        <f>SUM(G329:J329)</f>
+        <f t="shared" si="11"/>
         <v>2.9</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>423</v>
       </c>
@@ -18943,15 +18943,15 @@
         <v>2.8</v>
       </c>
       <c r="L330" s="22">
-        <f>SUM(F330:J330)</f>
+        <f t="shared" si="10"/>
         <v>2.9</v>
       </c>
       <c r="M330" s="22">
-        <f>SUM(G330:J330)</f>
+        <f t="shared" si="11"/>
         <v>2.9</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>391</v>
       </c>
@@ -18986,11 +18986,11 @@
         <v>4.2</v>
       </c>
       <c r="L331" s="22">
-        <f>SUM(F331:J331)</f>
+        <f t="shared" si="10"/>
         <v>3.5</v>
       </c>
       <c r="M331" s="22">
-        <f>SUM(G331:J331)</f>
+        <f t="shared" si="11"/>
         <v>2.8999999999999995</v>
       </c>
     </row>
@@ -19029,11 +19029,11 @@
         <v>3.2</v>
       </c>
       <c r="L332" s="22">
-        <f>SUM(F332:J332)</f>
+        <f t="shared" si="10"/>
         <v>3.3</v>
       </c>
       <c r="M332" s="22">
-        <f>SUM(G332:J332)</f>
+        <f t="shared" si="11"/>
         <v>2.8999999999999995</v>
       </c>
     </row>
@@ -19072,11 +19072,11 @@
         <v>3.6</v>
       </c>
       <c r="L333" s="22">
-        <f>SUM(F333:J333)</f>
+        <f t="shared" si="10"/>
         <v>3.3</v>
       </c>
       <c r="M333" s="22">
-        <f>SUM(G333:J333)</f>
+        <f t="shared" si="11"/>
         <v>2.8</v>
       </c>
     </row>
@@ -19115,15 +19115,15 @@
         <v>6.6</v>
       </c>
       <c r="L334" s="22">
-        <f>SUM(F334:J334)</f>
+        <f t="shared" si="10"/>
         <v>4.5</v>
       </c>
       <c r="M334" s="22">
-        <f>SUM(G334:J334)</f>
+        <f t="shared" si="11"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>392</v>
       </c>
@@ -19158,11 +19158,11 @@
         <v>4.2</v>
       </c>
       <c r="L335" s="22">
-        <f>SUM(F335:J335)</f>
+        <f t="shared" si="10"/>
         <v>3.7</v>
       </c>
       <c r="M335" s="22">
-        <f>SUM(G335:J335)</f>
+        <f t="shared" si="11"/>
         <v>2.7</v>
       </c>
     </row>
@@ -19201,15 +19201,15 @@
         <v>3.4</v>
       </c>
       <c r="L336" s="22">
-        <f>SUM(F336:J336)</f>
+        <f t="shared" si="10"/>
         <v>3.3</v>
       </c>
       <c r="M336" s="22">
-        <f>SUM(G336:J336)</f>
+        <f t="shared" si="11"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>401</v>
       </c>
@@ -19244,15 +19244,15 @@
         <v>3.7</v>
       </c>
       <c r="L337" s="22">
-        <f>SUM(F337:J337)</f>
+        <f t="shared" si="10"/>
         <v>3.1000000000000005</v>
       </c>
       <c r="M337" s="22">
-        <f>SUM(G337:J337)</f>
+        <f t="shared" si="11"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>409</v>
       </c>
@@ -19287,11 +19287,11 @@
         <v>3.5</v>
       </c>
       <c r="L338" s="22">
-        <f>SUM(F338:J338)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M338" s="22">
-        <f>SUM(G338:J338)</f>
+        <f t="shared" si="11"/>
         <v>2.7</v>
       </c>
     </row>
@@ -19330,11 +19330,11 @@
         <v>3</v>
       </c>
       <c r="L339" s="22">
-        <f>SUM(F339:J339)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M339" s="22">
-        <f>SUM(G339:J339)</f>
+        <f t="shared" si="11"/>
         <v>2.7</v>
       </c>
     </row>
@@ -19373,11 +19373,11 @@
         <v>3.6</v>
       </c>
       <c r="L340" s="22">
-        <f>SUM(F340:J340)</f>
+        <f t="shared" si="10"/>
         <v>3.1</v>
       </c>
       <c r="M340" s="22">
-        <f>SUM(G340:J340)</f>
+        <f t="shared" si="11"/>
         <v>2.6</v>
       </c>
     </row>
@@ -19416,11 +19416,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="L341" s="22">
-        <f>SUM(F341:J341)</f>
+        <f t="shared" si="10"/>
         <v>3.1999999999999997</v>
       </c>
       <c r="M341" s="22">
-        <f>SUM(G341:J341)</f>
+        <f t="shared" si="11"/>
         <v>2.5999999999999996</v>
       </c>
     </row>
@@ -19459,15 +19459,15 @@
         <v>3.7</v>
       </c>
       <c r="L342" s="22">
-        <f>SUM(F342:J342)</f>
+        <f t="shared" si="10"/>
         <v>3.1999999999999997</v>
       </c>
       <c r="M342" s="22">
-        <f>SUM(G342:J342)</f>
+        <f t="shared" si="11"/>
         <v>2.5999999999999996</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>384</v>
       </c>
@@ -19502,11 +19502,11 @@
         <v>4.8</v>
       </c>
       <c r="L343" s="22">
-        <f>SUM(F343:J343)</f>
+        <f t="shared" si="10"/>
         <v>3.6000000000000005</v>
       </c>
       <c r="M343" s="22">
-        <f>SUM(G343:J343)</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
     </row>
@@ -19545,11 +19545,11 @@
         <v>4</v>
       </c>
       <c r="L344" s="22">
-        <f>SUM(F344:J344)</f>
+        <f t="shared" si="10"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="M344" s="22">
-        <f>SUM(G344:J344)</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
     </row>
@@ -19588,11 +19588,11 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L345" s="22">
-        <f>SUM(F345:J345)</f>
+        <f t="shared" si="10"/>
         <v>3.1999999999999997</v>
       </c>
       <c r="M345" s="22">
-        <f>SUM(G345:J345)</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
     </row>
@@ -19631,11 +19631,11 @@
         <v>3.5</v>
       </c>
       <c r="L346" s="22">
-        <f>SUM(F346:J346)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M346" s="22">
-        <f>SUM(G346:J346)</f>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
     </row>
@@ -19674,11 +19674,11 @@
         <v>3.8</v>
       </c>
       <c r="L347" s="22">
-        <f>SUM(F347:J347)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M347" s="22">
-        <f>SUM(G347:J347)</f>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
     </row>
@@ -19717,11 +19717,11 @@
         <v>3.8</v>
       </c>
       <c r="L348" s="22">
-        <f>SUM(F348:J348)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M348" s="22">
-        <f>SUM(G348:J348)</f>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
     </row>
@@ -19760,11 +19760,11 @@
         <v>3.3</v>
       </c>
       <c r="L349" s="22">
-        <f>SUM(F349:J349)</f>
+        <f t="shared" si="10"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="M349" s="22">
-        <f>SUM(G349:J349)</f>
+        <f t="shared" si="11"/>
         <v>2.4</v>
       </c>
     </row>
@@ -19803,11 +19803,11 @@
         <v>3.6</v>
       </c>
       <c r="L350" s="22">
-        <f>SUM(F350:J350)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="M350" s="22">
-        <f>SUM(G350:J350)</f>
+        <f t="shared" si="11"/>
         <v>2.3000000000000003</v>
       </c>
     </row>
@@ -19846,11 +19846,11 @@
         <v>3.4</v>
       </c>
       <c r="L351" s="22">
-        <f>SUM(F351:J351)</f>
+        <f t="shared" si="10"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="M351" s="22">
-        <f>SUM(G351:J351)</f>
+        <f t="shared" si="11"/>
         <v>2.3000000000000003</v>
       </c>
     </row>
@@ -19889,15 +19889,15 @@
         <v>3.6</v>
       </c>
       <c r="L352" s="22">
-        <f>SUM(F352:J352)</f>
+        <f t="shared" si="10"/>
         <v>2.9</v>
       </c>
       <c r="M352" s="22">
-        <f>SUM(G352:J352)</f>
+        <f t="shared" si="11"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>422</v>
       </c>
@@ -19932,11 +19932,11 @@
         <v>2.9</v>
       </c>
       <c r="L353" s="22">
-        <f>SUM(F353:J353)</f>
+        <f t="shared" si="10"/>
         <v>2.5999999999999996</v>
       </c>
       <c r="M353" s="22">
-        <f>SUM(G353:J353)</f>
+        <f t="shared" si="11"/>
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -19975,11 +19975,11 @@
         <v>3.9</v>
       </c>
       <c r="L354" s="22">
-        <f>SUM(F354:J354)</f>
+        <f t="shared" si="10"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="M354" s="22">
-        <f>SUM(G354:J354)</f>
+        <f t="shared" si="11"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -20018,15 +20018,15 @@
         <v>3.3</v>
       </c>
       <c r="L355" s="22">
-        <f>SUM(F355:J355)</f>
+        <f t="shared" si="10"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="M355" s="22">
-        <f>SUM(G355:J355)</f>
+        <f t="shared" si="11"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>441</v>
       </c>
@@ -20061,11 +20061,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L356" s="22">
-        <f>SUM(F356:J356)</f>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="M356" s="22">
-        <f>SUM(G356:J356)</f>
+        <f t="shared" si="11"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -20104,11 +20104,11 @@
         <v>2.8</v>
       </c>
       <c r="L357" s="22">
-        <f>SUM(F357:J357)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="M357" s="22">
-        <f>SUM(G357:J357)</f>
+        <f t="shared" si="11"/>
         <v>2.1</v>
       </c>
     </row>
@@ -20147,11 +20147,11 @@
         <v>2.7</v>
       </c>
       <c r="L358" s="22">
-        <f>SUM(F358:J358)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="M358" s="22">
-        <f>SUM(G358:J358)</f>
+        <f t="shared" si="11"/>
         <v>2.1</v>
       </c>
     </row>
@@ -20190,11 +20190,11 @@
         <v>4.5</v>
       </c>
       <c r="L359" s="22">
-        <f>SUM(F359:J359)</f>
+        <f t="shared" si="10"/>
         <v>2.8</v>
       </c>
       <c r="M359" s="22">
-        <f>SUM(G359:J359)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -20233,11 +20233,11 @@
         <v>3.3</v>
       </c>
       <c r="L360" s="22">
-        <f>SUM(F360:J360)</f>
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
       <c r="M360" s="22">
-        <f>SUM(G360:J360)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -20276,11 +20276,11 @@
         <v>2.1</v>
       </c>
       <c r="L361" s="22">
-        <f>SUM(F361:J361)</f>
+        <f t="shared" si="10"/>
         <v>2.1999999999999997</v>
       </c>
       <c r="M361" s="22">
-        <f>SUM(G361:J361)</f>
+        <f t="shared" si="11"/>
         <v>1.9000000000000001</v>
       </c>
     </row>
@@ -20319,11 +20319,11 @@
         <v>3.6</v>
       </c>
       <c r="L362" s="22">
-        <f>SUM(F362:J362)</f>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="M362" s="22">
-        <f>SUM(G362:J362)</f>
+        <f t="shared" si="11"/>
         <v>1.9</v>
       </c>
     </row>
@@ -20362,11 +20362,11 @@
         <v>2.7</v>
       </c>
       <c r="L363" s="22">
-        <f>SUM(F363:J363)</f>
+        <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
       <c r="M363" s="22">
-        <f>SUM(G363:J363)</f>
+        <f t="shared" si="11"/>
         <v>1.9</v>
       </c>
     </row>
@@ -20405,11 +20405,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L364" s="22">
-        <f>SUM(F364:J364)</f>
+        <f t="shared" si="10"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="M364" s="22">
-        <f>SUM(G364:J364)</f>
+        <f t="shared" si="11"/>
         <v>1.9</v>
       </c>
     </row>
@@ -20448,11 +20448,11 @@
         <v>2.1</v>
       </c>
       <c r="L365" s="22">
-        <f>SUM(F365:J365)</f>
+        <f t="shared" si="10"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="M365" s="22">
-        <f>SUM(G365:J365)</f>
+        <f t="shared" si="11"/>
         <v>1.9</v>
       </c>
     </row>
@@ -20491,11 +20491,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L366" s="22">
-        <f>SUM(F366:J366)</f>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="M366" s="22">
-        <f>SUM(G366:J366)</f>
+        <f t="shared" si="11"/>
         <v>1.9</v>
       </c>
     </row>
@@ -20534,11 +20534,11 @@
         <v>2.8</v>
       </c>
       <c r="L367" s="22">
-        <f>SUM(F367:J367)</f>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="M367" s="22">
-        <f>SUM(G367:J367)</f>
+        <f t="shared" si="11"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -20577,11 +20577,11 @@
         <v>2</v>
       </c>
       <c r="L368" s="22">
-        <f>SUM(F368:J368)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="M368" s="22">
-        <f>SUM(G368:J368)</f>
+        <f t="shared" si="11"/>
         <v>1.7999999999999998</v>
       </c>
     </row>
@@ -20620,11 +20620,11 @@
         <v>3.4</v>
       </c>
       <c r="L369" s="22">
-        <f>SUM(F369:J369)</f>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="M369" s="22">
-        <f>SUM(G369:J369)</f>
+        <f t="shared" si="11"/>
         <v>1.7</v>
       </c>
     </row>
@@ -20663,11 +20663,11 @@
         <v>2.7</v>
       </c>
       <c r="L370" s="22">
-        <f>SUM(F370:J370)</f>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="M370" s="22">
-        <f>SUM(G370:J370)</f>
+        <f t="shared" si="11"/>
         <v>1.7</v>
       </c>
     </row>
@@ -20706,15 +20706,15 @@
         <v>2.6</v>
       </c>
       <c r="L371" s="22">
-        <f>SUM(F371:J371)</f>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="M371" s="22">
-        <f>SUM(G371:J371)</f>
+        <f t="shared" si="11"/>
         <v>1.7</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>424</v>
       </c>
@@ -20749,11 +20749,11 @@
         <v>2.8</v>
       </c>
       <c r="L372" s="22">
-        <f>SUM(F372:J372)</f>
+        <f t="shared" si="10"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="M372" s="22">
-        <f>SUM(G372:J372)</f>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
     </row>
@@ -20792,11 +20792,11 @@
         <v>2.5</v>
       </c>
       <c r="L373" s="22">
-        <f>SUM(F373:J373)</f>
+        <f t="shared" si="10"/>
         <v>2.1</v>
       </c>
       <c r="M373" s="22">
-        <f>SUM(G373:J373)</f>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
     </row>
@@ -20835,11 +20835,11 @@
         <v>2.7</v>
       </c>
       <c r="L374" s="22">
-        <f>SUM(F374:J374)</f>
+        <f t="shared" si="10"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="M374" s="22">
-        <f>SUM(G374:J374)</f>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
     </row>
@@ -20878,11 +20878,11 @@
         <v>2.4</v>
       </c>
       <c r="L375" s="22">
-        <f>SUM(F375:J375)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="M375" s="22">
-        <f>SUM(G375:J375)</f>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
     </row>
@@ -20921,11 +20921,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L376" s="22">
-        <f>SUM(F376:J376)</f>
+        <f t="shared" si="10"/>
         <v>1.9</v>
       </c>
       <c r="M376" s="22">
-        <f>SUM(G376:J376)</f>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
     </row>
@@ -20964,11 +20964,11 @@
         <v>1.9</v>
       </c>
       <c r="L377" s="22">
-        <f>SUM(F377:J377)</f>
+        <f t="shared" si="10"/>
         <v>1.9</v>
       </c>
       <c r="M377" s="22">
-        <f>SUM(G377:J377)</f>
+        <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
     </row>
@@ -21007,11 +21007,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L378" s="22">
-        <f>SUM(F378:J378)</f>
+        <f t="shared" si="10"/>
         <v>1.9000000000000001</v>
       </c>
       <c r="M378" s="22">
-        <f>SUM(G378:J378)</f>
+        <f t="shared" si="11"/>
         <v>1.5000000000000002</v>
       </c>
     </row>
@@ -21050,11 +21050,11 @@
         <v>3.3</v>
       </c>
       <c r="L379" s="22">
-        <f>SUM(F379:J379)</f>
+        <f t="shared" si="10"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="M379" s="22">
-        <f>SUM(G379:J379)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
@@ -21093,11 +21093,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L380" s="22">
-        <f>SUM(F380:J380)</f>
+        <f t="shared" si="10"/>
         <v>1.9000000000000004</v>
       </c>
       <c r="M380" s="22">
-        <f>SUM(G380:J380)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
@@ -21136,11 +21136,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L381" s="22">
-        <f>SUM(F381:J381)</f>
+        <f t="shared" si="10"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="M381" s="22">
-        <f>SUM(G381:J381)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
@@ -21179,15 +21179,15 @@
         <v>2</v>
       </c>
       <c r="L382" s="22">
-        <f>SUM(F382:J382)</f>
+        <f t="shared" si="10"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="M382" s="22">
-        <f>SUM(G382:J382)</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>434</v>
       </c>
@@ -21222,15 +21222,15 @@
         <v>2.4</v>
       </c>
       <c r="L383" s="22">
-        <f>SUM(F383:J383)</f>
+        <f t="shared" si="10"/>
         <v>1.9000000000000001</v>
       </c>
       <c r="M383" s="22">
-        <f>SUM(G383:J383)</f>
+        <f t="shared" si="11"/>
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>439</v>
       </c>
@@ -21265,11 +21265,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L384" s="22">
-        <f>SUM(F384:J384)</f>
+        <f t="shared" si="10"/>
         <v>1.9000000000000001</v>
       </c>
       <c r="M384" s="22">
-        <f>SUM(G384:J384)</f>
+        <f t="shared" si="11"/>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -21308,11 +21308,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="L385" s="22">
-        <f>SUM(F385:J385)</f>
+        <f t="shared" si="10"/>
         <v>1.7</v>
       </c>
       <c r="M385" s="22">
-        <f>SUM(G385:J385)</f>
+        <f t="shared" si="11"/>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -21351,11 +21351,11 @@
         <v>2</v>
       </c>
       <c r="L386" s="22">
-        <f>SUM(F386:J386)</f>
+        <f t="shared" ref="L386:L449" si="12">SUM(F386:J386)</f>
         <v>1.7</v>
       </c>
       <c r="M386" s="22">
-        <f>SUM(G386:J386)</f>
+        <f t="shared" ref="M386:M449" si="13">SUM(G386:J386)</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -21394,11 +21394,11 @@
         <v>1.6</v>
       </c>
       <c r="L387" s="22">
-        <f>SUM(F387:J387)</f>
+        <f t="shared" si="12"/>
         <v>1.6</v>
       </c>
       <c r="M387" s="22">
-        <f>SUM(G387:J387)</f>
+        <f t="shared" si="13"/>
         <v>1.4000000000000001</v>
       </c>
     </row>
@@ -21437,11 +21437,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L388" s="22">
-        <f>SUM(F388:J388)</f>
+        <f t="shared" si="12"/>
         <v>1.8000000000000003</v>
       </c>
       <c r="M388" s="22">
-        <f>SUM(G388:J388)</f>
+        <f t="shared" si="13"/>
         <v>1.4</v>
       </c>
     </row>
@@ -21480,11 +21480,11 @@
         <v>2</v>
       </c>
       <c r="L389" s="22">
-        <f>SUM(F389:J389)</f>
+        <f t="shared" si="12"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="M389" s="22">
-        <f>SUM(G389:J389)</f>
+        <f t="shared" si="13"/>
         <v>1.4</v>
       </c>
     </row>
@@ -21523,11 +21523,11 @@
         <v>1.6</v>
       </c>
       <c r="L390" s="22">
-        <f>SUM(F390:J390)</f>
+        <f t="shared" si="12"/>
         <v>1.6999999999999997</v>
       </c>
       <c r="M390" s="22">
-        <f>SUM(G390:J390)</f>
+        <f t="shared" si="13"/>
         <v>1.4</v>
       </c>
     </row>
@@ -21566,11 +21566,11 @@
         <v>2.6</v>
       </c>
       <c r="L391" s="22">
-        <f>SUM(F391:J391)</f>
+        <f t="shared" si="12"/>
         <v>1.8</v>
       </c>
       <c r="M391" s="22">
-        <f>SUM(G391:J391)</f>
+        <f t="shared" si="13"/>
         <v>1.3</v>
       </c>
     </row>
@@ -21609,11 +21609,11 @@
         <v>1.5</v>
       </c>
       <c r="L392" s="22">
-        <f>SUM(F392:J392)</f>
+        <f t="shared" si="12"/>
         <v>1.4</v>
       </c>
       <c r="M392" s="22">
-        <f>SUM(G392:J392)</f>
+        <f t="shared" si="13"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
@@ -21652,11 +21652,11 @@
         <v>2.9</v>
       </c>
       <c r="L393" s="22">
-        <f>SUM(F393:J393)</f>
+        <f t="shared" si="12"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="M393" s="22">
-        <f>SUM(G393:J393)</f>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
     </row>
@@ -21695,15 +21695,15 @@
         <v>2</v>
       </c>
       <c r="L394" s="22">
-        <f>SUM(F394:J394)</f>
+        <f t="shared" si="12"/>
         <v>1.6</v>
       </c>
       <c r="M394" s="22">
-        <f>SUM(G394:J394)</f>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>454</v>
       </c>
@@ -21738,11 +21738,11 @@
         <v>1.9</v>
       </c>
       <c r="L395" s="22">
-        <f>SUM(F395:J395)</f>
+        <f t="shared" si="12"/>
         <v>1.6</v>
       </c>
       <c r="M395" s="22">
-        <f>SUM(G395:J395)</f>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
     </row>
@@ -21781,11 +21781,11 @@
         <v>1.8</v>
       </c>
       <c r="L396" s="22">
-        <f>SUM(F396:J396)</f>
+        <f t="shared" si="12"/>
         <v>1.6</v>
       </c>
       <c r="M396" s="22">
-        <f>SUM(G396:J396)</f>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
     </row>
@@ -21824,11 +21824,11 @@
         <v>1.8</v>
       </c>
       <c r="L397" s="22">
-        <f>SUM(F397:J397)</f>
+        <f t="shared" si="12"/>
         <v>1.5</v>
       </c>
       <c r="M397" s="22">
-        <f>SUM(G397:J397)</f>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
     </row>
@@ -21867,11 +21867,11 @@
         <v>1.7</v>
       </c>
       <c r="L398" s="22">
-        <f>SUM(F398:J398)</f>
+        <f t="shared" si="12"/>
         <v>1.5</v>
       </c>
       <c r="M398" s="22">
-        <f>SUM(G398:J398)</f>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
     </row>
@@ -21910,11 +21910,11 @@
         <v>1.7</v>
       </c>
       <c r="L399" s="22">
-        <f>SUM(F399:J399)</f>
+        <f t="shared" si="12"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="M399" s="22">
-        <f>SUM(G399:J399)</f>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
     </row>
@@ -21953,15 +21953,15 @@
         <v>1.5</v>
       </c>
       <c r="L400" s="22">
-        <f>SUM(F400:J400)</f>
+        <f t="shared" si="12"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="M400" s="22">
-        <f>SUM(G400:J400)</f>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>463</v>
       </c>
@@ -21996,11 +21996,11 @@
         <v>1.7</v>
       </c>
       <c r="L401" s="22">
-        <f>SUM(F401:J401)</f>
+        <f t="shared" si="12"/>
         <v>1.5</v>
       </c>
       <c r="M401" s="22">
-        <f>SUM(G401:J401)</f>
+        <f t="shared" si="13"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -22039,15 +22039,15 @@
         <v>1.8</v>
       </c>
       <c r="L402" s="22">
-        <f>SUM(F402:J402)</f>
+        <f t="shared" si="12"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="M402" s="22">
-        <f>SUM(G402:J402)</f>
+        <f t="shared" si="13"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>456</v>
       </c>
@@ -22082,11 +22082,11 @@
         <v>1.8</v>
       </c>
       <c r="L403" s="22">
-        <f>SUM(F403:J403)</f>
+        <f t="shared" si="12"/>
         <v>1.3</v>
       </c>
       <c r="M403" s="22">
-        <f>SUM(G403:J403)</f>
+        <f t="shared" si="13"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -22125,11 +22125,11 @@
         <v>1.3</v>
       </c>
       <c r="L404" s="22">
-        <f>SUM(F404:J404)</f>
+        <f t="shared" si="12"/>
         <v>1.3</v>
       </c>
       <c r="M404" s="22">
-        <f>SUM(G404:J404)</f>
+        <f t="shared" si="13"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -22168,11 +22168,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L405" s="22">
-        <f>SUM(F405:J405)</f>
+        <f t="shared" si="12"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M405" s="22">
-        <f>SUM(G405:J405)</f>
+        <f t="shared" si="13"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -22211,11 +22211,11 @@
         <v>1.9</v>
       </c>
       <c r="L406" s="22">
-        <f>SUM(F406:J406)</f>
+        <f t="shared" si="12"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="M406" s="22">
-        <f>SUM(G406:J406)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -22254,11 +22254,11 @@
         <v>1.6</v>
       </c>
       <c r="L407" s="22">
-        <f>SUM(F407:J407)</f>
+        <f t="shared" si="12"/>
         <v>1.2999999999999998</v>
       </c>
       <c r="M407" s="22">
-        <f>SUM(G407:J407)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -22297,11 +22297,11 @@
         <v>1.6</v>
       </c>
       <c r="L408" s="22">
-        <f>SUM(F408:J408)</f>
+        <f t="shared" si="12"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="M408" s="22">
-        <f>SUM(G408:J408)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -22340,11 +22340,11 @@
         <v>1.3</v>
       </c>
       <c r="L409" s="22">
-        <f>SUM(F409:J409)</f>
+        <f t="shared" si="12"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M409" s="22">
-        <f>SUM(G409:J409)</f>
+        <f t="shared" si="13"/>
         <v>0.90000000000000013</v>
       </c>
     </row>
@@ -22383,11 +22383,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L410" s="22">
-        <f>SUM(F410:J410)</f>
+        <f t="shared" si="12"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M410" s="22">
-        <f>SUM(G410:J410)</f>
+        <f t="shared" si="13"/>
         <v>0.90000000000000013</v>
       </c>
     </row>
@@ -22426,11 +22426,11 @@
         <v>1</v>
       </c>
       <c r="L411" s="22">
-        <f>SUM(F411:J411)</f>
+        <f t="shared" si="12"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M411" s="22">
-        <f>SUM(G411:J411)</f>
+        <f t="shared" si="13"/>
         <v>0.90000000000000013</v>
       </c>
     </row>
@@ -22469,11 +22469,11 @@
         <v>1.7</v>
       </c>
       <c r="L412" s="22">
-        <f>SUM(F412:J412)</f>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="M412" s="22">
-        <f>SUM(G412:J412)</f>
+        <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -22512,11 +22512,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L413" s="22">
-        <f>SUM(F413:J413)</f>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="M413" s="22">
-        <f>SUM(G413:J413)</f>
+        <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -22555,15 +22555,15 @@
         <v>1.2</v>
       </c>
       <c r="L414" s="22">
-        <f>SUM(F414:J414)</f>
+        <f t="shared" si="12"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="M414" s="22">
-        <f>SUM(G414:J414)</f>
+        <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>459</v>
       </c>
@@ -22598,11 +22598,11 @@
         <v>1.8</v>
       </c>
       <c r="L415" s="22">
-        <f>SUM(F415:J415)</f>
+        <f t="shared" si="12"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="M415" s="22">
-        <f>SUM(G415:J415)</f>
+        <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -22641,11 +22641,11 @@
         <v>1.5</v>
       </c>
       <c r="L416" s="22">
-        <f>SUM(F416:J416)</f>
+        <f t="shared" si="12"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="M416" s="22">
-        <f>SUM(G416:J416)</f>
+        <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -22684,11 +22684,11 @@
         <v>1.4</v>
       </c>
       <c r="L417" s="22">
-        <f>SUM(F417:J417)</f>
+        <f t="shared" si="12"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="M417" s="22">
-        <f>SUM(G417:J417)</f>
+        <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -22727,11 +22727,11 @@
         <v>1.3</v>
       </c>
       <c r="L418" s="22">
-        <f>SUM(F418:J418)</f>
+        <f t="shared" si="12"/>
         <v>1.0999999999999999</v>
       </c>
       <c r="M418" s="22">
-        <f>SUM(G418:J418)</f>
+        <f t="shared" si="13"/>
         <v>0.89999999999999991</v>
       </c>
     </row>
@@ -22770,11 +22770,11 @@
         <v>1.6</v>
       </c>
       <c r="L419" s="22">
-        <f>SUM(F419:J419)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M419" s="22">
-        <f>SUM(G419:J419)</f>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
     </row>
@@ -22813,11 +22813,11 @@
         <v>1.6</v>
       </c>
       <c r="L420" s="22">
-        <f>SUM(F420:J420)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M420" s="22">
-        <f>SUM(G420:J420)</f>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
     </row>
@@ -22856,11 +22856,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L421" s="22">
-        <f>SUM(F421:J421)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M421" s="22">
-        <f>SUM(G421:J421)</f>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
     </row>
@@ -22899,11 +22899,11 @@
         <v>1</v>
       </c>
       <c r="L422" s="22">
-        <f>SUM(F422:J422)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M422" s="22">
-        <f>SUM(G422:J422)</f>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
     </row>
@@ -22942,11 +22942,11 @@
         <v>1</v>
       </c>
       <c r="L423" s="22">
-        <f>SUM(F423:J423)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M423" s="22">
-        <f>SUM(G423:J423)</f>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
     </row>
@@ -22985,11 +22985,11 @@
         <v>1</v>
       </c>
       <c r="L424" s="22">
-        <f>SUM(F424:J424)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M424" s="22">
-        <f>SUM(G424:J424)</f>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
     </row>
@@ -23028,11 +23028,11 @@
         <v>0.9</v>
       </c>
       <c r="L425" s="22">
-        <f>SUM(F425:J425)</f>
+        <f t="shared" si="12"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="M425" s="22">
-        <f>SUM(G425:J425)</f>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
     </row>
@@ -23071,11 +23071,11 @@
         <v>0.9</v>
       </c>
       <c r="L426" s="22">
-        <f>SUM(F426:J426)</f>
+        <f t="shared" si="12"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="M426" s="22">
-        <f>SUM(G426:J426)</f>
+        <f t="shared" si="13"/>
         <v>0.8</v>
       </c>
     </row>
@@ -23114,15 +23114,15 @@
         <v>1.7</v>
       </c>
       <c r="L427" s="22">
-        <f>SUM(F427:J427)</f>
+        <f t="shared" si="12"/>
         <v>1.2</v>
       </c>
       <c r="M427" s="22">
-        <f>SUM(G427:J427)</f>
+        <f t="shared" si="13"/>
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>476</v>
       </c>
@@ -23157,11 +23157,11 @@
         <v>1.2</v>
       </c>
       <c r="L428" s="22">
-        <f>SUM(F428:J428)</f>
+        <f t="shared" si="12"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="M428" s="22">
-        <f>SUM(G428:J428)</f>
+        <f t="shared" si="13"/>
         <v>0.70000000000000007</v>
       </c>
     </row>
@@ -23200,11 +23200,11 @@
         <v>1</v>
       </c>
       <c r="L429" s="22">
-        <f>SUM(F429:J429)</f>
+        <f t="shared" si="12"/>
         <v>0.9</v>
       </c>
       <c r="M429" s="22">
-        <f>SUM(G429:J429)</f>
+        <f t="shared" si="13"/>
         <v>0.70000000000000007</v>
       </c>
     </row>
@@ -23243,15 +23243,15 @@
         <v>1</v>
       </c>
       <c r="L430" s="22">
-        <f>SUM(F430:J430)</f>
+        <f t="shared" si="12"/>
         <v>0.90000000000000013</v>
       </c>
       <c r="M430" s="22">
-        <f>SUM(G430:J430)</f>
+        <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>493</v>
       </c>
@@ -23286,15 +23286,15 @@
         <v>1</v>
       </c>
       <c r="L431" s="22">
-        <f>SUM(F431:J431)</f>
+        <f t="shared" si="12"/>
         <v>0.90000000000000013</v>
       </c>
       <c r="M431" s="22">
-        <f>SUM(G431:J431)</f>
+        <f t="shared" si="13"/>
         <v>0.7</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>499</v>
       </c>
@@ -23329,15 +23329,15 @@
         <v>0.8</v>
       </c>
       <c r="L432" s="22">
-        <f>SUM(F432:J432)</f>
+        <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
       <c r="M432" s="22">
-        <f>SUM(G432:J432)</f>
+        <f t="shared" si="13"/>
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>490</v>
       </c>
@@ -23372,11 +23372,11 @@
         <v>1</v>
       </c>
       <c r="L433" s="22">
-        <f>SUM(F433:J433)</f>
+        <f t="shared" si="12"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="M433" s="22">
-        <f>SUM(G433:J433)</f>
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
     </row>
@@ -23415,11 +23415,11 @@
         <v>0.9</v>
       </c>
       <c r="L434" s="22">
-        <f>SUM(F434:J434)</f>
+        <f t="shared" si="12"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="M434" s="22">
-        <f>SUM(G434:J434)</f>
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
     </row>
@@ -23458,11 +23458,11 @@
         <v>0.7</v>
       </c>
       <c r="L435" s="22">
-        <f>SUM(F435:J435)</f>
+        <f t="shared" si="12"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="M435" s="22">
-        <f>SUM(G435:J435)</f>
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
     </row>
@@ -23501,11 +23501,11 @@
         <v>1</v>
       </c>
       <c r="L436" s="22">
-        <f>SUM(F436:J436)</f>
+        <f t="shared" si="12"/>
         <v>0.7</v>
       </c>
       <c r="M436" s="22">
-        <f>SUM(G436:J436)</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
     </row>
@@ -23544,11 +23544,11 @@
         <v>0.8</v>
       </c>
       <c r="L437" s="22">
-        <f>SUM(F437:J437)</f>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="M437" s="22">
-        <f>SUM(G437:J437)</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
     </row>
@@ -23587,11 +23587,11 @@
         <v>0.7</v>
       </c>
       <c r="L438" s="22">
-        <f>SUM(F438:J438)</f>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="M438" s="22">
-        <f>SUM(G438:J438)</f>
+        <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
     </row>
@@ -23630,11 +23630,11 @@
         <v>1</v>
       </c>
       <c r="L439" s="22">
-        <f>SUM(F439:J439)</f>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="M439" s="22">
-        <f>SUM(G439:J439)</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
@@ -23673,11 +23673,11 @@
         <v>0.9</v>
       </c>
       <c r="L440" s="22">
-        <f>SUM(F440:J440)</f>
+        <f t="shared" si="12"/>
         <v>0.6</v>
       </c>
       <c r="M440" s="22">
-        <f>SUM(G440:J440)</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
@@ -23716,15 +23716,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L441" s="22">
-        <f>SUM(F441:J441)</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="M441" s="22">
-        <f>SUM(G441:J441)</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>278</v>
       </c>
@@ -23759,11 +23759,11 @@
         <v>1</v>
       </c>
       <c r="L442" s="22">
-        <f>SUM(F442:J442)</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="M442" s="22">
-        <f>SUM(G442:J442)</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
@@ -23802,11 +23802,11 @@
         <v>0.9</v>
       </c>
       <c r="L443" s="22">
-        <f>SUM(F443:J443)</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="M443" s="22">
-        <f>SUM(G443:J443)</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
@@ -23845,11 +23845,11 @@
         <v>0.8</v>
       </c>
       <c r="L444" s="22">
-        <f>SUM(F444:J444)</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="M444" s="22">
-        <f>SUM(G444:J444)</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
@@ -23888,11 +23888,11 @@
         <v>0.8</v>
       </c>
       <c r="L445" s="22">
-        <f>SUM(F445:J445)</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="M445" s="22">
-        <f>SUM(G445:J445)</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
@@ -23931,11 +23931,11 @@
         <v>0.8</v>
       </c>
       <c r="L446" s="22">
-        <f>SUM(F446:J446)</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="M446" s="22">
-        <f>SUM(G446:J446)</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
@@ -23974,11 +23974,11 @@
         <v>0.8</v>
       </c>
       <c r="L447" s="22">
-        <f>SUM(F447:J447)</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="M447" s="22">
-        <f>SUM(G447:J447)</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24017,11 +24017,11 @@
         <v>0.8</v>
       </c>
       <c r="L448" s="22">
-        <f>SUM(F448:J448)</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="M448" s="22">
-        <f>SUM(G448:J448)</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24060,11 +24060,11 @@
         <v>0.8</v>
       </c>
       <c r="L449" s="22">
-        <f>SUM(F449:J449)</f>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="M449" s="22">
-        <f>SUM(G449:J449)</f>
+        <f t="shared" si="13"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24103,15 +24103,15 @@
         <v>0.8</v>
       </c>
       <c r="L450" s="22">
-        <f>SUM(F450:J450)</f>
+        <f t="shared" ref="L450:L468" si="14">SUM(F450:J450)</f>
         <v>0.5</v>
       </c>
       <c r="M450" s="22">
-        <f>SUM(G450:J450)</f>
+        <f t="shared" ref="M450:M468" si="15">SUM(G450:J450)</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>507</v>
       </c>
@@ -24146,11 +24146,11 @@
         <v>0.7</v>
       </c>
       <c r="L451" s="22">
-        <f>SUM(F451:J451)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M451" s="22">
-        <f>SUM(G451:J451)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24189,11 +24189,11 @@
         <v>0.7</v>
       </c>
       <c r="L452" s="22">
-        <f>SUM(F452:J452)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M452" s="22">
-        <f>SUM(G452:J452)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24232,11 +24232,11 @@
         <v>0.7</v>
       </c>
       <c r="L453" s="22">
-        <f>SUM(F453:J453)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M453" s="22">
-        <f>SUM(G453:J453)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24275,11 +24275,11 @@
         <v>0.7</v>
       </c>
       <c r="L454" s="22">
-        <f>SUM(F454:J454)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M454" s="22">
-        <f>SUM(G454:J454)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24318,11 +24318,11 @@
         <v>0.7</v>
       </c>
       <c r="L455" s="22">
-        <f>SUM(F455:J455)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M455" s="22">
-        <f>SUM(G455:J455)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24361,11 +24361,11 @@
         <v>0.7</v>
       </c>
       <c r="L456" s="22">
-        <f>SUM(F456:J456)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M456" s="22">
-        <f>SUM(G456:J456)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24404,11 +24404,11 @@
         <v>0.7</v>
       </c>
       <c r="L457" s="22">
-        <f>SUM(F457:J457)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M457" s="22">
-        <f>SUM(G457:J457)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24447,11 +24447,11 @@
         <v>0.7</v>
       </c>
       <c r="L458" s="22">
-        <f>SUM(F458:J458)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M458" s="22">
-        <f>SUM(G458:J458)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24490,11 +24490,11 @@
         <v>0.7</v>
       </c>
       <c r="L459" s="22">
-        <f>SUM(F459:J459)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M459" s="22">
-        <f>SUM(G459:J459)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24533,11 +24533,11 @@
         <v>0.7</v>
       </c>
       <c r="L460" s="22">
-        <f>SUM(F460:J460)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M460" s="22">
-        <f>SUM(G460:J460)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24576,11 +24576,11 @@
         <v>0.7</v>
       </c>
       <c r="L461" s="22">
-        <f>SUM(F461:J461)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M461" s="22">
-        <f>SUM(G461:J461)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24619,11 +24619,11 @@
         <v>0.6</v>
       </c>
       <c r="L462" s="22">
-        <f>SUM(F462:J462)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M462" s="22">
-        <f>SUM(G462:J462)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24662,11 +24662,11 @@
         <v>0.6</v>
       </c>
       <c r="L463" s="22">
-        <f>SUM(F463:J463)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M463" s="22">
-        <f>SUM(G463:J463)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24705,11 +24705,11 @@
         <v>0.6</v>
       </c>
       <c r="L464" s="22">
-        <f>SUM(F464:J464)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M464" s="22">
-        <f>SUM(G464:J464)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24748,11 +24748,11 @@
         <v>0.5</v>
       </c>
       <c r="L465" s="22">
-        <f>SUM(F465:J465)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="M465" s="22">
-        <f>SUM(G465:J465)</f>
+        <f t="shared" si="15"/>
         <v>0.4</v>
       </c>
     </row>
@@ -24791,11 +24791,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L466" s="22">
-        <f>SUM(F466:J466)</f>
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
       <c r="M466" s="22">
-        <f>SUM(G466:J466)</f>
+        <f t="shared" si="15"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -24834,11 +24834,11 @@
         <v>0.6</v>
       </c>
       <c r="L467" s="22">
-        <f>SUM(F467:J467)</f>
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
       <c r="M467" s="22">
-        <f>SUM(G467:J467)</f>
+        <f t="shared" si="15"/>
         <v>0.30000000000000004</v>
       </c>
     </row>
@@ -24877,11 +24877,11 @@
         <v>1</v>
       </c>
       <c r="L468" s="22">
-        <f>SUM(F468:J468)</f>
+        <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="M468" s="22">
-        <f>SUM(G468:J468)</f>
+        <f t="shared" si="15"/>
         <v>0.2</v>
       </c>
     </row>
@@ -24891,6 +24891,11 @@
       <filters>
         <filter val="DEF"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="lessThanOrEqual" val="4.3"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:M468">
@@ -24906,8 +24911,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L447"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="L167" sqref="L167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40351,7 +40356,7 @@
         <v>0.13</v>
       </c>
       <c r="K386" s="22">
-        <f t="shared" ref="K386:K449" si="12">SUM(E386:J386)</f>
+        <f t="shared" ref="K386:K447" si="12">SUM(E386:J386)</f>
         <v>1.1400000000000001</v>
       </c>
       <c r="L386" s="22">

--- a/Team.xlsx
+++ b/Team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPLJava\EPL Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821CA3AF-AB12-41C0-9330-0B7521F1F5FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5459BE03-0CE3-4069-9C40-39A7F4E2E35B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="73">
   <si>
     <t>REMAINING</t>
   </si>
@@ -243,7 +243,10 @@
     <t>Stephens</t>
   </si>
   <si>
-    <t>Alternate Plan</t>
+    <t>@tot</t>
+  </si>
+  <si>
+    <t>@mci</t>
   </si>
 </sst>
 </file>
@@ -303,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +355,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -629,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -738,6 +753,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,8 +812,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
       <color rgb="FF99CCFF"/>
-      <color rgb="FF99FF99"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFFFF66"/>
       <color rgb="FFFF9966"/>
@@ -1134,8 +1157,8 @@
   </sheetPr>
   <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1143,34 +1166,35 @@
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9.109375" style="3"/>
   </cols>
@@ -1406,11 +1430,11 @@
         <v>4.5</v>
       </c>
       <c r="E7" s="10">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="F7" s="10">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G7" s="21">
         <v>-1</v>
@@ -1474,7 +1498,7 @@
         <v>12.3</v>
       </c>
       <c r="E9" s="10">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
@@ -1548,11 +1572,11 @@
         <v>12.3</v>
       </c>
       <c r="E11" s="10">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="G11" s="28">
         <v>0.49</v>
@@ -1694,11 +1718,11 @@
         <v>5.9</v>
       </c>
       <c r="E15" s="10">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="G15" s="28">
         <v>0.3</v>
@@ -1730,11 +1754,11 @@
         <v>9.4</v>
       </c>
       <c r="E16" s="10">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>9.7000000000000011</v>
+        <v>9.6</v>
       </c>
       <c r="G16" s="21">
         <v>-0.03</v>
@@ -1753,11 +1777,11 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="47"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="10">
         <f>SUM(D2:D16)</f>
         <v>100.10000000000002</v>
@@ -1766,10 +1790,10 @@
         <f>SUM(E2:E16)+D19</f>
         <v>104.29999999999998</v>
       </c>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
       <c r="N17" s="4"/>
       <c r="O17" s="17"/>
       <c r="Q17" s="4"/>
@@ -1778,39 +1802,39 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="10">
         <v>0.2</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
       <c r="N18" s="4"/>
       <c r="R18" s="16"/>
       <c r="V18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="12">
         <f>100-D17+D18</f>
         <v>9.9999999999977274E-2</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3" t="s">
         <v>13</v>
@@ -1826,15 +1850,15 @@
       <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="24"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -1962,15 +1986,15 @@
         <v>69</v>
       </c>
       <c r="E23" s="23">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="F23" s="23">
         <f t="shared" si="1"/>
-        <v>-1.0999999999999996</v>
+        <v>-1</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" ref="G23" si="2">F23+G22</f>
-        <v>-0.10000000000002296</v>
+        <v>-2.3314683517128287E-14</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="23" t="s">
@@ -2021,6 +2045,16 @@
       <c r="AB23" s="37" t="s">
         <v>66</v>
       </c>
+      <c r="AD23" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG23" s="23"/>
     </row>
     <row r="24" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
@@ -2036,17 +2070,17 @@
       </c>
       <c r="G24" s="25">
         <f>F24+G23</f>
-        <v>-0.10000000000002296</v>
+        <v>-2.3314683517128287E-14</v>
       </c>
       <c r="I24" s="22"/>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="23" t="s">
         <v>5</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="23" t="s">
@@ -2073,10 +2107,10 @@
         <v>5</v>
       </c>
       <c r="W24" s="23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X24" s="31" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>5</v>
@@ -2087,6 +2121,16 @@
       <c r="AB24" s="37" t="s">
         <v>26</v>
       </c>
+      <c r="AD24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF24" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG24" s="23"/>
     </row>
     <row r="25" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
@@ -2102,17 +2146,17 @@
       </c>
       <c r="G25" s="25">
         <f t="shared" ref="G25:G26" si="3">F25+G24</f>
-        <v>-0.10000000000002296</v>
+        <v>-2.3314683517128287E-14</v>
       </c>
       <c r="I25" s="22"/>
-      <c r="J25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>33</v>
+      <c r="J25" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="23" t="s">
@@ -2153,6 +2197,16 @@
       <c r="AB25" s="37" t="s">
         <v>60</v>
       </c>
+      <c r="AD25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF25" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG25" s="23"/>
     </row>
     <row r="26" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
@@ -2166,17 +2220,17 @@
       </c>
       <c r="G26" s="25">
         <f t="shared" si="3"/>
-        <v>-0.10000000000002296</v>
+        <v>-2.3314683517128287E-14</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="33" t="s">
         <v>5</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="23" t="s">
@@ -2217,6 +2271,16 @@
       <c r="AB26" s="37" t="s">
         <v>24</v>
       </c>
+      <c r="AD26" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF26" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG26" s="23"/>
     </row>
     <row r="27" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
@@ -2227,14 +2291,14 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="I27" s="22"/>
-      <c r="J27" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>35</v>
+      <c r="J27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="M27" s="22"/>
       <c r="N27" s="23" t="s">
@@ -2275,6 +2339,16 @@
       <c r="AB27" s="37" t="s">
         <v>66</v>
       </c>
+      <c r="AD27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF27" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG27" s="23"/>
     </row>
     <row r="28" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
@@ -2333,6 +2407,16 @@
       <c r="AB28" s="37" t="s">
         <v>24</v>
       </c>
+      <c r="AD28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE28" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF28" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG28" s="23"/>
     </row>
     <row r="29" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
@@ -2343,20 +2427,20 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="33" t="s">
+      <c r="J29" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="46" t="s">
         <v>68</v>
       </c>
       <c r="L29" s="31" t="s">
         <v>42</v>
       </c>
       <c r="M29" s="22"/>
-      <c r="N29" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="33" t="s">
+      <c r="N29" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="44" t="s">
         <v>68</v>
       </c>
       <c r="P29" s="31" t="s">
@@ -2391,13 +2475,18 @@
       <c r="AB29" s="37" t="s">
         <v>60</v>
       </c>
+      <c r="AD29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE29" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF29" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG29" s="23"/>
     </row>
     <row r="30" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
       <c r="I30" s="22"/>
       <c r="J30" s="33" t="s">
         <v>4</v>
@@ -2447,17 +2536,18 @@
       <c r="AB30" s="37" t="s">
         <v>60</v>
       </c>
+      <c r="AD30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE30" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF30" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG30" s="23"/>
     </row>
     <row r="31" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
       <c r="I31" s="22"/>
       <c r="J31" s="33" t="s">
         <v>3</v>
@@ -2507,27 +2597,18 @@
       <c r="AB31" s="30" t="s">
         <v>20</v>
       </c>
+      <c r="AD31" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE31" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF31" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG31" s="23"/>
     </row>
     <row r="32" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
-        <v>26</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="23">
-        <v>7.4</v>
-      </c>
-      <c r="F32" s="23">
-        <f t="shared" ref="F32:F36" si="4">E32-C32</f>
-        <v>7.4</v>
-      </c>
-      <c r="G32" s="25">
-        <f>D$19+F32</f>
-        <v>7.4999999999999778</v>
-      </c>
       <c r="I32" s="22"/>
       <c r="J32" s="33" t="s">
         <v>3</v>
@@ -2577,31 +2658,18 @@
       <c r="AB32" s="37" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
-        <v>26</v>
-      </c>
-      <c r="B33" s="23" t="s">
+      <c r="AD32" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE32" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="23">
-        <v>7</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="23">
-        <v>5.9</v>
-      </c>
-      <c r="F33" s="23">
-        <f t="shared" si="4"/>
-        <v>-1.0999999999999996</v>
-      </c>
-      <c r="G33" s="25">
-        <f t="shared" ref="G33" si="5">F33+G32</f>
-        <v>6.3999999999999782</v>
-      </c>
+      <c r="AF32" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG32" s="23"/>
+    </row>
+    <row r="33" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J33" s="33" t="s">
         <v>3</v>
       </c>
@@ -2650,23 +2718,18 @@
       <c r="AB33" s="37" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
-        <v>26</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="25">
-        <f>F34+G33</f>
-        <v>6.3999999999999782</v>
-      </c>
+      <c r="AD33" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE33" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF33" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG33" s="23"/>
+    </row>
+    <row r="34" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="34"/>
@@ -2683,23 +2746,12 @@
       <c r="W34" s="23"/>
       <c r="X34" s="36"/>
       <c r="AB34" s="41"/>
-    </row>
-    <row r="35" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
-        <v>28</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="25">
-        <f t="shared" ref="G35:G36" si="6">F35+G34</f>
-        <v>6.3999999999999782</v>
-      </c>
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="23"/>
+    </row>
+    <row r="35" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J35" s="23" t="s">
         <v>5</v>
       </c>
@@ -2740,13 +2792,13 @@
         <v>5</v>
       </c>
       <c r="W35" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="X35" s="31" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="X35" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="Y35" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>5</v>
@@ -2760,29 +2812,28 @@
       <c r="AC35" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="25">
-        <f t="shared" si="6"/>
-        <v>6.3999999999999782</v>
-      </c>
-      <c r="J36" s="23" t="s">
-        <v>4</v>
+      <c r="AD35" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF35" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG35" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="29" t="s">
+        <v>5</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" s="32" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="M36" s="23">
         <v>2</v>
@@ -2821,7 +2872,7 @@
         <v>44</v>
       </c>
       <c r="Y36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z36" s="3" t="s">
         <v>4</v>
@@ -2835,8 +2886,20 @@
       <c r="AC36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD36" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE36" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF36" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG36" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J37" s="33" t="s">
         <v>4</v>
       </c>
@@ -2883,7 +2946,7 @@
         <v>25</v>
       </c>
       <c r="Y37" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="3" t="s">
         <v>3</v>
@@ -2897,8 +2960,20 @@
       <c r="AC37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD37" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE37" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF37" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG37" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J38" s="23" t="s">
         <v>6</v>
       </c>
@@ -2947,13 +3022,22 @@
       <c r="AB38" s="41" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD38" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE38" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF38" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG38" s="23"/>
+    </row>
+    <row r="42" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AI42" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A31:G31"/>
+  <mergeCells count="6">
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C17:C19"/>

--- a/Team.xlsx
+++ b/Team.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPLJava\EPL Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcxb115\SourceCode\EPLExcels\FPLExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5459BE03-0CE3-4069-9C40-39A7F4E2E35B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183C1BC3-9079-49A9-8DC9-D95152FCB36D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="77">
   <si>
     <t>REMAINING</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Cantwell</t>
   </si>
   <si>
-    <t>Lundstrum</t>
-  </si>
-  <si>
     <t>Söyüncü</t>
   </si>
   <si>
@@ -201,52 +198,67 @@
     <t>McCarthy</t>
   </si>
   <si>
+    <t>WAT</t>
+  </si>
+  <si>
+    <t>Martial</t>
+  </si>
+  <si>
+    <t>BOU</t>
+  </si>
+  <si>
+    <t>@nor</t>
+  </si>
+  <si>
+    <t>@wol</t>
+  </si>
+  <si>
+    <t>Ings</t>
+  </si>
+  <si>
+    <t>Sidibe</t>
+  </si>
+  <si>
+    <t>BRI</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Calvert-Lewin</t>
+  </si>
+  <si>
+    <t>DCL</t>
+  </si>
+  <si>
+    <t>@tot</t>
+  </si>
+  <si>
+    <t>De Bruyne</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>Lascelles</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>KDB</t>
+  </si>
+  <si>
+    <t>@lei</t>
+  </si>
+  <si>
+    <t>@mun</t>
+  </si>
+  <si>
     <t>@cry</t>
-  </si>
-  <si>
-    <t>WAT</t>
-  </si>
-  <si>
-    <t>Martial</t>
-  </si>
-  <si>
-    <t>BOU</t>
-  </si>
-  <si>
-    <t>@nor</t>
-  </si>
-  <si>
-    <t>@wol</t>
-  </si>
-  <si>
-    <t>Ings</t>
-  </si>
-  <si>
-    <t>Sidibe</t>
-  </si>
-  <si>
-    <t>BRI</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>Calvert-Lewin</t>
-  </si>
-  <si>
-    <t>Mane</t>
-  </si>
-  <si>
-    <t>DCL</t>
-  </si>
-  <si>
-    <t>Stephens</t>
-  </si>
-  <si>
-    <t>@tot</t>
-  </si>
-  <si>
-    <t>@mci</t>
   </si>
 </sst>
 </file>
@@ -306,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +379,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -753,12 +771,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -812,10 +834,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFFFFF66"/>
       <color rgb="FF99FF99"/>
-      <color rgb="FF99CCFF"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFFFFF66"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFB2B2B2"/>
     </mruColors>
@@ -1155,51 +1177,51 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AI42"/>
+  <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.109375" style="3"/>
+    <col min="7" max="7" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1235,15 +1257,15 @@
       <c r="V1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="10">
         <v>4.3</v>
@@ -1275,7 +1297,7 @@
       <c r="V2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1311,15 +1333,15 @@
       <c r="V3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="10">
         <v>5.3</v>
@@ -1347,12 +1369,12 @@
       <c r="V4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>16</v>
@@ -1383,25 +1405,25 @@
       <c r="V5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D6" s="10">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="E6" s="10">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="F6" s="10">
         <f t="shared" si="0"/>
-        <v>4.6000000000000005</v>
+        <v>5.3</v>
       </c>
       <c r="G6" s="28">
         <v>-0.24</v>
@@ -1416,12 +1438,12 @@
       <c r="V6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -1450,7 +1472,7 @@
       <c r="Y7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1484,7 +1506,7 @@
       <c r="Y8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1492,17 +1514,17 @@
         <v>68</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="10">
-        <v>12.3</v>
+        <v>10.7</v>
       </c>
       <c r="E9" s="10">
-        <v>12.3</v>
+        <v>10.7</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
-        <v>12.3</v>
+        <v>10.7</v>
       </c>
       <c r="G9" s="21">
         <v>0.86</v>
@@ -1521,12 +1543,12 @@
       <c r="Y9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>23</v>
@@ -1558,12 +1580,12 @@
       <c r="Y10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>16</v>
@@ -1595,12 +1617,12 @@
       <c r="Y11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -1632,7 +1654,7 @@
       <c r="Y12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -1669,12 +1691,12 @@
       <c r="Y13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>22</v>
@@ -1704,15 +1726,15 @@
       <c r="R14" s="16"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="10">
         <v>5.9</v>
@@ -1740,12 +1762,12 @@
       <c r="V15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>25</v>
@@ -1776,7 +1798,7 @@
       <c r="V16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54" t="s">
         <v>2</v>
       </c>
@@ -1784,11 +1806,11 @@
       <c r="C17" s="51"/>
       <c r="D17" s="10">
         <f>SUM(D2:D16)</f>
-        <v>100.10000000000002</v>
+        <v>99.600000000000023</v>
       </c>
       <c r="E17" s="10">
         <f>SUM(E2:E16)+D19</f>
-        <v>104.29999999999998</v>
+        <v>103.79999999999997</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
@@ -1801,14 +1823,14 @@
       <c r="V17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="55"/>
       <c r="C18" s="52"/>
       <c r="D18" s="10">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="58"/>
@@ -1820,7 +1842,7 @@
       <c r="V18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1850,7 @@
       <c r="C19" s="53"/>
       <c r="D19" s="12">
         <f>100-D17+D18</f>
-        <v>9.9999999999977274E-2</v>
+        <v>0.99999999999997724</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="60"/>
@@ -1846,10 +1868,10 @@
       <c r="V19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
         <v>14</v>
       </c>
@@ -1904,29 +1926,29 @@
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
     </row>
-    <row r="22" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>26</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C22" s="23">
-        <v>4.4000000000000004</v>
+        <v>7</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" s="23">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="F22" s="23">
         <f t="shared" ref="F22:F26" si="1">E22-C22</f>
-        <v>0.89999999999999947</v>
+        <v>-1</v>
       </c>
       <c r="G22" s="25">
         <f>D$19+F22</f>
-        <v>0.99999999999997669</v>
+        <v>-2.2759572004815709E-14</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="23" t="str">
@@ -1972,29 +1994,29 @@
       <c r="AF22" s="26"/>
       <c r="AG22" s="24"/>
     </row>
-    <row r="23" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C23" s="23">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E23" s="23">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="F23" s="23">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>1.0999999999999996</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" ref="G23" si="2">F23+G22</f>
-        <v>-2.3314683517128287E-14</v>
+        <v>1.099999999999977</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="23" t="s">
@@ -2004,14 +2026,14 @@
         <v>31</v>
       </c>
       <c r="L23" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P23" s="37" t="s">
         <v>21</v>
@@ -2024,7 +2046,7 @@
         <v>31</v>
       </c>
       <c r="T23" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U23" s="23"/>
       <c r="V23" s="23" t="s">
@@ -2034,53 +2056,61 @@
         <v>31</v>
       </c>
       <c r="X23" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB23" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AD23" s="23" t="s">
         <v>6</v>
       </c>
       <c r="AE23" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF23" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG23" s="23"/>
     </row>
-    <row r="24" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
-        <v>26</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="23">
+        <v>7.6</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="23">
+        <v>5.9</v>
+      </c>
       <c r="F24" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1.6999999999999993</v>
       </c>
       <c r="G24" s="25">
         <f>F24+G23</f>
-        <v>-2.3314683517128287E-14</v>
+        <v>-0.60000000000002229</v>
       </c>
       <c r="I24" s="22"/>
-      <c r="J24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>33</v>
+      <c r="J24" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="23" t="s">
@@ -2090,36 +2120,36 @@
         <v>30</v>
       </c>
       <c r="P24" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="23"/>
       <c r="R24" s="23" t="s">
         <v>5</v>
       </c>
       <c r="S24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="U24" s="23"/>
+      <c r="V24" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="X24" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="X24" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="AB24" s="37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD24" s="23" t="s">
         <v>5</v>
@@ -2128,87 +2158,95 @@
         <v>33</v>
       </c>
       <c r="AF24" s="31" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AG24" s="23"/>
     </row>
-    <row r="25" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
-        <v>28</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="23">
+        <v>3.9</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="23">
+        <v>4.5</v>
+      </c>
       <c r="F25" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" ref="G25:G26" si="3">F25+G24</f>
-        <v>-2.3314683517128287E-14</v>
+        <v>-2.2204460492503131E-14</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="33" t="s">
         <v>5</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M25" s="22"/>
-      <c r="N25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O25" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="37" t="s">
-        <v>60</v>
+      <c r="N25" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="Q25" s="23"/>
       <c r="R25" s="23" t="s">
         <v>5</v>
       </c>
       <c r="S25" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T25" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U25" s="23"/>
       <c r="V25" s="23" t="s">
         <v>5</v>
       </c>
       <c r="W25" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X25" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB25" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AD25" s="23" t="s">
         <v>5</v>
       </c>
       <c r="AE25" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF25" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF25" s="46" t="s">
         <v>29</v>
       </c>
       <c r="AG25" s="23"/>
     </row>
-    <row r="26" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -2220,37 +2258,37 @@
       </c>
       <c r="G26" s="25">
         <f t="shared" si="3"/>
-        <v>-2.3314683517128287E-14</v>
+        <v>-2.2204460492503131E-14</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="33" t="s">
         <v>5</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="23" t="s">
         <v>5</v>
       </c>
       <c r="O26" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q26" s="23"/>
-      <c r="R26" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="35" t="s">
-        <v>70</v>
+      <c r="R26" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="T26" s="37" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="U26" s="23"/>
       <c r="V26" s="23" t="s">
@@ -2260,55 +2298,61 @@
         <v>30</v>
       </c>
       <c r="X26" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="Z26" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="AB26" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD26" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE26" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF26" s="31" t="s">
-        <v>35</v>
+        <v>58</v>
+      </c>
+      <c r="AD26" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF26" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="AG26" s="23"/>
     </row>
-    <row r="27" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="F27" s="23">
+        <f t="shared" ref="F27" si="4">E27-C27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" ref="G27" si="5">F27+G26</f>
+        <v>-2.2204460492503131E-14</v>
+      </c>
       <c r="I27" s="22"/>
       <c r="J27" s="23" t="s">
         <v>4</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M27" s="22"/>
-      <c r="N27" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="36" t="s">
+      <c r="N27" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="33" t="s">
         <v>62</v>
+      </c>
+      <c r="P27" s="37" t="s">
+        <v>48</v>
       </c>
       <c r="Q27" s="23"/>
       <c r="R27" s="33" t="s">
@@ -2318,26 +2362,26 @@
         <v>32</v>
       </c>
       <c r="T27" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U27" s="23"/>
       <c r="V27" s="23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W27" s="23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="X27" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z27" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="35" t="s">
-        <v>70</v>
+        <v>59</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="AB27" s="37" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="AD27" s="23" t="s">
         <v>4</v>
@@ -2346,11 +2390,11 @@
         <v>32</v>
       </c>
       <c r="AF27" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG27" s="23"/>
     </row>
-    <row r="28" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -2363,62 +2407,62 @@
         <v>4</v>
       </c>
       <c r="K28" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="42" t="s">
         <v>4</v>
       </c>
       <c r="O28" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P28" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q28" s="23"/>
       <c r="R28" s="42" t="s">
         <v>4</v>
       </c>
       <c r="S28" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T28" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="X28" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z28" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="U28" s="23"/>
-      <c r="V28" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="W28" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="X28" s="31" t="s">
+      <c r="AB28" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE28" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Z28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB28" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD28" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE28" s="23" t="s">
-        <v>36</v>
-      </c>
       <c r="AF28" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG28" s="23"/>
     </row>
-    <row r="29" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -2427,102 +2471,102 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>42</v>
+      <c r="J29" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="M29" s="22"/>
-      <c r="N29" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="P29" s="31" t="s">
-        <v>61</v>
+      <c r="N29" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="37" t="s">
+        <v>50</v>
       </c>
       <c r="Q29" s="23"/>
       <c r="R29" s="33" t="s">
         <v>4</v>
       </c>
       <c r="S29" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="T29" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="T29" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="U29" s="23"/>
+      <c r="V29" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="U29" s="23"/>
-      <c r="V29" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="W29" s="33" t="s">
-        <v>68</v>
-      </c>
       <c r="X29" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z29" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA29" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB29" s="37" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="Z29" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB29" s="32" t="s">
+        <v>75</v>
       </c>
       <c r="AD29" s="23" t="s">
         <v>4</v>
       </c>
       <c r="AE29" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF29" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF29" s="45" t="s">
         <v>29</v>
       </c>
       <c r="AG29" s="23"/>
     </row>
-    <row r="30" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="22"/>
       <c r="J30" s="33" t="s">
         <v>4</v>
       </c>
       <c r="K30" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L30" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="33" t="s">
         <v>4</v>
       </c>
       <c r="O30" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q30" s="23"/>
       <c r="R30" s="33" t="s">
         <v>4</v>
       </c>
       <c r="S30" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T30" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U30" s="23"/>
       <c r="V30" s="33" t="s">
         <v>4</v>
       </c>
       <c r="W30" s="33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X30" s="36" t="s">
         <v>29</v>
@@ -2531,39 +2575,39 @@
         <v>4</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB30" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD30" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE30" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF30" s="47" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="AB30" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD30" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE30" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF30" s="31" t="s">
+        <v>21</v>
       </c>
       <c r="AG30" s="23"/>
     </row>
-    <row r="31" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I31" s="22"/>
       <c r="J31" s="33" t="s">
         <v>3</v>
       </c>
       <c r="K31" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="35" t="s">
         <v>3</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P31" s="37" t="s">
         <v>21</v>
@@ -2573,7 +2617,7 @@
         <v>3</v>
       </c>
       <c r="S31" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T31" s="37" t="s">
         <v>24</v>
@@ -2583,58 +2627,58 @@
         <v>3</v>
       </c>
       <c r="W31" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="X31" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z31" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA31" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB31" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="X31" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB31" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD31" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE31" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF31" s="32" t="s">
-        <v>71</v>
+      <c r="AD31" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE31" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF31" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="AG31" s="23"/>
     </row>
-    <row r="32" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="22"/>
       <c r="J32" s="33" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L32" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M32" s="22"/>
       <c r="N32" s="23" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P32" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q32" s="23"/>
       <c r="R32" s="23" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T32" s="30" t="s">
         <v>20</v>
@@ -2644,92 +2688,92 @@
         <v>3</v>
       </c>
       <c r="W32" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X32" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Z32" s="35" t="s">
         <v>3</v>
       </c>
       <c r="AA32" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AB32" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AD32" s="35" t="s">
         <v>3</v>
       </c>
       <c r="AE32" s="35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AF32" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AG32" s="23"/>
     </row>
-    <row r="33" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J33" s="33" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M33" s="22"/>
       <c r="N33" s="33" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P33" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="23"/>
       <c r="R33" s="33" t="s">
         <v>3</v>
       </c>
       <c r="S33" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="T33" s="31" t="s">
         <v>53</v>
-      </c>
-      <c r="T33" s="31" t="s">
-        <v>54</v>
       </c>
       <c r="U33" s="23"/>
       <c r="V33" s="33" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X33" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="AA33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB33" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="AD33" s="43" t="s">
+      <c r="AD33" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AE33" s="43" t="s">
-        <v>39</v>
+      <c r="AE33" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="AF33" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG33" s="23"/>
     </row>
-    <row r="34" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="34"/>
@@ -2751,54 +2795,54 @@
       <c r="AF34" s="36"/>
       <c r="AG34" s="23"/>
     </row>
-    <row r="35" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J35" s="23" t="s">
         <v>5</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L35" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M35" s="23">
         <v>3</v>
       </c>
-      <c r="N35" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="35" t="s">
+      <c r="N35" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="23">
+        <v>2</v>
+      </c>
+      <c r="R35" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="P35" s="37" t="s">
+      <c r="T35" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="U35" s="23">
+        <v>2</v>
+      </c>
+      <c r="V35" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="X35" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q35" s="23">
+      <c r="Y35" s="3">
         <v>1</v>
-      </c>
-      <c r="R35" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="T35" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="U35" s="23">
-        <v>3</v>
-      </c>
-      <c r="V35" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="X35" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>3</v>
       </c>
       <c r="Z35" s="3" t="s">
         <v>5</v>
@@ -2807,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="AB35" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AC35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD35" s="23" t="s">
         <v>5</v>
@@ -2819,13 +2863,13 @@
         <v>30</v>
       </c>
       <c r="AF35" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG35" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J36" s="29" t="s">
         <v>5</v>
       </c>
@@ -2833,58 +2877,58 @@
         <v>30</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M36" s="23">
         <v>2</v>
       </c>
-      <c r="N36" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O36" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="P36" s="36" t="s">
-        <v>62</v>
+      <c r="N36" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="Q36" s="23">
         <v>3</v>
       </c>
       <c r="R36" s="23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S36" s="23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T36" s="30" t="s">
         <v>20</v>
       </c>
       <c r="U36" s="23">
-        <v>2</v>
-      </c>
-      <c r="V36" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="W36" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="V36" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="W36" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="X36" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z36" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA36" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="X36" s="31" t="s">
+      <c r="AB36" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="Y36" s="3">
-        <v>2</v>
-      </c>
-      <c r="Z36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB36" s="36" t="s">
-        <v>54</v>
-      </c>
       <c r="AC36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD36" s="35" t="s">
         <v>5</v>
@@ -2893,13 +2937,13 @@
         <v>70</v>
       </c>
       <c r="AF36" s="31" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="AG36" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J37" s="33" t="s">
         <v>4</v>
       </c>
@@ -2907,31 +2951,31 @@
         <v>32</v>
       </c>
       <c r="L37" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M37" s="23">
         <v>1</v>
       </c>
-      <c r="N37" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="O37" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" s="38" t="s">
-        <v>38</v>
+      <c r="N37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P37" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="Q37" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="T37" s="31" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+      <c r="T37" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="U37" s="23">
         <v>1</v>
@@ -2946,42 +2990,42 @@
         <v>25</v>
       </c>
       <c r="Y37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB37" s="36" t="s">
         <v>53</v>
-      </c>
-      <c r="AB37" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="AC37" s="3">
         <v>1</v>
       </c>
       <c r="AD37" s="23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE37" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF37" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="AF37" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="AG37" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M38" s="22"/>
       <c r="N38" s="23" t="s">
@@ -2991,14 +3035,14 @@
         <v>31</v>
       </c>
       <c r="P38" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q38" s="23"/>
       <c r="R38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="S38" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T38" s="37" t="s">
         <v>24</v>
@@ -3008,33 +3052,30 @@
         <v>6</v>
       </c>
       <c r="W38" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X38" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z38" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AA38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB38" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD38" s="23" t="s">
+      <c r="AA38" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB38" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD38" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AE38" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF38" s="32" t="s">
+      <c r="AE38" s="35" t="s">
         <v>72</v>
       </c>
+      <c r="AF38" s="47" t="s">
+        <v>37</v>
+      </c>
       <c r="AG38" s="23"/>
-    </row>
-    <row r="42" spans="10:35" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AI42" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Team.xlsx
+++ b/Team.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcxb115\SourceCode\EPLExcels\FPLExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPLJava\EPL Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183C1BC3-9079-49A9-8DC9-D95152FCB36D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094E75A0-1513-4352-A344-496A97C4B058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -662,7 +662,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,6 +823,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,9 +840,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFFFFF66"/>
-      <color rgb="FF99FF99"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFF9966"/>
       <color rgb="FFB2B2B2"/>
@@ -1179,49 +1185,49 @@
   </sheetPr>
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="1.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="1.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="1.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1257,7 +1263,7 @@
       <c r="V1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1278,13 +1284,13 @@
         <v>4.3</v>
       </c>
       <c r="G2" s="28">
-        <v>0.25</v>
+        <v>0.61</v>
       </c>
       <c r="H2" s="19">
-        <v>0.16</v>
+        <v>0.39</v>
       </c>
       <c r="I2" s="20">
-        <v>2.9000000000000001E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="4"/>
@@ -1297,7 +1303,7 @@
       <c r="V2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1317,14 +1323,14 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="G3" s="28">
-        <v>-0.09</v>
+      <c r="G3" s="63">
+        <v>0.99</v>
       </c>
       <c r="H3" s="19">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="I3" s="20">
-        <v>0.125</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="17"/>
@@ -1333,7 +1339,7 @@
       <c r="V3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1354,13 +1360,13 @@
         <v>5.3</v>
       </c>
       <c r="G4" s="28">
-        <v>0.14000000000000001</v>
+        <v>-0.89</v>
       </c>
       <c r="H4" s="27">
-        <v>0.01</v>
+        <v>-0.9</v>
       </c>
       <c r="I4" s="20">
-        <v>2.1999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="17"/>
@@ -1369,7 +1375,7 @@
       <c r="V4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1389,14 +1395,14 @@
         <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
-      <c r="G5" s="28">
-        <v>0.01</v>
-      </c>
-      <c r="H5" s="27">
-        <v>0</v>
+      <c r="G5" s="63">
+        <v>0.99</v>
+      </c>
+      <c r="H5" s="63">
+        <v>1.19</v>
       </c>
       <c r="I5" s="20">
-        <v>0.40899999999999997</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="17"/>
@@ -1405,7 +1411,7 @@
       <c r="V5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1426,19 +1432,19 @@
         <v>5.3</v>
       </c>
       <c r="G6" s="28">
-        <v>-0.24</v>
+        <v>0.04</v>
       </c>
       <c r="H6" s="27">
-        <v>0.28999999999999998</v>
+        <v>0.05</v>
       </c>
       <c r="I6" s="20">
-        <v>0.46800000000000003</v>
+        <v>4.7E-2</v>
       </c>
       <c r="N6" s="4"/>
       <c r="V6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1459,20 +1465,20 @@
         <v>4.7</v>
       </c>
       <c r="G7" s="21">
-        <v>-1</v>
+        <v>-0.63</v>
       </c>
       <c r="H7" s="19">
-        <v>-0.27</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="I7" s="20">
-        <v>0.184</v>
+        <v>0.17</v>
       </c>
       <c r="M7" s="4"/>
       <c r="U7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1493,20 +1499,20 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G8" s="21">
-        <v>0.59</v>
+        <v>0.27</v>
       </c>
       <c r="H8" s="27">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="I8" s="20">
-        <v>0.14799999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="M8" s="4"/>
       <c r="U8" s="4"/>
       <c r="Y8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
@@ -1527,13 +1533,13 @@
         <v>10.7</v>
       </c>
       <c r="G9" s="21">
-        <v>0.86</v>
+        <v>0.41</v>
       </c>
       <c r="H9" s="27">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="I9" s="20">
-        <v>0.41299999999999998</v>
+        <v>0.53</v>
       </c>
       <c r="M9" s="9"/>
       <c r="O9" s="17"/>
@@ -1543,7 +1549,7 @@
       <c r="Y9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -1564,13 +1570,13 @@
         <v>7.9</v>
       </c>
       <c r="G10" s="21">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
       <c r="H10" s="19">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="I10" s="20">
-        <v>0.13300000000000001</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="M10" s="4"/>
       <c r="O10" s="17"/>
@@ -1580,7 +1586,7 @@
       <c r="Y10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -1600,14 +1606,14 @@
         <f t="shared" si="0"/>
         <v>12.4</v>
       </c>
-      <c r="G11" s="28">
-        <v>0.49</v>
-      </c>
-      <c r="H11" s="27">
-        <v>0.26</v>
+      <c r="G11" s="63">
+        <v>1.03</v>
+      </c>
+      <c r="H11" s="63">
+        <v>1.04</v>
       </c>
       <c r="I11" s="20">
-        <v>0.28699999999999998</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="M11" s="4"/>
       <c r="O11" s="17"/>
@@ -1617,7 +1623,7 @@
       <c r="Y11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -1638,13 +1644,13 @@
         <v>7.4</v>
       </c>
       <c r="G12" s="21">
-        <v>-0.98</v>
+        <v>-0.68</v>
       </c>
       <c r="H12" s="27">
-        <v>-0.72</v>
+        <v>-0.35</v>
       </c>
       <c r="I12" s="20">
-        <v>0.251</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="M12" s="4"/>
       <c r="O12" s="17"/>
@@ -1654,7 +1660,7 @@
       <c r="Y12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
@@ -1668,20 +1674,20 @@
         <v>4.7</v>
       </c>
       <c r="E13" s="10">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="G13" s="21">
-        <v>-0.39</v>
+        <v>-0.01</v>
       </c>
       <c r="H13" s="27">
-        <v>-0.36</v>
+        <v>0</v>
       </c>
       <c r="I13" s="20">
-        <v>0.24399999999999999</v>
+        <v>0.223</v>
       </c>
       <c r="M13" s="4"/>
       <c r="O13" s="17"/>
@@ -1691,7 +1697,7 @@
       <c r="Y13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1712,10 +1718,10 @@
         <v>5.9</v>
       </c>
       <c r="G14" s="21">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="H14" s="19">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I14" s="20">
         <v>2.5999999999999999E-2</v>
@@ -1726,7 +1732,7 @@
       <c r="R14" s="16"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1750,10 +1756,10 @@
         <v>0.3</v>
       </c>
       <c r="H15" s="27">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I15" s="20">
-        <v>8.6999999999999994E-2</v>
+        <v>0.112</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="17"/>
@@ -1762,7 +1768,7 @@
       <c r="V15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1782,14 +1788,14 @@
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
-      <c r="G16" s="21">
-        <v>-0.03</v>
-      </c>
-      <c r="H16" s="21">
-        <v>-0.01</v>
+      <c r="G16" s="62">
+        <v>-0.96</v>
+      </c>
+      <c r="H16" s="62">
+        <v>-1.29</v>
       </c>
       <c r="I16" s="20">
-        <v>0.48499999999999999</v>
+        <v>0.41199999999999998</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="17"/>
@@ -1798,7 +1804,7 @@
       <c r="V16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
         <v>2</v>
       </c>
@@ -1810,7 +1816,7 @@
       </c>
       <c r="E17" s="10">
         <f>SUM(E2:E16)+D19</f>
-        <v>103.79999999999997</v>
+        <v>103.69999999999997</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
@@ -1823,7 +1829,7 @@
       <c r="V17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
         <v>1</v>
       </c>
@@ -1842,7 +1848,7 @@
       <c r="V18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>0</v>
       </c>
@@ -1868,10 +1874,10 @@
       <c r="V19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
     </row>
-    <row r="21" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>14</v>
       </c>
@@ -1926,7 +1932,7 @@
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
     </row>
-    <row r="22" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <v>26</v>
       </c>
@@ -1994,7 +2000,7 @@
       <c r="AF22" s="26"/>
       <c r="AG22" s="24"/>
     </row>
-    <row r="23" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <v>27</v>
       </c>
@@ -2078,7 +2084,7 @@
       </c>
       <c r="AG23" s="23"/>
     </row>
-    <row r="24" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>29</v>
       </c>
@@ -2162,7 +2168,7 @@
       </c>
       <c r="AG24" s="23"/>
     </row>
-    <row r="25" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>29</v>
       </c>
@@ -2246,7 +2252,7 @@
       </c>
       <c r="AG25" s="23"/>
     </row>
-    <row r="26" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -2320,7 +2326,7 @@
       </c>
       <c r="AG26" s="23"/>
     </row>
-    <row r="27" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -2394,7 +2400,7 @@
       </c>
       <c r="AG27" s="23"/>
     </row>
-    <row r="28" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -2462,7 +2468,7 @@
       </c>
       <c r="AG28" s="23"/>
     </row>
-    <row r="29" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -2530,7 +2536,7 @@
       </c>
       <c r="AG29" s="23"/>
     </row>
-    <row r="30" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I30" s="22"/>
       <c r="J30" s="33" t="s">
         <v>4</v>
@@ -2591,7 +2597,7 @@
       </c>
       <c r="AG30" s="23"/>
     </row>
-    <row r="31" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I31" s="22"/>
       <c r="J31" s="33" t="s">
         <v>3</v>
@@ -2652,7 +2658,7 @@
       </c>
       <c r="AG31" s="23"/>
     </row>
-    <row r="32" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I32" s="22"/>
       <c r="J32" s="33" t="s">
         <v>3</v>
@@ -2713,7 +2719,7 @@
       </c>
       <c r="AG32" s="23"/>
     </row>
-    <row r="33" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J33" s="33" t="s">
         <v>3</v>
       </c>
@@ -2773,7 +2779,7 @@
       </c>
       <c r="AG33" s="23"/>
     </row>
-    <row r="34" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="34"/>
@@ -2795,7 +2801,7 @@
       <c r="AF34" s="36"/>
       <c r="AG34" s="23"/>
     </row>
-    <row r="35" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J35" s="23" t="s">
         <v>5</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J36" s="29" t="s">
         <v>5</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J37" s="33" t="s">
         <v>4</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J38" s="23" t="s">
         <v>6</v>
       </c>

--- a/Team.xlsx
+++ b/Team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPLJava\EPL Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094E75A0-1513-4352-A344-496A97C4B058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AF627E-93B3-48DD-8E14-A506A6C14282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="76">
   <si>
     <t>REMAINING</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Maddison</t>
   </si>
   <si>
-    <t>WOL</t>
-  </si>
-  <si>
     <t>TOT</t>
   </si>
   <si>
@@ -156,18 +153,12 @@
     <t>SOU</t>
   </si>
   <si>
-    <t>CHE</t>
-  </si>
-  <si>
     <t>@whu</t>
   </si>
   <si>
     <t>@sou</t>
   </si>
   <si>
-    <t>@liv</t>
-  </si>
-  <si>
     <t>EVE</t>
   </si>
   <si>
@@ -259,6 +250,12 @@
   </si>
   <si>
     <t>@cry</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>HIT</t>
   </si>
 </sst>
 </file>
@@ -662,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -734,9 +731,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -747,9 +741,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -783,6 +774,12 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -823,12 +820,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,8 +1176,8 @@
   </sheetPr>
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1268,10 +1259,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="10">
         <v>4.3</v>
@@ -1296,9 +1287,9 @@
       <c r="N2" s="4"/>
       <c r="O2" s="17"/>
       <c r="Q2" s="23"/>
-      <c r="R2" s="39"/>
+      <c r="R2" s="37"/>
       <c r="S2" s="23"/>
-      <c r="T2" s="40"/>
+      <c r="T2" s="38"/>
       <c r="U2" s="23"/>
       <c r="V2" s="4"/>
       <c r="Z2" s="4"/>
@@ -1323,7 +1314,7 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="47">
         <v>0.99</v>
       </c>
       <c r="H3" s="19">
@@ -1344,10 +1335,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D4" s="10">
         <v>5.3</v>
@@ -1380,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>16</v>
@@ -1395,10 +1386,10 @@
         <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="47">
         <v>0.99</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="47">
         <v>1.19</v>
       </c>
       <c r="I5" s="20">
@@ -1416,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>16</v>
@@ -1517,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
@@ -1554,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>23</v>
@@ -1591,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>16</v>
@@ -1600,16 +1591,16 @@
         <v>12.3</v>
       </c>
       <c r="E11" s="10">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
-        <v>12.4</v>
-      </c>
-      <c r="G11" s="63">
+        <v>12.5</v>
+      </c>
+      <c r="G11" s="47">
         <v>1.03</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="47">
         <v>1.04</v>
       </c>
       <c r="I11" s="20">
@@ -1702,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>22</v>
@@ -1737,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" s="10">
         <v>5.9</v>
@@ -1773,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>25</v>
@@ -1782,16 +1773,16 @@
         <v>9.4</v>
       </c>
       <c r="E16" s="10">
-        <v>9.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>9.6</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="46">
         <v>-0.96</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="46">
         <v>-1.29</v>
       </c>
       <c r="I16" s="20">
@@ -1816,7 +1807,7 @@
       </c>
       <c r="E17" s="10">
         <f>SUM(E2:E16)+D19</f>
-        <v>103.69999999999997</v>
+        <v>103.69999999999996</v>
       </c>
       <c r="F17" s="56"/>
       <c r="G17" s="56"/>
@@ -1868,7 +1859,7 @@
         <v>13</v>
       </c>
       <c r="P19" s="17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R19" s="16"/>
       <c r="V19" s="4"/>
@@ -1892,42 +1883,42 @@
       <c r="J21" s="22"/>
       <c r="K21" s="23">
         <f>P19</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="24"/>
       <c r="N21" s="22"/>
       <c r="O21" s="23">
         <f>K21+1</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="22"/>
       <c r="S21" s="23">
         <f>O21+1</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T21" s="22"/>
       <c r="U21" s="24"/>
       <c r="V21" s="22"/>
       <c r="W21" s="23">
         <f>S21+1</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X21" s="22"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="22"/>
       <c r="AA21" s="23">
         <f>W21+1</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22"/>
       <c r="AD21" s="22"/>
       <c r="AE21" s="23">
         <f>AA21+1</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
@@ -1937,13 +1928,13 @@
         <v>26</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" s="23">
         <v>7</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E22" s="23">
         <v>6</v>
@@ -1959,42 +1950,42 @@
       <c r="I22" s="22"/>
       <c r="J22" s="23" t="str">
         <f>CONCATENATE("GW ",K21)</f>
-        <v>GW 25</v>
+        <v>GW 26</v>
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="24"/>
       <c r="N22" s="23" t="str">
         <f>CONCATENATE("GW ",O21)</f>
-        <v>GW 26</v>
+        <v>GW 27</v>
       </c>
       <c r="O22" s="22"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="23" t="str">
         <f>CONCATENATE("GW ",S21)</f>
-        <v>GW 27</v>
+        <v>GW 28</v>
       </c>
       <c r="S22" s="22"/>
       <c r="T22" s="26"/>
       <c r="U22" s="24"/>
       <c r="V22" s="23" t="str">
         <f>CONCATENATE("GW ",W21)</f>
-        <v>GW 28</v>
+        <v>GW 29</v>
       </c>
       <c r="W22" s="22"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="23" t="str">
         <f>CONCATENATE("GW ",AA21)</f>
-        <v>GW 29</v>
+        <v>GW 30</v>
       </c>
       <c r="AA22" s="22"/>
       <c r="AB22" s="26"/>
       <c r="AC22" s="24"/>
       <c r="AD22" s="23" t="str">
         <f>CONCATENATE("GW ",AE21)</f>
-        <v>GW 30</v>
+        <v>GW 31</v>
       </c>
       <c r="AE22" s="22"/>
       <c r="AF22" s="26"/>
@@ -2005,13 +1996,13 @@
         <v>27</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" s="23">
         <v>4.2</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E23" s="23">
         <v>5.3</v>
@@ -2029,20 +2020,20 @@
         <v>6</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="22"/>
+        <v>52</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="23"/>
       <c r="N23" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="35" t="s">
         <v>55</v>
-      </c>
-      <c r="P23" s="37" t="s">
-        <v>21</v>
       </c>
       <c r="Q23" s="23"/>
       <c r="R23" s="23" t="s">
@@ -2051,102 +2042,91 @@
       <c r="S23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="T23" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23" t="s">
+      <c r="T23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="V23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="X23" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z23" s="3" t="s">
+      <c r="W23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="X23" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB23" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD23" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE23" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF23" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG23" s="23"/>
+      <c r="AA23" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB23" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC23" s="23"/>
     </row>
     <row r="24" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>29</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" s="23">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E24" s="23">
         <v>5.9</v>
       </c>
       <c r="F24" s="23">
         <f t="shared" si="1"/>
-        <v>-1.6999999999999993</v>
+        <v>-1.7999999999999998</v>
       </c>
       <c r="G24" s="25">
         <f>F24+G23</f>
-        <v>-0.60000000000002229</v>
+        <v>-0.70000000000002283</v>
       </c>
       <c r="I24" s="22"/>
-      <c r="J24" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="M24" s="22"/>
+      <c r="J24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="23"/>
       <c r="N24" s="23" t="s">
         <v>5</v>
       </c>
       <c r="O24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="P24" s="37" t="s">
-        <v>56</v>
+      <c r="P24" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="Q24" s="23"/>
-      <c r="R24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="T24" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="U24" s="23"/>
-      <c r="V24" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="X24" s="31" t="s">
+      <c r="R24" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="T24" s="30" t="s">
         <v>34</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="X24" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="Z24" s="23" t="s">
         <v>5</v>
@@ -2154,26 +2134,17 @@
       <c r="AA24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="AB24" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE24" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF24" s="31" t="s">
+      <c r="AB24" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AG24" s="23"/>
+      <c r="AC24" s="23"/>
     </row>
     <row r="25" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>29</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C25" s="23">
         <v>3.9</v>
@@ -2190,67 +2161,57 @@
       </c>
       <c r="G25" s="25">
         <f t="shared" ref="G25:G26" si="3">F25+G24</f>
-        <v>-2.2204460492503131E-14</v>
+        <v>-0.10000000000002274</v>
       </c>
       <c r="I25" s="22"/>
-      <c r="J25" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="L25" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O25" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="P25" s="31" t="s">
-        <v>59</v>
+      <c r="J25" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="Q25" s="23"/>
       <c r="R25" s="23" t="s">
         <v>5</v>
       </c>
       <c r="S25" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="T25" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="W25" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="X25" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="T25" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="Z25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB25" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE25" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF25" s="46" t="s">
+      <c r="V25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X25" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB25" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG25" s="23"/>
+      <c r="AC25" s="23"/>
     </row>
     <row r="26" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
@@ -2264,67 +2225,57 @@
       </c>
       <c r="G26" s="25">
         <f t="shared" si="3"/>
-        <v>-2.2204460492503131E-14</v>
+        <v>-0.10000000000002274</v>
       </c>
       <c r="I26" s="22"/>
-      <c r="J26" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="31" t="s">
-        <v>59</v>
+      <c r="J26" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L26" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="23"/>
+      <c r="N26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="Q26" s="23"/>
-      <c r="R26" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="T26" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="23" t="s">
+      <c r="R26" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="X26" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z26" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB26" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD26" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE26" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF26" s="45" t="s">
+      <c r="T26" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="V26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="X26" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB26" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AG26" s="23"/>
+      <c r="AC26" s="23"/>
     </row>
     <row r="27" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
@@ -2338,67 +2289,60 @@
       </c>
       <c r="G27" s="25">
         <f t="shared" ref="G27" si="5">F27+G26</f>
-        <v>-2.2204460492503131E-14</v>
+        <v>-0.10000000000002274</v>
       </c>
       <c r="I27" s="22"/>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" s="23"/>
+      <c r="N27" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="O27" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="33" t="s">
+      <c r="X27" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S27" s="33" t="s">
+      <c r="AA27" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="T27" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="W27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="X27" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB27" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD27" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE27" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF27" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG27" s="23"/>
+      <c r="AB27" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC27" s="23"/>
+      <c r="AE27" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="28" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
@@ -2409,64 +2353,57 @@
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K28" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="22"/>
-      <c r="N28" s="42" t="s">
+      <c r="K28" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="23"/>
+      <c r="N28" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O28" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="P28" s="31" t="s">
-        <v>59</v>
+      <c r="O28" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="P28" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="Q28" s="23"/>
-      <c r="R28" s="42" t="s">
+      <c r="R28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="S28" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="T28" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23" t="s">
+      <c r="S28" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="V28" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="W28" s="23" t="s">
+      <c r="W28" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="X28" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="X28" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z28" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA28" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB28" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD28" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF28" s="31" t="s">
+      <c r="AB28" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AG28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AE28" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
@@ -2477,125 +2414,105 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="33" t="s">
+      <c r="J29" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="L29" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="M29" s="22"/>
-      <c r="N29" s="33" t="s">
+      <c r="K29" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="23"/>
+      <c r="N29" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="P29" s="37" t="s">
-        <v>50</v>
+      <c r="O29" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" s="44" t="s">
+        <v>71</v>
       </c>
       <c r="Q29" s="23"/>
-      <c r="R29" s="33" t="s">
+      <c r="R29" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="T29" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="U29" s="23"/>
-      <c r="V29" s="42" t="s">
+      <c r="S29" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="T29" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="42" t="s">
-        <v>51</v>
+      <c r="W29" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="X29" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z29" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AA29" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB29" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD29" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE29" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF29" s="45" t="s">
+      <c r="AA29" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB29" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AG29" s="23"/>
+      <c r="AC29" s="23"/>
     </row>
     <row r="30" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I30" s="22"/>
-      <c r="J30" s="33" t="s">
+      <c r="J30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="33" t="s">
+      <c r="K30" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="23"/>
+      <c r="N30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="O30" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="P30" s="32" t="s">
-        <v>49</v>
+      <c r="O30" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="Q30" s="23"/>
-      <c r="R30" s="33" t="s">
+      <c r="R30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="S30" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="T30" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="U30" s="23"/>
-      <c r="V30" s="33" t="s">
+      <c r="S30" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="T30" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="V30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W30" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="X30" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z30" s="3" t="s">
+      <c r="W30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AA30" s="3" t="s">
-        <v>57</v>
+      <c r="AA30" s="40" t="s">
+        <v>70</v>
       </c>
       <c r="AB30" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD30" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE30" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF30" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="AG30" s="23"/>
+      <c r="AC30" s="23"/>
     </row>
     <row r="31" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I31" s="22"/>
@@ -2603,361 +2520,303 @@
         <v>3</v>
       </c>
       <c r="K31" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="L31" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="23"/>
+      <c r="N31" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="S31" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="V31" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="W31" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="L31" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="M31" s="22"/>
-      <c r="N31" s="35" t="s">
+      <c r="X31" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z31" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="O31" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="S31" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="T31" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="U31" s="23"/>
-      <c r="V31" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="W31" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="X31" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z31" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA31" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB31" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD31" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE31" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF31" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG31" s="23"/>
+      <c r="AA31" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB31" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC31" s="23"/>
     </row>
     <row r="32" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I32" s="22"/>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="22"/>
+      <c r="K32" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" s="23"/>
       <c r="N32" s="23" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P32" s="36" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="P32" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="Q32" s="23"/>
       <c r="R32" s="23" t="s">
         <v>3</v>
       </c>
       <c r="S32" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T32" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="V32" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="W32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="X32" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z32" s="35" t="s">
+      <c r="W32" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="X32" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z32" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AA32" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB32" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD32" s="35" t="s">
+      <c r="AA32" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB32" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC32" s="23"/>
+    </row>
+    <row r="33" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AE32" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF32" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG32" s="23"/>
-    </row>
-    <row r="33" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J33" s="33" t="s">
+      <c r="K33" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M33" s="23"/>
+      <c r="N33" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="L33" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="33" t="s">
+      <c r="O33" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="P33" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="33" t="s">
+      <c r="S33" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S33" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="T33" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="U33" s="23"/>
-      <c r="V33" s="33" t="s">
+      <c r="W33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X33" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z33" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="W33" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="X33" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB33" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD33" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF33" s="31" t="s">
+      <c r="AA33" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB33" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AG33" s="23"/>
-    </row>
-    <row r="34" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="22"/>
+      <c r="AC33" s="23"/>
+    </row>
+    <row r="34" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="23"/>
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
-      <c r="P34" s="38"/>
+      <c r="P34" s="36"/>
       <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
       <c r="S34" s="23"/>
-      <c r="T34" s="38"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="23"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="36"/>
-      <c r="AB34" s="41"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="23"/>
-    </row>
-    <row r="35" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T34" s="34"/>
+      <c r="X34" s="39"/>
+      <c r="Z34" s="23"/>
+      <c r="AA34" s="23"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="23"/>
+    </row>
+    <row r="35" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J35" s="23" t="s">
         <v>5</v>
       </c>
       <c r="K35" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L35" s="32" t="s">
-        <v>42</v>
+      <c r="L35" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="M35" s="23">
-        <v>3</v>
-      </c>
-      <c r="N35" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="P35" s="36" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="N35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="Q35" s="23">
         <v>2</v>
       </c>
-      <c r="R35" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="T35" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="U35" s="23">
+      <c r="R35" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="T35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" s="3">
+        <v>1</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X35" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y35" s="3">
         <v>2</v>
       </c>
-      <c r="V35" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="X35" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="3" t="s">
+      <c r="Z35" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AB35" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD35" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE35" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF35" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG35" s="23">
+      <c r="AB35" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC35" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J36" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K36" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L36" s="31" t="s">
-        <v>43</v>
+    <row r="36" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="36" t="s">
+        <v>36</v>
       </c>
       <c r="M36" s="23">
-        <v>2</v>
-      </c>
-      <c r="N36" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="O36" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" s="38" t="s">
-        <v>37</v>
+        <v>3</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="Q36" s="23">
         <v>3</v>
       </c>
-      <c r="R36" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="S36" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="T36" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="U36" s="23">
+      <c r="R36" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="S36" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="T36" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="U36" s="3">
         <v>3</v>
       </c>
       <c r="V36" s="33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W36" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="X36" s="44" t="s">
-        <v>28</v>
+        <v>67</v>
+      </c>
+      <c r="X36" s="34" t="s">
+        <v>42</v>
       </c>
       <c r="Y36" s="3">
         <v>3</v>
       </c>
-      <c r="Z36" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA36" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB36" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>3</v>
-      </c>
-      <c r="AD36" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE36" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF36" s="31" t="s">
+      <c r="Z36" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA36" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB36" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AG36" s="23">
+      <c r="AC36" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J37" s="33" t="s">
+    <row r="37" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K37" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L37" s="31" t="s">
-        <v>47</v>
+      <c r="K37" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="M37" s="23">
         <v>1</v>
@@ -2968,120 +2827,98 @@
       <c r="O37" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="P37" s="36" t="s">
-        <v>60</v>
+      <c r="P37" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="Q37" s="23">
         <v>1</v>
       </c>
-      <c r="R37" s="23" t="s">
+      <c r="R37" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="S37" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="T37" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="U37" s="23">
+      <c r="S37" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="U37" s="3">
+        <v>2</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X37" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y37" s="3">
         <v>1</v>
       </c>
-      <c r="V37" s="33" t="s">
+      <c r="Z37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="W37" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="X37" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y37" s="3">
+      <c r="AA37" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB37" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC37" s="23">
         <v>2</v>
       </c>
-      <c r="Z37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB37" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD37" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE37" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF37" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG37" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="L38" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="M38" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="L38" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="23"/>
       <c r="N38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="P38" s="31" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="P38" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="Q38" s="23"/>
       <c r="R38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="S38" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="T38" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="T38" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="V38" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="W38" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="X38" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z38" s="35" t="s">
+      <c r="W38" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="X38" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z38" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AA38" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB38" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD38" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE38" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF38" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG38" s="23"/>
+      <c r="AA38" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB38" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Team.xlsx
+++ b/Team.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPLJava\EPL Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AF627E-93B3-48DD-8E14-A506A6C14282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E479410-7B26-4DBE-A455-20A3D2A44734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="78">
   <si>
     <t>REMAINING</t>
   </si>
@@ -135,9 +135,6 @@
     <t>@wat</t>
   </si>
   <si>
-    <t>Maddison</t>
-  </si>
-  <si>
     <t>TOT</t>
   </si>
   <si>
@@ -177,9 +174,6 @@
     <t>Salah</t>
   </si>
   <si>
-    <t>Maupay</t>
-  </si>
-  <si>
     <t>@shu</t>
   </si>
   <si>
@@ -207,18 +201,12 @@
     <t>Ings</t>
   </si>
   <si>
-    <t>Sidibe</t>
-  </si>
-  <si>
     <t>BRI</t>
   </si>
   <si>
     <t>NEW</t>
   </si>
   <si>
-    <t>Calvert-Lewin</t>
-  </si>
-  <si>
     <t>DCL</t>
   </si>
   <si>
@@ -237,9 +225,6 @@
     <t>Gomez</t>
   </si>
   <si>
-    <t>Button</t>
-  </si>
-  <si>
     <t>KDB</t>
   </si>
   <si>
@@ -252,10 +237,31 @@
     <t>@cry</t>
   </si>
   <si>
-    <t>FREE</t>
-  </si>
-  <si>
-    <t>HIT</t>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>@mci</t>
+  </si>
+  <si>
+    <t>Boly</t>
+  </si>
+  <si>
+    <t>@bou</t>
+  </si>
+  <si>
+    <t>@ars</t>
+  </si>
+  <si>
+    <t>Sarr</t>
+  </si>
+  <si>
+    <t>@bur</t>
+  </si>
+  <si>
+    <t>Richarlison</t>
+  </si>
+  <si>
+    <t>WOL</t>
   </si>
 </sst>
 </file>
@@ -659,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,13 +758,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -771,14 +771,19 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1176,8 +1181,8 @@
   </sheetPr>
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1188,32 +1193,31 @@
     <col min="4" max="4" width="6.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.33203125" style="17" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="5.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="1.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9.109375" style="3"/>
   </cols>
@@ -1259,10 +1263,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="10">
         <v>4.3</v>
@@ -1274,22 +1278,22 @@
         <f t="shared" ref="F2:F16" si="0">IF(E2&lt;D2,E2,ROUNDDOWN(ROUND((E2-D2)/2,2),1)+D2)</f>
         <v>4.3</v>
       </c>
-      <c r="G2" s="28">
-        <v>0.61</v>
+      <c r="G2" s="44">
+        <v>0.96</v>
       </c>
       <c r="H2" s="19">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="I2" s="20">
-        <v>3.4000000000000002E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="4"/>
       <c r="O2" s="17"/>
       <c r="Q2" s="23"/>
-      <c r="R2" s="37"/>
+      <c r="R2" s="36"/>
       <c r="S2" s="23"/>
-      <c r="T2" s="38"/>
+      <c r="T2" s="37"/>
       <c r="U2" s="23"/>
       <c r="V2" s="4"/>
       <c r="Z2" s="4"/>
@@ -1308,20 +1312,20 @@
         <v>4.5</v>
       </c>
       <c r="E3" s="10">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="G3" s="47">
-        <v>0.99</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0.32</v>
       </c>
       <c r="H3" s="19">
-        <v>0.88</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I3" s="20">
-        <v>0.13900000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="17"/>
@@ -1335,29 +1339,29 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D4" s="10">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="E4" s="10">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="0"/>
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="G4" s="28">
-        <v>-0.89</v>
+        <v>0.2</v>
       </c>
       <c r="H4" s="27">
-        <v>-0.9</v>
+        <v>0.21</v>
       </c>
       <c r="I4" s="20">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="17"/>
@@ -1371,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>16</v>
@@ -1380,20 +1384,20 @@
         <v>7.2</v>
       </c>
       <c r="E5" s="10">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>7.4</v>
       </c>
-      <c r="G5" s="47">
-        <v>0.99</v>
-      </c>
-      <c r="H5" s="47">
-        <v>1.19</v>
+      <c r="G5" s="28">
+        <v>0.15</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0.13</v>
       </c>
       <c r="I5" s="20">
-        <v>0.42799999999999999</v>
+        <v>0.434</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="17"/>
@@ -1407,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>16</v>
@@ -1423,13 +1427,13 @@
         <v>5.3</v>
       </c>
       <c r="G6" s="28">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="H6" s="27">
-        <v>0.05</v>
+        <v>0.31</v>
       </c>
       <c r="I6" s="20">
-        <v>4.7E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="N6" s="4"/>
       <c r="V6" s="4"/>
@@ -1455,14 +1459,14 @@
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
-      <c r="G7" s="21">
-        <v>-0.63</v>
+      <c r="G7" s="28">
+        <v>-0.62</v>
       </c>
       <c r="H7" s="19">
-        <v>-0.28999999999999998</v>
+        <v>-0.68</v>
       </c>
       <c r="I7" s="20">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="M7" s="4"/>
       <c r="U7" s="4"/>
@@ -1490,13 +1494,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G8" s="21">
-        <v>0.27</v>
+        <v>-0.49</v>
       </c>
       <c r="H8" s="27">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="I8" s="20">
-        <v>0.14499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M8" s="4"/>
       <c r="U8" s="4"/>
@@ -1508,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
@@ -1517,20 +1521,20 @@
         <v>10.7</v>
       </c>
       <c r="E9" s="10">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>10.7</v>
       </c>
       <c r="G9" s="21">
-        <v>0.41</v>
+        <v>-0.09</v>
       </c>
       <c r="H9" s="27">
-        <v>0.2</v>
+        <v>-0.12</v>
       </c>
       <c r="I9" s="20">
-        <v>0.53</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="M9" s="9"/>
       <c r="O9" s="17"/>
@@ -1545,7 +1549,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>23</v>
@@ -1560,14 +1564,14 @@
         <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
-      <c r="G10" s="21">
-        <v>0.76</v>
+      <c r="G10" s="43">
+        <v>-0.97</v>
       </c>
       <c r="H10" s="19">
-        <v>0.72</v>
+        <v>-0.79</v>
       </c>
       <c r="I10" s="20">
-        <v>0.13500000000000001</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="M10" s="4"/>
       <c r="O10" s="17"/>
@@ -1582,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>16</v>
@@ -1591,20 +1595,20 @@
         <v>12.3</v>
       </c>
       <c r="E11" s="10">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="G11" s="47">
-        <v>1.03</v>
-      </c>
-      <c r="H11" s="47">
-        <v>1.04</v>
+      <c r="G11" s="28">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="H11" s="27">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="I11" s="20">
-        <v>0.38600000000000001</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="M11" s="4"/>
       <c r="O11" s="17"/>
@@ -1619,29 +1623,29 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="10">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="E12" s="10">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="F12" s="10">
         <f t="shared" si="0"/>
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="G12" s="21">
-        <v>-0.68</v>
+        <v>0.45</v>
       </c>
       <c r="H12" s="27">
-        <v>-0.35</v>
+        <v>0.6</v>
       </c>
       <c r="I12" s="20">
-        <v>0.23599999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="M12" s="4"/>
       <c r="O12" s="17"/>
@@ -1671,14 +1675,14 @@
         <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
-      <c r="G13" s="21">
-        <v>-0.01</v>
+      <c r="G13" s="43">
+        <v>-0.97</v>
       </c>
       <c r="H13" s="27">
-        <v>0</v>
+        <v>-0.66</v>
       </c>
       <c r="I13" s="20">
-        <v>0.223</v>
+        <v>0.214</v>
       </c>
       <c r="M13" s="4"/>
       <c r="O13" s="17"/>
@@ -1693,29 +1697,29 @@
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D14" s="10">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="E14" s="10">
-        <v>5.9</v>
+        <v>7.1</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>5.9</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0.09</v>
-      </c>
-      <c r="H14" s="19">
-        <v>0.09</v>
+        <v>7</v>
+      </c>
+      <c r="G14" s="44">
+        <v>1.01</v>
+      </c>
+      <c r="H14" s="44">
+        <v>1.18</v>
       </c>
       <c r="I14" s="20">
-        <v>2.5999999999999999E-2</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="17"/>
@@ -1731,26 +1735,26 @@
         <v>62</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D15" s="10">
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
       <c r="E15" s="10">
-        <v>6.1</v>
+        <v>7.8</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G15" s="28">
-        <v>0.3</v>
+        <v>7.7</v>
+      </c>
+      <c r="G15" s="44">
+        <v>0.95</v>
       </c>
       <c r="H15" s="27">
-        <v>0.34</v>
+        <v>0.86</v>
       </c>
       <c r="I15" s="20">
-        <v>0.112</v>
+        <v>0.11</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="17"/>
@@ -1764,7 +1768,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>25</v>
@@ -1773,20 +1777,20 @@
         <v>9.4</v>
       </c>
       <c r="E16" s="10">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>9.6</v>
-      </c>
-      <c r="G16" s="46">
-        <v>-0.96</v>
-      </c>
-      <c r="H16" s="46">
-        <v>-1.29</v>
+        <v>9.5</v>
+      </c>
+      <c r="G16" s="43">
+        <v>-1.01</v>
+      </c>
+      <c r="H16" s="43">
+        <v>-1.1499999999999999</v>
       </c>
       <c r="I16" s="20">
-        <v>0.41199999999999998</v>
+        <v>0.378</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="17"/>
@@ -1796,23 +1800,23 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="51"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="10">
         <f>SUM(D2:D16)</f>
-        <v>99.600000000000023</v>
+        <v>100.90000000000002</v>
       </c>
       <c r="E17" s="10">
         <f>SUM(E2:E16)+D19</f>
-        <v>103.69999999999996</v>
-      </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
+        <v>103.8</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
       <c r="N17" s="4"/>
       <c r="O17" s="17"/>
       <c r="Q17" s="4"/>
@@ -1821,45 +1825,45 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="52"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="10">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="60"/>
       <c r="N18" s="4"/>
       <c r="R18" s="16"/>
       <c r="V18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="53"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="12">
         <f>100-D17+D18</f>
-        <v>0.99999999999997724</v>
+        <v>-1.9872992140790302E-14</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P19" s="17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R19" s="16"/>
       <c r="V19" s="4"/>
@@ -1869,123 +1873,123 @@
       <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="24"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="23">
         <f>P19</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="24"/>
       <c r="N21" s="22"/>
       <c r="O21" s="23">
         <f>K21+1</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="22"/>
       <c r="S21" s="23">
         <f>O21+1</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T21" s="22"/>
       <c r="U21" s="24"/>
       <c r="V21" s="22"/>
       <c r="W21" s="23">
         <f>S21+1</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X21" s="22"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="22"/>
       <c r="AA21" s="23">
         <f>W21+1</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22"/>
       <c r="AD21" s="22"/>
       <c r="AE21" s="23">
         <f>AA21+1</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
     </row>
     <row r="22" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C22" s="23">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E22" s="23">
-        <v>6</v>
+        <v>7.9</v>
       </c>
       <c r="F22" s="23">
-        <f t="shared" ref="F22:F26" si="1">E22-C22</f>
-        <v>-1</v>
+        <f t="shared" ref="F22:F25" si="1">E22-C22</f>
+        <v>1.7000000000000002</v>
       </c>
       <c r="G22" s="25">
         <f>D$19+F22</f>
-        <v>-2.2759572004815709E-14</v>
+        <v>1.6999999999999802</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="23" t="str">
         <f>CONCATENATE("GW ",K21)</f>
-        <v>GW 26</v>
+        <v>GW 27</v>
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="24"/>
       <c r="N22" s="23" t="str">
         <f>CONCATENATE("GW ",O21)</f>
-        <v>GW 27</v>
+        <v>GW 28</v>
       </c>
       <c r="O22" s="22"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="23" t="str">
         <f>CONCATENATE("GW ",S21)</f>
-        <v>GW 28</v>
+        <v>GW 29</v>
       </c>
       <c r="S22" s="22"/>
       <c r="T22" s="26"/>
       <c r="U22" s="24"/>
       <c r="V22" s="23" t="str">
         <f>CONCATENATE("GW ",W21)</f>
-        <v>GW 29</v>
+        <v>GW 30</v>
       </c>
       <c r="W22" s="22"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="23" t="str">
         <f>CONCATENATE("GW ",AA21)</f>
-        <v>GW 30</v>
+        <v>GW 31</v>
       </c>
       <c r="AA22" s="22"/>
       <c r="AB22" s="26"/>
       <c r="AC22" s="24"/>
       <c r="AD22" s="23" t="str">
         <f>CONCATENATE("GW ",AE21)</f>
-        <v>GW 31</v>
+        <v>GW 32</v>
       </c>
       <c r="AE22" s="22"/>
       <c r="AF22" s="26"/>
@@ -1993,37 +1997,37 @@
     </row>
     <row r="23" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="23">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E23" s="23">
-        <v>5.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F23" s="23">
         <f t="shared" si="1"/>
-        <v>1.0999999999999996</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" ref="G23" si="2">F23+G22</f>
-        <v>1.099999999999977</v>
+        <v>1.99999999999998</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="23" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="L23" s="35" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="M23" s="23"/>
       <c r="N23" s="23" t="s">
@@ -2032,186 +2036,222 @@
       <c r="O23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P23" s="35" t="s">
-        <v>55</v>
+      <c r="P23" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="Q23" s="23"/>
       <c r="R23" s="23" t="s">
         <v>6</v>
       </c>
       <c r="S23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="T23" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="V23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X23" s="35" t="s">
-        <v>61</v>
-      </c>
+      <c r="W23" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X23" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y23" s="23"/>
       <c r="Z23" s="23" t="s">
         <v>6</v>
       </c>
       <c r="AA23" s="23" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="AB23" s="30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC23" s="23"/>
+      <c r="AD23" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE23" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF23" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG23" s="23"/>
     </row>
     <row r="24" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C24" s="23">
-        <v>7.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E24" s="23">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="F24" s="23">
         <f t="shared" si="1"/>
-        <v>-1.7999999999999998</v>
+        <v>-1.9999999999999991</v>
       </c>
       <c r="G24" s="25">
         <f>F24+G23</f>
-        <v>-0.70000000000002283</v>
+        <v>-1.9095836023552692E-14</v>
       </c>
       <c r="I24" s="22"/>
-      <c r="J24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="35" t="s">
-        <v>53</v>
+      <c r="J24" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="M24" s="23"/>
-      <c r="N24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="23" t="s">
-        <v>30</v>
+      <c r="N24" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="23"/>
-      <c r="R24" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="T24" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="V24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="W24" s="23" t="s">
+      <c r="R24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="X24" s="35" t="s">
+      <c r="T24" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="Z24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="23" t="s">
+      <c r="U24" s="23"/>
+      <c r="V24" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="W24" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="X24" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="46" t="s">
         <v>33</v>
       </c>
       <c r="AB24" s="30" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="AC24" s="23"/>
+      <c r="AD24" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF24" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG24" s="23"/>
     </row>
     <row r="25" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C25" s="23">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E25" s="23">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="F25" s="23">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <v>3.3</v>
       </c>
       <c r="G25" s="25">
-        <f t="shared" ref="G25:G26" si="3">F25+G24</f>
-        <v>-0.10000000000002274</v>
+        <f t="shared" ref="G25" si="3">F25+G24</f>
+        <v>3.2999999999999807</v>
       </c>
       <c r="I25" s="22"/>
-      <c r="J25" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="L25" s="30" t="s">
-        <v>56</v>
+      <c r="J25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="M25" s="23"/>
       <c r="N25" s="23" t="s">
         <v>5</v>
       </c>
       <c r="O25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="P25" s="35" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="Q25" s="23"/>
       <c r="R25" s="23" t="s">
         <v>5</v>
       </c>
       <c r="S25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T25" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X25" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA25" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB25" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="W25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="X25" s="42" t="s">
         <v>29</v>
       </c>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB25" s="30" t="s">
+        <v>44</v>
+      </c>
       <c r="AC25" s="23"/>
+      <c r="AD25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF25" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG25" s="23"/>
     </row>
     <row r="26" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
@@ -2219,63 +2259,69 @@
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
-        <f t="shared" si="3"/>
-        <v>-0.10000000000002274</v>
-      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="25"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="L26" s="30" t="s">
-        <v>56</v>
+      <c r="J26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="M26" s="23"/>
-      <c r="N26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="P26" s="35" t="s">
-        <v>47</v>
+      <c r="N26" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="Q26" s="23"/>
-      <c r="R26" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="T26" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="W26" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="X26" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB26" s="43" t="s">
-        <v>29</v>
+      <c r="R26" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="T26" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U26" s="23"/>
+      <c r="V26" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="X26" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB26" s="30" t="s">
+        <v>44</v>
       </c>
       <c r="AC26" s="23"/>
+      <c r="AD26" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF26" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG26" s="23"/>
     </row>
     <row r="27" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
@@ -2283,66 +2329,69 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
-      <c r="F27" s="23">
-        <f t="shared" ref="F27" si="4">E27-C27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="25">
-        <f t="shared" ref="G27" si="5">F27+G26</f>
-        <v>-0.10000000000002274</v>
-      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="25"/>
       <c r="I27" s="22"/>
       <c r="J27" s="32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="35" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>41</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="32" t="s">
-        <v>32</v>
+      <c r="N27" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="P27" s="30" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="23"/>
-      <c r="R27" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="T27" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X27" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z27" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA27" s="23" t="s">
-        <v>32</v>
+      <c r="R27" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="T27" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="U27" s="23"/>
+      <c r="V27" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="X27" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="AB27" s="30" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="AC27" s="23"/>
-      <c r="AE27" s="3" t="s">
+      <c r="AD27" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE27" s="33" t="s">
         <v>74</v>
       </c>
+      <c r="AF27" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG27" s="23"/>
     </row>
     <row r="28" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
@@ -2353,57 +2402,66 @@
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28" s="30" t="s">
-        <v>56</v>
+      <c r="J28" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>46</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="P28" s="35" t="s">
-        <v>47</v>
+      <c r="N28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="Q28" s="23"/>
       <c r="R28" s="23" t="s">
         <v>4</v>
       </c>
       <c r="S28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="T28" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="V28" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="W28" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="X28" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z28" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB28" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="T28" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W28" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="X28" s="30" t="s">
         <v>34</v>
       </c>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB28" s="45" t="s">
+        <v>75</v>
+      </c>
       <c r="AC28" s="23"/>
-      <c r="AE28" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="AD28" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE28" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF28" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG28" s="23"/>
     </row>
     <row r="29" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
@@ -2411,57 +2469,67 @@
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
       <c r="I29" s="22"/>
       <c r="J29" s="32" t="s">
         <v>4</v>
       </c>
       <c r="K29" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="23"/>
+      <c r="N29" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="P29" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="T29" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="X29" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB29" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE29" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF29" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P29" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="T29" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="V29" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="W29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="X29" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z29" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA29" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB29" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC29" s="23"/>
+      <c r="AG29" s="23"/>
     </row>
     <row r="30" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I30" s="22"/>
@@ -2469,101 +2537,125 @@
         <v>4</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" s="31" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="L30" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="M30" s="23"/>
       <c r="N30" s="32" t="s">
         <v>4</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P30" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="P30" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="Q30" s="23"/>
       <c r="R30" s="32" t="s">
         <v>4</v>
       </c>
       <c r="S30" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="T30" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="V30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="X30" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z30" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA30" s="40" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="T30" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="U30" s="23"/>
+      <c r="V30" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="W30" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="X30" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA30" s="47" t="s">
+        <v>47</v>
       </c>
       <c r="AB30" s="30" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="AC30" s="23"/>
+      <c r="AD30" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE30" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF30" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG30" s="23"/>
     </row>
     <row r="31" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I31" s="22"/>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="33" t="s">
-        <v>58</v>
+      <c r="K31" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="33" t="s">
+      <c r="N31" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="O31" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="P31" s="35" t="s">
-        <v>24</v>
+      <c r="O31" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="P31" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="Q31" s="23"/>
-      <c r="R31" s="33" t="s">
+      <c r="R31" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="S31" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="T31" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="V31" s="33" t="s">
+      <c r="S31" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="T31" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="U31" s="23"/>
+      <c r="V31" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="W31" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="X31" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z31" s="33" t="s">
+      <c r="W31" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="X31" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AA31" s="33" t="s">
-        <v>66</v>
+      <c r="AA31" s="32" t="s">
+        <v>62</v>
       </c>
       <c r="AB31" s="30" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AC31" s="23"/>
+      <c r="AD31" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE31" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF31" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG31" s="23"/>
     </row>
     <row r="32" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I32" s="22"/>
@@ -2571,354 +2663,434 @@
         <v>3</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="M32" s="23"/>
       <c r="N32" s="23" t="s">
         <v>3</v>
       </c>
       <c r="O32" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="P32" s="29" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="P32" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="Q32" s="23"/>
-      <c r="R32" s="23" t="s">
+      <c r="R32" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="T32" s="30" t="s">
+      <c r="S32" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="V32" s="33" t="s">
+      <c r="T32" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="W32" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="X32" s="35" t="s">
-        <v>61</v>
-      </c>
+      <c r="W32" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X32" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y32" s="23"/>
       <c r="Z32" s="33" t="s">
         <v>3</v>
       </c>
       <c r="AA32" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB32" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AC32" s="23"/>
-    </row>
-    <row r="33" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD32" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE32" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF32" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG32" s="23"/>
+    </row>
+    <row r="33" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J33" s="32" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="35" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="L33" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="M33" s="23"/>
       <c r="N33" s="32" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="X33" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA33" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB33" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="P33" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="32" t="s">
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="S33" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="T33" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X33" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z33" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA33" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB33" s="30" t="s">
+      <c r="AE33" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF33" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AC33" s="23"/>
-    </row>
-    <row r="34" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG33" s="23"/>
+    </row>
+    <row r="34" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="36"/>
+      <c r="L34" s="48"/>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
-      <c r="P34" s="36"/>
+      <c r="P34" s="34"/>
       <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
       <c r="S34" s="23"/>
-      <c r="T34" s="34"/>
-      <c r="X34" s="39"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="34"/>
+      <c r="Y34" s="23"/>
       <c r="Z34" s="23"/>
       <c r="AA34" s="23"/>
-      <c r="AB34" s="34"/>
+      <c r="AB34" s="45"/>
       <c r="AC34" s="23"/>
-    </row>
-    <row r="35" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD34" s="23"/>
+      <c r="AE34" s="23"/>
+      <c r="AF34" s="45"/>
+      <c r="AG34" s="23"/>
+    </row>
+    <row r="35" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J35" s="23" t="s">
         <v>5</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="L35" s="34" t="s">
-        <v>57</v>
+        <v>30</v>
+      </c>
+      <c r="L35" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="M35" s="23">
         <v>2</v>
       </c>
-      <c r="N35" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="P35" s="30" t="s">
-        <v>73</v>
+      <c r="N35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" s="31" t="s">
+        <v>60</v>
       </c>
       <c r="Q35" s="23">
+        <v>1</v>
+      </c>
+      <c r="R35" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T35" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="U35" s="23">
+        <v>3</v>
+      </c>
+      <c r="V35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="X35" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y35" s="23">
         <v>2</v>
       </c>
-      <c r="R35" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="T35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="U35" s="3">
-        <v>1</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X35" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB35" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC35" s="23">
         <v>2</v>
       </c>
-      <c r="Z35" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB35" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC35" s="23">
+      <c r="AD35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF35" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG35" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J36" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="K36" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L36" s="36" t="s">
-        <v>36</v>
+    <row r="36" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="M36" s="23">
         <v>3</v>
       </c>
-      <c r="N36" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O36" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="P36" s="29" t="s">
-        <v>20</v>
+      <c r="N36" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="Q36" s="23">
         <v>3</v>
       </c>
-      <c r="R36" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="S36" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="T36" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="U36" s="3">
+      <c r="R36" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S36" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="T36" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="U36" s="23">
+        <v>1</v>
+      </c>
+      <c r="V36" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="W36" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="X36" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y36" s="23">
         <v>3</v>
       </c>
-      <c r="V36" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="W36" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="X36" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z36" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA36" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB36" s="30" t="s">
-        <v>27</v>
+      <c r="Z36" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA36" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB36" s="31" t="s">
+        <v>45</v>
       </c>
       <c r="AC36" s="23">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD36" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE36" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF36" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG36" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J37" s="23" t="s">
         <v>4</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="L37" s="34" t="s">
-        <v>57</v>
+        <v>69</v>
+      </c>
+      <c r="L37" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="M37" s="23">
         <v>1</v>
       </c>
-      <c r="N37" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="O37" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="P37" s="29" t="s">
-        <v>20</v>
+      <c r="N37" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="Q37" s="23">
+        <v>2</v>
+      </c>
+      <c r="R37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S37" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="U37" s="23">
+        <v>2</v>
+      </c>
+      <c r="V37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W37" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="X37" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y37" s="23">
         <v>1</v>
       </c>
-      <c r="R37" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="S37" s="32" t="s">
+      <c r="Z37" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA37" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="T37" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="U37" s="3">
-        <v>2</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W37" s="3" t="s">
+      <c r="AB37" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC37" s="23">
+        <v>3</v>
+      </c>
+      <c r="AD37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE37" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="X37" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y37" s="3">
+      <c r="AF37" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG37" s="23">
         <v>1</v>
       </c>
-      <c r="Z37" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA37" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB37" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC37" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L38" s="30" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="L38" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="M38" s="23"/>
       <c r="N38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="P38" s="35" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="P38" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="Q38" s="23"/>
       <c r="R38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="S38" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="T38" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="V38" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="W38" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="X38" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z38" s="33" t="s">
+      <c r="W38" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="X38" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="AA38" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB38" s="45" t="s">
-        <v>36</v>
+      <c r="AA38" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB38" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="AC38" s="23"/>
+      <c r="AD38" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE38" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF38" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Team.xlsx
+++ b/Team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPLJava\EPL Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E479410-7B26-4DBE-A455-20A3D2A44734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4068CF20-022A-469E-8370-3ADBD630C21B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="73">
   <si>
     <t>REMAINING</t>
   </si>
@@ -153,115 +153,100 @@
     <t>@whu</t>
   </si>
   <si>
+    <t>EVE</t>
+  </si>
+  <si>
+    <t>CRY</t>
+  </si>
+  <si>
+    <t>@che</t>
+  </si>
+  <si>
+    <t>Salah</t>
+  </si>
+  <si>
+    <t>@shu</t>
+  </si>
+  <si>
+    <t>ARS</t>
+  </si>
+  <si>
+    <t>McCarthy</t>
+  </si>
+  <si>
+    <t>WAT</t>
+  </si>
+  <si>
+    <t>Martial</t>
+  </si>
+  <si>
+    <t>BOU</t>
+  </si>
+  <si>
+    <t>@nor</t>
+  </si>
+  <si>
+    <t>Ings</t>
+  </si>
+  <si>
+    <t>BRI</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>DCL</t>
+  </si>
+  <si>
+    <t>@tot</t>
+  </si>
+  <si>
+    <t>De Bruyne</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>KDB</t>
+  </si>
+  <si>
+    <t>@mun</t>
+  </si>
+  <si>
+    <t>@cry</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>@mci</t>
+  </si>
+  <si>
+    <t>Boly</t>
+  </si>
+  <si>
+    <t>@ars</t>
+  </si>
+  <si>
+    <t>Sarr</t>
+  </si>
+  <si>
+    <t>@bur</t>
+  </si>
+  <si>
+    <t>Richarlison</t>
+  </si>
+  <si>
+    <t>WOL</t>
+  </si>
+  <si>
     <t>@sou</t>
   </si>
   <si>
-    <t>EVE</t>
-  </si>
-  <si>
-    <t>@new</t>
-  </si>
-  <si>
-    <t>CRY</t>
-  </si>
-  <si>
-    <t>@che</t>
-  </si>
-  <si>
-    <t>WHU</t>
-  </si>
-  <si>
-    <t>Salah</t>
-  </si>
-  <si>
-    <t>@shu</t>
-  </si>
-  <si>
-    <t>ARS</t>
-  </si>
-  <si>
-    <t>McCarthy</t>
-  </si>
-  <si>
-    <t>WAT</t>
-  </si>
-  <si>
-    <t>Martial</t>
-  </si>
-  <si>
-    <t>BOU</t>
-  </si>
-  <si>
-    <t>@nor</t>
-  </si>
-  <si>
-    <t>@wol</t>
-  </si>
-  <si>
-    <t>Ings</t>
-  </si>
-  <si>
-    <t>BRI</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>DCL</t>
-  </si>
-  <si>
-    <t>@tot</t>
-  </si>
-  <si>
-    <t>De Bruyne</t>
-  </si>
-  <si>
-    <t>Jimenez</t>
-  </si>
-  <si>
-    <t>Lascelles</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>KDB</t>
-  </si>
-  <si>
-    <t>@lei</t>
-  </si>
-  <si>
-    <t>@mun</t>
-  </si>
-  <si>
-    <t>@cry</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>@mci</t>
-  </si>
-  <si>
-    <t>Boly</t>
-  </si>
-  <si>
-    <t>@bou</t>
-  </si>
-  <si>
-    <t>@ars</t>
-  </si>
-  <si>
-    <t>Sarr</t>
-  </si>
-  <si>
-    <t>@bur</t>
-  </si>
-  <si>
-    <t>Richarlison</t>
-  </si>
-  <si>
-    <t>WOL</t>
+    <t>Doherty</t>
   </si>
 </sst>
 </file>
@@ -321,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,12 +363,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -665,7 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -762,26 +741,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1182,7 +1155,7 @@
   <dimension ref="A1:AG38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1236,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>39</v>
@@ -1272,20 +1245,20 @@
         <v>4.3</v>
       </c>
       <c r="E2" s="10">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="F2" s="10">
         <f t="shared" ref="F2:F16" si="0">IF(E2&lt;D2,E2,ROUNDDOWN(ROUND((E2-D2)/2,2),1)+D2)</f>
-        <v>4.3</v>
-      </c>
-      <c r="G2" s="44">
-        <v>0.96</v>
-      </c>
-      <c r="H2" s="19">
-        <v>0.33</v>
+        <v>4.3999999999999995</v>
+      </c>
+      <c r="G2" s="42">
+        <v>1.03</v>
+      </c>
+      <c r="H2" s="42">
+        <v>1.1499999999999999</v>
       </c>
       <c r="I2" s="20">
-        <v>3.6999999999999998E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="4"/>
@@ -1312,20 +1285,20 @@
         <v>4.5</v>
       </c>
       <c r="E3" s="10">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="F3" s="10">
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="G3" s="28">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="H3" s="19">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="I3" s="20">
-        <v>0.15</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="17"/>
@@ -1339,29 +1312,29 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D4" s="10">
         <v>4.7</v>
       </c>
       <c r="E4" s="10">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
-      <c r="G4" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="27">
-        <v>0.21</v>
+      <c r="G4" s="42">
+        <v>0.98</v>
+      </c>
+      <c r="H4" s="42">
+        <v>0.96</v>
       </c>
       <c r="I4" s="20">
-        <v>1.7999999999999999E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="17"/>
@@ -1384,20 +1357,20 @@
         <v>7.2</v>
       </c>
       <c r="E5" s="10">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="F5" s="10">
         <f t="shared" si="0"/>
-        <v>7.4</v>
-      </c>
-      <c r="G5" s="28">
-        <v>0.15</v>
-      </c>
-      <c r="H5" s="27">
-        <v>0.13</v>
+        <v>7.5</v>
+      </c>
+      <c r="G5" s="42">
+        <v>1</v>
+      </c>
+      <c r="H5" s="42">
+        <v>1.1200000000000001</v>
       </c>
       <c r="I5" s="20">
-        <v>0.434</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="17"/>
@@ -1411,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>16</v>
@@ -1427,13 +1400,13 @@
         <v>5.3</v>
       </c>
       <c r="G6" s="28">
-        <v>0.39</v>
+        <v>0.72</v>
       </c>
       <c r="H6" s="27">
-        <v>0.31</v>
+        <v>0.54</v>
       </c>
       <c r="I6" s="20">
-        <v>5.0999999999999997E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="N6" s="4"/>
       <c r="V6" s="4"/>
@@ -1460,13 +1433,13 @@
         <v>4.7</v>
       </c>
       <c r="G7" s="28">
-        <v>-0.62</v>
+        <v>-0.05</v>
       </c>
       <c r="H7" s="19">
-        <v>-0.68</v>
+        <v>-0.08</v>
       </c>
       <c r="I7" s="20">
-        <v>0.16</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="M7" s="4"/>
       <c r="U7" s="4"/>
@@ -1494,13 +1467,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="G8" s="21">
-        <v>-0.49</v>
+        <v>-0.45</v>
       </c>
       <c r="H8" s="27">
-        <v>0.16</v>
+        <v>-0.2</v>
       </c>
       <c r="I8" s="20">
-        <v>0.14000000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="M8" s="4"/>
       <c r="U8" s="4"/>
@@ -1512,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
@@ -1521,20 +1494,20 @@
         <v>10.7</v>
       </c>
       <c r="E9" s="10">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>10.7</v>
       </c>
       <c r="G9" s="21">
-        <v>-0.09</v>
+        <v>-0.78</v>
       </c>
       <c r="H9" s="27">
-        <v>-0.12</v>
+        <v>-0.7</v>
       </c>
       <c r="I9" s="20">
-        <v>0.53600000000000003</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="M9" s="9"/>
       <c r="O9" s="17"/>
@@ -1549,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>23</v>
@@ -1558,20 +1531,20 @@
         <v>7.9</v>
       </c>
       <c r="E10" s="10">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>7.9</v>
       </c>
-      <c r="G10" s="43">
-        <v>-0.97</v>
+      <c r="G10" s="28">
+        <v>-0.11</v>
       </c>
       <c r="H10" s="19">
-        <v>-0.79</v>
+        <v>-0.02</v>
       </c>
       <c r="I10" s="20">
-        <v>0.11799999999999999</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="M10" s="4"/>
       <c r="O10" s="17"/>
@@ -1586,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>16</v>
@@ -1602,13 +1575,13 @@
         <v>12.5</v>
       </c>
       <c r="G11" s="28">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.21</v>
       </c>
       <c r="H11" s="27">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.23</v>
       </c>
       <c r="I11" s="20">
-        <v>0.44700000000000001</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="M11" s="4"/>
       <c r="O11" s="17"/>
@@ -1623,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -1639,13 +1612,13 @@
         <v>6.2</v>
       </c>
       <c r="G12" s="21">
-        <v>0.45</v>
+        <v>0.93</v>
       </c>
       <c r="H12" s="27">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="I12" s="20">
-        <v>9.1999999999999998E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="M12" s="4"/>
       <c r="O12" s="17"/>
@@ -1669,20 +1642,20 @@
         <v>4.7</v>
       </c>
       <c r="E13" s="10">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="G13" s="43">
-        <v>-0.97</v>
+        <v>4.7</v>
+      </c>
+      <c r="G13" s="28">
+        <v>-0.11</v>
       </c>
       <c r="H13" s="27">
-        <v>-0.66</v>
+        <v>-0.12</v>
       </c>
       <c r="I13" s="20">
-        <v>0.214</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="M13" s="4"/>
       <c r="O13" s="17"/>
@@ -1697,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>39</v>
@@ -1706,20 +1679,20 @@
         <v>7</v>
       </c>
       <c r="E14" s="10">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="F14" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G14" s="44">
-        <v>1.01</v>
-      </c>
-      <c r="H14" s="44">
-        <v>1.18</v>
+        <v>7.1</v>
+      </c>
+      <c r="G14" s="42">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="H14" s="42">
+        <v>1.1499999999999999</v>
       </c>
       <c r="I14" s="20">
-        <v>0.29499999999999998</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="17"/>
@@ -1732,29 +1705,29 @@
         <v>3</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D15" s="10">
         <v>7.7</v>
       </c>
       <c r="E15" s="10">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="F15" s="10">
         <f t="shared" si="0"/>
-        <v>7.7</v>
-      </c>
-      <c r="G15" s="44">
-        <v>0.95</v>
+        <v>7.8</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0.22</v>
       </c>
       <c r="H15" s="27">
-        <v>0.86</v>
+        <v>0.17</v>
       </c>
       <c r="I15" s="20">
-        <v>0.11</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="17"/>
@@ -1777,20 +1750,20 @@
         <v>9.4</v>
       </c>
       <c r="E16" s="10">
-        <v>9.6999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="G16" s="43">
-        <v>-1.01</v>
-      </c>
-      <c r="H16" s="43">
-        <v>-1.1499999999999999</v>
+        <v>9.6</v>
+      </c>
+      <c r="G16" s="42">
+        <v>1.02</v>
+      </c>
+      <c r="H16" s="42">
+        <v>2.3199999999999998</v>
       </c>
       <c r="I16" s="20">
-        <v>0.378</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="17"/>
@@ -1800,23 +1773,23 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="52"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="10">
         <f>SUM(D2:D16)</f>
         <v>100.90000000000002</v>
       </c>
       <c r="E17" s="10">
         <f>SUM(E2:E16)+D19</f>
-        <v>103.8</v>
-      </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
+        <v>104.49999999999999</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
       <c r="N17" s="4"/>
       <c r="O17" s="17"/>
       <c r="Q17" s="4"/>
@@ -1825,45 +1798,45 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="10">
         <v>0.9</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="60"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
       <c r="N18" s="4"/>
       <c r="R18" s="16"/>
       <c r="V18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:33" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="12">
         <f>100-D17+D18</f>
         <v>-1.9872992140790302E-14</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
       <c r="N19" s="4"/>
       <c r="O19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P19" s="17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="R19" s="16"/>
       <c r="V19" s="4"/>
@@ -1873,56 +1846,56 @@
       <c r="B20" s="14"/>
     </row>
     <row r="21" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="24"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
       <c r="K21" s="23">
         <f>P19</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L21" s="22"/>
       <c r="M21" s="24"/>
       <c r="N21" s="22"/>
       <c r="O21" s="23">
         <f>K21+1</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="22"/>
       <c r="S21" s="23">
         <f>O21+1</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T21" s="22"/>
       <c r="U21" s="24"/>
       <c r="V21" s="22"/>
       <c r="W21" s="23">
         <f>S21+1</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X21" s="22"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="22"/>
       <c r="AA21" s="23">
         <f>W21+1</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AB21" s="22"/>
       <c r="AC21" s="22"/>
       <c r="AD21" s="22"/>
       <c r="AE21" s="23">
         <f>AA21+1</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
@@ -1932,64 +1905,64 @@
         <v>29</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C22" s="23">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22" s="23">
         <v>7.9</v>
       </c>
       <c r="F22" s="23">
         <f t="shared" ref="F22:F25" si="1">E22-C22</f>
-        <v>1.7000000000000002</v>
+        <v>1.6000000000000005</v>
       </c>
       <c r="G22" s="25">
         <f>D$19+F22</f>
-        <v>1.6999999999999802</v>
+        <v>1.5999999999999805</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="23" t="str">
         <f>CONCATENATE("GW ",K21)</f>
-        <v>GW 27</v>
+        <v>GW 29</v>
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="24"/>
       <c r="N22" s="23" t="str">
         <f>CONCATENATE("GW ",O21)</f>
-        <v>GW 28</v>
+        <v>GW 30</v>
       </c>
       <c r="O22" s="22"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="24"/>
       <c r="R22" s="23" t="str">
         <f>CONCATENATE("GW ",S21)</f>
-        <v>GW 29</v>
+        <v>GW 31</v>
       </c>
       <c r="S22" s="22"/>
       <c r="T22" s="26"/>
       <c r="U22" s="24"/>
       <c r="V22" s="23" t="str">
         <f>CONCATENATE("GW ",W21)</f>
-        <v>GW 30</v>
+        <v>GW 32</v>
       </c>
       <c r="W22" s="22"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="23" t="str">
         <f>CONCATENATE("GW ",AA21)</f>
-        <v>GW 31</v>
+        <v>GW 33</v>
       </c>
       <c r="AA22" s="22"/>
       <c r="AB22" s="26"/>
       <c r="AC22" s="24"/>
       <c r="AD22" s="23" t="str">
         <f>CONCATENATE("GW ",AE21)</f>
-        <v>GW 32</v>
+        <v>GW 34</v>
       </c>
       <c r="AE22" s="22"/>
       <c r="AF22" s="26"/>
@@ -1997,13 +1970,13 @@
     </row>
     <row r="23" spans="1:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C23" s="23">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>30</v>
@@ -2013,51 +1986,51 @@
       </c>
       <c r="F23" s="23">
         <f t="shared" si="1"/>
-        <v>0.29999999999999982</v>
+        <v>-1.6000000000000005</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" ref="G23" si="2">F23+G22</f>
-        <v>1.99999999999998</v>
+        <v>-1.9984014443252818E-14</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="23" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L23" s="35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M23" s="23"/>
       <c r="N23" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="P23" s="30" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q23" s="23"/>
       <c r="R23" s="23" t="s">
         <v>6</v>
       </c>
       <c r="S23" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="T23" s="35" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="T23" s="30" t="s">
+        <v>48</v>
       </c>
       <c r="U23" s="23"/>
       <c r="V23" s="23" t="s">
         <v>6</v>
       </c>
       <c r="W23" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="X23" s="30" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="Y23" s="23"/>
       <c r="Z23" s="23" t="s">
@@ -2067,121 +2040,101 @@
         <v>31</v>
       </c>
       <c r="AB23" s="30" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="AC23" s="23"/>
-      <c r="AD23" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE23" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF23" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG23" s="23"/>
     </row>
     <row r="24" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <v>31</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C24" s="23">
-        <v>8.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E24" s="23">
         <v>6.2</v>
       </c>
       <c r="F24" s="23">
         <f t="shared" si="1"/>
-        <v>-1.9999999999999991</v>
+        <v>-2.1000000000000005</v>
       </c>
       <c r="G24" s="25">
         <f>F24+G23</f>
-        <v>-1.9095836023552692E-14</v>
+        <v>-2.1000000000000205</v>
       </c>
       <c r="I24" s="22"/>
-      <c r="J24" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>26</v>
+      <c r="J24" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="M24" s="23"/>
       <c r="N24" s="32" t="s">
         <v>5</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P24" s="30" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q24" s="23"/>
-      <c r="R24" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="23" t="s">
+      <c r="R24" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="35" t="s">
-        <v>24</v>
+      <c r="T24" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="U24" s="23"/>
       <c r="V24" s="32" t="s">
         <v>5</v>
       </c>
       <c r="W24" s="32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X24" s="30" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Y24" s="23"/>
-      <c r="Z24" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="46" t="s">
-        <v>33</v>
+      <c r="Z24" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="AB24" s="30" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="AC24" s="23"/>
-      <c r="AD24" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE24" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF24" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG24" s="23"/>
     </row>
     <row r="25" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <v>31</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C25" s="23">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="23">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="F25" s="23">
         <f t="shared" si="1"/>
@@ -2189,7 +2142,7 @@
       </c>
       <c r="G25" s="25">
         <f t="shared" ref="G25" si="3">F25+G24</f>
-        <v>3.2999999999999807</v>
+        <v>1.1999999999999793</v>
       </c>
       <c r="I25" s="22"/>
       <c r="J25" s="23" t="s">
@@ -2199,7 +2152,7 @@
         <v>37</v>
       </c>
       <c r="L25" s="35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M25" s="23"/>
       <c r="N25" s="23" t="s">
@@ -2208,18 +2161,18 @@
       <c r="O25" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="30" t="s">
-        <v>34</v>
+      <c r="P25" s="41" t="s">
+        <v>29</v>
       </c>
       <c r="Q25" s="23"/>
-      <c r="R25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="23" t="s">
+      <c r="R25" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="S25" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="T25" s="35" t="s">
-        <v>53</v>
+      <c r="T25" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="U25" s="23"/>
       <c r="V25" s="23" t="s">
@@ -2228,30 +2181,20 @@
       <c r="W25" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="X25" s="42" t="s">
-        <v>29</v>
+      <c r="X25" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="Y25" s="23"/>
-      <c r="Z25" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA25" s="46" t="s">
+      <c r="Z25" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="23" t="s">
         <v>37</v>
       </c>
       <c r="AB25" s="30" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AC25" s="23"/>
-      <c r="AD25" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE25" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF25" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG25" s="23"/>
     </row>
     <row r="26" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
@@ -2266,270 +2209,211 @@
         <v>5</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L26" s="35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M26" s="23"/>
-      <c r="N26" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="23" t="s">
-        <v>30</v>
+      <c r="N26" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="P26" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="23"/>
-      <c r="R26" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="T26" s="35" t="s">
-        <v>53</v>
+      <c r="R26" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="T26" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="U26" s="23"/>
       <c r="V26" s="33" t="s">
         <v>5</v>
       </c>
       <c r="W26" s="33" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="X26" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y26" s="23"/>
-      <c r="Z26" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB26" s="30" t="s">
-        <v>44</v>
+      <c r="Z26" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB26" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="AC26" s="23"/>
-      <c r="AD26" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE26" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF26" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG26" s="23"/>
     </row>
     <row r="27" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="25"/>
       <c r="I27" s="22"/>
       <c r="J27" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="23"/>
+      <c r="N27" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="30" t="s">
-        <v>54</v>
+      <c r="O27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" s="43" t="s">
+        <v>25</v>
       </c>
       <c r="Q27" s="23"/>
       <c r="R27" s="32" t="s">
         <v>5</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="T27" s="35" t="s">
-        <v>57</v>
+        <v>65</v>
+      </c>
+      <c r="T27" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="U27" s="23"/>
       <c r="V27" s="33" t="s">
         <v>4</v>
       </c>
       <c r="W27" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="X27" s="45" t="s">
-        <v>25</v>
+        <v>67</v>
+      </c>
+      <c r="X27" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="Y27" s="23"/>
-      <c r="Z27" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA27" s="32" t="s">
-        <v>71</v>
+      <c r="Z27" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="23" t="s">
+        <v>33</v>
       </c>
       <c r="AB27" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC27" s="23"/>
+    </row>
+    <row r="28" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="22"/>
+      <c r="J28" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="35" t="s">
         <v>53</v>
-      </c>
-      <c r="AC27" s="23"/>
-      <c r="AD27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE27" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF27" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG27" s="23"/>
-    </row>
-    <row r="28" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="L28" s="35" t="s">
-        <v>46</v>
       </c>
       <c r="M28" s="23"/>
       <c r="N28" s="23" t="s">
         <v>4</v>
       </c>
       <c r="O28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="S28" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="T28" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="U28" s="23"/>
+      <c r="V28" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="W28" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="P28" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="S28" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="T28" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="W28" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="X28" s="30" t="s">
-        <v>34</v>
+      <c r="X28" s="43" t="s">
+        <v>25</v>
       </c>
       <c r="Y28" s="23"/>
       <c r="Z28" s="33" t="s">
         <v>4</v>
       </c>
       <c r="AA28" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB28" s="45" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="AB28" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="AC28" s="23"/>
-      <c r="AD28" s="33" t="s">
+    </row>
+    <row r="29" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="22"/>
+      <c r="J29" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AE28" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF28" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG28" s="23"/>
-    </row>
-    <row r="29" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="32" t="s">
+      <c r="K29" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="L29" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="38" t="s">
+      <c r="O29" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="P29" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="T29" s="35" t="s">
-        <v>53</v>
+      <c r="S29" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="T29" s="30" t="s">
+        <v>51</v>
       </c>
       <c r="U29" s="23"/>
       <c r="V29" s="23" t="s">
         <v>4</v>
       </c>
       <c r="W29" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="X29" s="41" t="s">
-        <v>29</v>
+        <v>44</v>
+      </c>
+      <c r="X29" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="Y29" s="23"/>
-      <c r="Z29" s="33" t="s">
+      <c r="Z29" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AA29" s="33" t="s">
-        <v>76</v>
+      <c r="AA29" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="AB29" s="30" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="AC29" s="23"/>
-      <c r="AD29" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE29" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF29" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG29" s="23"/>
     </row>
     <row r="30" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I30" s="22"/>
@@ -2537,62 +2421,52 @@
         <v>4</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30" s="35" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>61</v>
       </c>
       <c r="M30" s="23"/>
-      <c r="N30" s="32" t="s">
+      <c r="N30" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="O30" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="P30" s="34" t="s">
-        <v>29</v>
+      <c r="O30" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="Q30" s="23"/>
-      <c r="R30" s="32" t="s">
+      <c r="R30" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="S30" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="T30" s="31" t="s">
-        <v>67</v>
+      <c r="S30" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="T30" s="30" t="s">
+        <v>42</v>
       </c>
       <c r="U30" s="23"/>
-      <c r="V30" s="38" t="s">
+      <c r="V30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="W30" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="X30" s="30" t="s">
-        <v>21</v>
+      <c r="W30" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="X30" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="Y30" s="23"/>
-      <c r="Z30" s="47" t="s">
+      <c r="Z30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AA30" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB30" s="30" t="s">
-        <v>44</v>
+      <c r="AA30" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB30" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="AC30" s="23"/>
-      <c r="AD30" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE30" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF30" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG30" s="23"/>
     </row>
     <row r="31" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I31" s="22"/>
@@ -2600,17 +2474,17 @@
         <v>3</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M31" s="23"/>
       <c r="N31" s="32" t="s">
         <v>3</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P31" s="30" t="s">
         <v>40</v>
@@ -2620,172 +2494,142 @@
         <v>3</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="T31" s="35" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="T31" s="30" t="s">
+        <v>50</v>
       </c>
       <c r="U31" s="23"/>
-      <c r="V31" s="32" t="s">
+      <c r="V31" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="W31" s="32" t="s">
-        <v>62</v>
+      <c r="W31" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="X31" s="30" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="Y31" s="23"/>
-      <c r="Z31" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA31" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB31" s="30" t="s">
-        <v>53</v>
+      <c r="Z31" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA31" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB31" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="AC31" s="23"/>
-      <c r="AD31" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE31" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF31" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG31" s="23"/>
     </row>
     <row r="32" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I32" s="22"/>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="23"/>
+      <c r="N32" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="T32" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U32" s="23"/>
+      <c r="V32" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="X32" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA32" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB32" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC32" s="23"/>
+    </row>
+    <row r="33" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23" t="s">
+      <c r="L33" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" s="23"/>
+      <c r="N33" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="23" t="s">
+      <c r="O33" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="P32" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="32" t="s">
+      <c r="P33" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="S32" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="T32" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="U32" s="23"/>
-      <c r="V32" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="W32" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="X32" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA32" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB32" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC32" s="23"/>
-      <c r="AD32" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE32" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF32" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG32" s="23"/>
-    </row>
-    <row r="33" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J33" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="L33" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="T33" s="35" t="s">
-        <v>24</v>
+      <c r="S33" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="T33" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="U33" s="23"/>
       <c r="V33" s="23" t="s">
         <v>3</v>
       </c>
       <c r="W33" s="23" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="X33" s="30" t="s">
         <v>34</v>
       </c>
       <c r="Y33" s="23"/>
-      <c r="Z33" s="46" t="s">
+      <c r="Z33" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AA33" s="46" t="s">
+      <c r="AA33" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB33" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="AB33" s="45" t="s">
-        <v>49</v>
-      </c>
       <c r="AC33" s="23"/>
-      <c r="AD33" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE33" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF33" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG33" s="23"/>
-    </row>
-    <row r="34" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
-      <c r="L34" s="48"/>
+      <c r="L34" s="46"/>
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
@@ -2793,131 +2637,115 @@
       <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
       <c r="S34" s="23"/>
-      <c r="T34" s="48"/>
+      <c r="T34" s="43"/>
       <c r="U34" s="23"/>
       <c r="V34" s="23"/>
       <c r="W34" s="23"/>
-      <c r="X34" s="34"/>
+      <c r="X34" s="43"/>
       <c r="Y34" s="23"/>
       <c r="Z34" s="23"/>
       <c r="AA34" s="23"/>
-      <c r="AB34" s="45"/>
+      <c r="AB34" s="43"/>
       <c r="AC34" s="23"/>
-      <c r="AD34" s="23"/>
-      <c r="AE34" s="23"/>
-      <c r="AF34" s="45"/>
-      <c r="AG34" s="23"/>
-    </row>
-    <row r="35" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J35" s="23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L35" s="30" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="L35" s="35" t="s">
+        <v>24</v>
       </c>
       <c r="M35" s="23">
+        <v>1</v>
+      </c>
+      <c r="N35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="23">
         <v>2</v>
       </c>
-      <c r="N35" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="P35" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q35" s="23">
+      <c r="R35" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="T35" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="U35" s="23">
         <v>1</v>
       </c>
-      <c r="R35" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="T35" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="U35" s="23">
+      <c r="V35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="X35" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y35" s="23">
         <v>3</v>
       </c>
-      <c r="V35" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="W35" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="X35" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y35" s="23">
+      <c r="Z35" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB35" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC35" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="M36" s="23">
         <v>2</v>
       </c>
-      <c r="Z35" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA35" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB35" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC35" s="23">
-        <v>2</v>
-      </c>
-      <c r="AD35" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE35" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF35" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG35" s="23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J36" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="K36" s="23" t="s">
+      <c r="N36" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="O36" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="M36" s="23">
-        <v>3</v>
-      </c>
-      <c r="N36" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="O36" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" s="40" t="s">
-        <v>28</v>
+      <c r="P36" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="Q36" s="23">
         <v>3</v>
       </c>
-      <c r="R36" s="33" t="s">
+      <c r="R36" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="S36" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="T36" s="30" t="s">
-        <v>68</v>
+      <c r="S36" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="T36" s="31" t="s">
+        <v>43</v>
       </c>
       <c r="U36" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V36" s="23" t="s">
         <v>5</v>
@@ -2925,73 +2753,61 @@
       <c r="W36" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="X36" s="30" t="s">
-        <v>34</v>
+      <c r="X36" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="Y36" s="23">
-        <v>3</v>
-      </c>
-      <c r="Z36" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AA36" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB36" s="31" t="s">
-        <v>45</v>
+      <c r="AA36" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB36" s="30" t="s">
+        <v>53</v>
       </c>
       <c r="AC36" s="23">
         <v>1</v>
       </c>
-      <c r="AD36" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE36" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF36" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG36" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J37" s="23" t="s">
         <v>4</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="L37" s="29" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="M37" s="23">
+        <v>3</v>
+      </c>
+      <c r="N37" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q37" s="23">
         <v>1</v>
       </c>
-      <c r="N37" s="32" t="s">
+      <c r="R37" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O37" s="32" t="s">
+      <c r="S37" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="P37" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q37" s="23">
-        <v>2</v>
-      </c>
-      <c r="R37" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="S37" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="T37" s="34" t="s">
-        <v>48</v>
+      <c r="T37" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="U37" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V37" s="23" t="s">
         <v>4</v>
@@ -2999,66 +2815,54 @@
       <c r="W37" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="X37" s="30" t="s">
-        <v>39</v>
+      <c r="X37" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="Y37" s="23">
         <v>1</v>
       </c>
-      <c r="Z37" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA37" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB37" s="45" t="s">
-        <v>42</v>
+      <c r="Z37" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA37" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB37" s="31" t="s">
+        <v>20</v>
       </c>
       <c r="AC37" s="23">
-        <v>3</v>
-      </c>
-      <c r="AD37" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE37" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF37" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG37" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="10:33" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="10:29" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="35" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="L38" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="M38" s="23"/>
       <c r="N38" s="23" t="s">
         <v>6</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="30" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="P38" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="Q38" s="23"/>
-      <c r="R38" s="23" t="s">
+      <c r="R38" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="S38" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="T38" s="29" t="s">
-        <v>35</v>
+      <c r="S38" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="T38" s="31" t="s">
+        <v>46</v>
       </c>
       <c r="U38" s="23"/>
       <c r="V38" s="23" t="s">
@@ -3067,30 +2871,20 @@
       <c r="W38" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="X38" s="31" t="s">
-        <v>70</v>
+      <c r="X38" s="30" t="s">
+        <v>62</v>
       </c>
       <c r="Y38" s="23"/>
-      <c r="Z38" s="46" t="s">
+      <c r="Z38" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AA38" s="46" t="s">
-        <v>50</v>
+      <c r="AA38" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="AB38" s="31" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="AC38" s="23"/>
-      <c r="AD38" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE38" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF38" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Team.xlsx
+++ b/Team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EPLJava\EPL Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3ADC6C-24BC-41DF-A7EB-8528A4ED9B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA9359-42F4-47A6-9BF5-15207E4C8AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="602" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1282,8 +1282,8 @@
   </sheetPr>
   <dimension ref="A1:BA96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI48" sqref="AI48"/>
+    <sheetView tabSelected="1" topLeftCell="G45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA63" sqref="AA63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
